--- a/examples/07_te_flaps/dac_outputs/BAR_10_output.xlsx
+++ b/examples/07_te_flaps/dac_outputs/BAR_10_output.xlsx
@@ -20887,7 +20887,7 @@
       <c r="B837" t="inlineStr"/>
       <c r="C837" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[0.8]</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
@@ -20905,7 +20905,7 @@
       <c r="B838" t="inlineStr"/>
       <c r="C838" t="inlineStr">
         <is>
-          <t>[9.]</t>
+          <t>[0.17453293]</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
@@ -20923,7 +20923,7 @@
       <c r="B839" t="inlineStr"/>
       <c r="C839" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[-0.17453293]</t>
         </is>
       </c>
       <c r="D839" t="inlineStr">
@@ -21125,18 +21125,18 @@
   [[ 0.          0.          0.        ]]]
  ...
  [[[ 0.          0.          0.        ]]
-  [[ 0.0646428   0.1001559   0.08453631]]
-  [[ 0.1292856   0.20031179  0.16907263]]
+  [[ 0.09492323  0.11579979  0.1152312 ]]
+  [[ 0.18984647  0.23159959  0.2304624 ]]
   ...
-  [[-0.1292856  -0.20031179 -0.16907263]]
-  [[-0.0646428  -0.1001559  -0.08453631]]
+  [[-0.18984647 -0.23159959 -0.2304624 ]]
+  [[-0.09492323 -0.11579979 -0.1152312 ]]
   [[ 0.          0.          0.        ]]]
  [[[ 0.          0.          0.        ]]
-  [[ 0.1168486   0.10665333  0.09069508]]
-  [[ 0.2336972   0.21330666  0.18139016]]
+  [[ 0.09551385  0.1033368   0.1129884 ]]
+  [[ 0.1910277   0.2066736   0.2259768 ]]
   ...
-  [[-0.2336972  -0.21330666 -0.18139016]]
-  [[-0.1168486  -0.10665333 -0.09069508]]
+  [[-0.1910277  -0.2066736  -0.2259768 ]]
+  [[-0.09551385 -0.1033368  -0.1129884 ]]
   [[ 0.          0.          0.        ]]]
  [[[ 0.          0.          0.        ]]
   [[ 0.20244966  0.20244966  0.20244966]]
@@ -21184,20 +21184,20 @@
   [[0.34328947 0.34328947 0.34328947]]
   [[0.34328947 0.34328947 0.34328947]]]
  ...
- [[[0.11524771 0.15920291 0.19802924]]
-  [[0.1154285  0.1594353  0.19831109]]
-  [[0.11594555 0.16011029 0.1991453 ]]
+ [[[0.16618966 0.18052688 0.24367898]]
+  [[0.16648519 0.18083626 0.24411231]]
+  [[0.16730439 0.18171541 0.24531347]]
   ...
-  [[0.11594555 0.16011029 0.1991453 ]]
-  [[0.1154285  0.1594353  0.19831109]]
-  [[0.11524771 0.15920291 0.19802924]]]
- [[[0.11574139 0.16061717 0.20021618]]
-  [[0.11592295 0.16085163 0.20050114]]
-  [[0.11644222 0.16153261 0.20134456]]
+  [[0.16730439 0.18171541 0.24531347]]
+  [[0.16648519 0.18083626 0.24411231]]
+  [[0.16618966 0.18052688 0.24367898]]]
+ [[[0.16611716 0.20973775 0.25365742]]
+  [[0.16641256 0.21011072 0.2541085 ]]
+  [[0.1672314  0.21114458 0.25535885]]
   ...
-  [[0.11644222 0.16153261 0.20134456]]
-  [[0.11592295 0.16085163 0.20050114]]
-  [[0.11574139 0.16061717 0.20021618]]]
+  [[0.1672314  0.21114458 0.25535885]]
+  [[0.16641256 0.21011072 0.2541085 ]]
+  [[0.16611716 0.20973775 0.25365742]]]
  [[[0.001      0.001      0.001     ]]
   [[0.001      0.001      0.001     ]]
   [[0.001      0.001      0.001     ]]
@@ -21715,18 +21715,18 @@
   [[ 0.          0.          0.        ]]]
  ...
  [[[ 0.          0.          0.        ]]
-  [[ 0.0646428   0.1001559   0.08453631]]
-  [[ 0.1292856   0.20031179  0.16907263]]
+  [[ 0.09492323  0.11579979  0.1152312 ]]
+  [[ 0.18984647  0.23159959  0.2304624 ]]
   ...
-  [[-0.1292856  -0.20031179 -0.16907263]]
-  [[-0.0646428  -0.1001559  -0.08453631]]
+  [[-0.18984647 -0.23159959 -0.2304624 ]]
+  [[-0.09492323 -0.11579979 -0.1152312 ]]
   [[ 0.          0.          0.        ]]]
  [[[ 0.          0.          0.        ]]
-  [[ 0.1168486   0.10665333  0.09069508]]
-  [[ 0.2336972   0.21330666  0.18139016]]
+  [[ 0.09551385  0.1033368   0.1129884 ]]
+  [[ 0.1910277   0.2066736   0.2259768 ]]
   ...
-  [[-0.2336972  -0.21330666 -0.18139016]]
-  [[-0.1168486  -0.10665333 -0.09069508]]
+  [[-0.1910277  -0.2066736  -0.2259768 ]]
+  [[-0.09551385 -0.1033368  -0.1129884 ]]
   [[ 0.          0.          0.        ]]]
  [[[ 0.          0.          0.        ]]
   [[ 0.20244966  0.20244966  0.20244966]]
@@ -21774,20 +21774,20 @@
   [[0.34328947 0.34328947 0.34328947]]
   [[0.34328947 0.34328947 0.34328947]]]
  ...
- [[[0.11524771 0.15920291 0.19802924]]
-  [[0.1154285  0.1594353  0.19831109]]
-  [[0.11594555 0.16011029 0.1991453 ]]
+ [[[0.16618966 0.18052688 0.24367898]]
+  [[0.16648519 0.18083626 0.24411231]]
+  [[0.16730439 0.18171541 0.24531347]]
   ...
-  [[0.11594555 0.16011029 0.1991453 ]]
-  [[0.1154285  0.1594353  0.19831109]]
-  [[0.11524771 0.15920291 0.19802924]]]
- [[[0.11574139 0.16061717 0.20021618]]
-  [[0.11592295 0.16085163 0.20050114]]
-  [[0.11644222 0.16153261 0.20134456]]
+  [[0.16730439 0.18171541 0.24531347]]
+  [[0.16648519 0.18083626 0.24411231]]
+  [[0.16618966 0.18052688 0.24367898]]]
+ [[[0.16611716 0.20973775 0.25365742]]
+  [[0.16641256 0.21011072 0.2541085 ]]
+  [[0.1672314  0.21114458 0.25535885]]
   ...
-  [[0.11644222 0.16153261 0.20134456]]
-  [[0.11592295 0.16085163 0.20050114]]
-  [[0.11574139 0.16061717 0.20021618]]]
+  [[0.1672314  0.21114458 0.25535885]]
+  [[0.16641256 0.21011072 0.2541085 ]]
+  [[0.16611716 0.20973775 0.25365742]]]
  [[[0.001      0.001      0.001     ]]
   [[0.001      0.001      0.001     ]]
   [[0.001      0.001      0.001     ]]
@@ -22565,106 +22565,106 @@
       <c r="B903" t="inlineStr"/>
       <c r="C903" t="inlineStr">
         <is>
-          <t>[[ 2.69782987e-03  4.09608945e-03  5.51073921e-03  6.94400024e-03
-   8.40799129e-03  9.92371742e-03  1.15186021e-02  1.32248984e-02
-   1.50694576e-02  1.70720326e-02  1.92639921e-02  2.16894746e-02
-   2.44383086e-02  2.79931843e-02  3.29967606e-02  3.72910320e-02
-   3.92544274e-02  3.92396937e-02  3.72964092e-02  3.36642431e-02]
- [ 5.37660355e-03  7.65788032e-03  1.00186283e-02  1.25021372e-02
-   1.51606809e-02  1.80446674e-02  2.11865056e-02  2.46285836e-02
-   2.84346091e-02  3.27229110e-02  3.82302133e-02  4.63651726e-02
-   5.32486787e-02  5.58624813e-02  5.51852120e-02  5.14612434e-02
-   4.53943405e-02  3.78029397e-02  2.93310811e-02  2.02808315e-02]
- [ 9.12711346e-03  1.28107499e-02  1.67681079e-02  2.10801712e-02
-   2.57966437e-02  3.09759507e-02  3.67109995e-02  4.32210144e-02
-   5.17407601e-02  6.41045499e-02  7.30992584e-02  7.52731712e-02
-   7.23731772e-02  6.55353051e-02  5.59844045e-02  4.47488592e-02
-   3.25702042e-02  1.97244434e-02  6.27489069e-03 -7.83449439e-03]
- [ 1.43046467e-02  2.01735414e-02  2.66040149e-02  3.36594550e-02
-   4.14464984e-02  5.00776101e-02  6.03890451e-02  7.52337533e-02
-   9.14301616e-02  9.65792218e-02  9.36671987e-02  8.53112335e-02
-   7.31567691e-02  5.84965983e-02  4.24246619e-02  2.54736594e-02
-   7.73478216e-03 -1.08954198e-02 -3.04922711e-02 -4.99768271e-02]
- [ 2.13266869e-02  3.02700032e-02  4.00961799e-02  5.08765152e-02
-   6.23561018e-02  7.68925847e-02  9.84400552e-02  1.16429784e-01
-   1.18371572e-01  1.11494432e-01  9.87263752e-02  8.17776476e-02
-   6.21224438e-02  4.10059698e-02  1.88606822e-02 -4.39036421e-03
-  -2.89759675e-02 -5.48055375e-02 -7.98480090e-02 -1.01455721e-01]
- [ 3.03979914e-02  4.33001457e-02  5.68777339e-02  7.08171248e-02
-   8.96554088e-02  1.17260838e-01  1.39084981e-01  1.40282947e-01
-   1.31047256e-01  1.14828644e-01  9.35447646e-02  6.89677441e-02
-   4.25957386e-02  1.48707989e-02 -1.44157689e-02 -4.55597472e-02
-  -7.84046724e-02 -1.10315672e-01 -1.37681224e-01 -1.58950746e-01]
- [ 4.12296373e-02  5.72069631e-02  7.33158507e-02  9.58552933e-02
-   1.28622183e-01  1.58107094e-01  1.62611086e-01  1.53000673e-01
-   1.34671487e-01  1.09876750e-01  8.07061650e-02  4.90156459e-02
-   1.54773766e-02 -2.01714835e-02 -5.82655412e-02 -9.87816592e-02
-  -1.39115055e-01 -1.74159583e-01 -2.05088809e-01 -1.99867637e-01]
- [ 5.00591070e-02  6.80982507e-02  9.28471298e-02  1.30423146e-01
-   1.69104821e-01  1.83703238e-01  1.76680469e-01  1.58289656e-01
-   1.31432977e-01  9.85012163e-02  6.17586996e-02  2.24117978e-02
-  -1.96825800e-02 -6.48857476e-02 -1.13360696e-01 -1.63263748e-01
-  -2.08611141e-01 -2.48252137e-01 -2.61826550e-01 -2.47397889e-01]
- [ 5.36487763e-02  7.84503644e-02  1.20651868e-01  1.66841750e-01
-   1.98581430e-01  1.99902320e-01  1.84461733e-01  1.57845548e-01
-   1.22769487e-01  8.18487669e-02  3.70433157e-02 -1.12920344e-02
-  -6.35003410e-02 -1.19836554e-01 -1.79536232e-01 -2.37446165e-01
-  -2.87190009e-01 -3.29897987e-01 -3.15822917e-01 -3.09288655e-01]
- [ 5.19808351e-02  9.55652242e-02  1.50280059e-01  1.97349372e-01
-   2.18150503e-01  2.10374358e-01  1.87379707e-01  1.52806096e-01
-   1.09528561e-01  6.02324334e-02  6.21601184e-03 -5.25789441e-02
-  -1.16420405e-01 -1.85254164e-01 -2.56095112e-01 -3.20527388e-01
-  -3.78053973e-01 -4.02039985e-01 -3.84837682e-01 -3.81158263e-01]
- [ 5.19841147e-02  1.16642019e-01  1.74453161e-01  2.20772231e-01
-   2.31177897e-01  2.16564925e-01  1.86368898e-01  1.43823603e-01
-   9.20418625e-02  3.34687588e-02 -3.11005618e-02 -1.01803996e-01
-  -1.78756963e-01 -2.61075050e-01 -3.42523001e-01 -4.13836422e-01
-  -4.79375099e-01 -4.72295457e-01 -4.63604520e-01 -4.68400903e-01]
- [ 5.79359120e-02  1.33148653e-01  1.93510949e-01  2.37236725e-01
-   2.39794670e-01  2.19282161e-01  1.81975673e-01  1.31194911e-01
-   7.02749879e-02  1.29040552e-03 -7.51905120e-02 -1.59244831e-01
-  -2.50812327e-01 -3.47225587e-01 -4.38772046e-01 -5.19900972e-01
-  -5.80975361e-01 -5.62661360e-01 -5.59437874e-01 -5.68265507e-01]
- [ 6.38345288e-02  1.40651155e-01  2.08930557e-01  2.47858679e-01
-   2.45036888e-01  2.19019063e-01  1.74468325e-01  1.15019317e-01
-   4.40668598e-02 -3.65250954e-02 -1.26298252e-01 -2.25206662e-01
-  -3.32837127e-01 -4.43816915e-01 -5.45459223e-01 -6.39714410e-01
-  -6.84514091e-01 -6.69129471e-01 -6.71249917e-01 -6.80910815e-01]
- [ 6.35471364e-02  1.41296106e-01  2.19937569e-01  2.53959382e-01
-   2.47425252e-01  2.16038498e-01  1.63963604e-01  9.52559593e-02
-   1.32710588e-02 -8.01827725e-02 -1.84681890e-01 -3.00075873e-01
-  -4.25084617e-01 -5.51013588e-01 -6.63932434e-01 -7.71570955e-01
-  -7.88486843e-01 -7.84700173e-01 -7.96482273e-01 -8.07052795e-01]
- [ 5.13753819e-02  1.37935356e-01  2.25841397e-01  2.56497898e-01
-   2.47224446e-01  2.10470657e-01  1.50507675e-01  7.18120460e-02
-  -2.22580970e-02 -1.29899948e-01 -2.50648088e-01 -3.84267895e-01
-  -5.27835011e-01 -6.68916955e-01 -7.96278154e-01 -9.11802958e-01
-  -9.16490249e-01 -9.19441391e-01 -9.35377060e-01 -9.47587427e-01]
- [ 2.77768324e-02  1.31606047e-01  2.26618418e-01  2.55981829e-01
-   2.44575406e-01  2.02378344e-01  1.34110486e-01  4.45921744e-02
-  -6.26893017e-02 -1.85925568e-01 -3.24544130e-01 -4.78145033e-01
-  -6.41230527e-01 -7.98262158e-01 -9.44085502e-01 -1.05954502e+00
-  -1.05546371e+00 -1.07162874e+00 -1.08910420e+00 -1.10324283e+00]
- [-4.48198130e-03  1.21647631e-01  2.22604521e-01  2.52649277e-01
-   2.39550275e-01  1.91792973e-01  1.14729568e-01  1.34830695e-02
-  -1.08215938e-01 -2.48525633e-01 -4.06745643e-01 -5.81925640e-01
-  -7.65658706e-01 -9.40212909e-01 -1.10790036e+00 -1.22304098e+00
-  -1.21931695e+00 -1.24028181e+00 -1.25851412e+00 -1.27470785e+00]
- [-4.20729621e-02  1.07414545e-01  2.14057196e-01  2.46608039e-01
-   2.32185571e-01  1.78724058e-01  9.22878608e-02 -2.16469907e-02
-  -1.59053433e-01 -3.17986327e-01 -4.97591502e-01 -6.95743416e-01
-  -9.01895067e-01 -1.09616203e+00 -1.28699323e+00 -1.39192055e+00
-  -1.40692126e+00 -1.42534119e+00 -1.44425200e+00 -1.46284984e+00]
- [-8.29860494e-02  8.78213958e-02  2.01383015e-01  2.37878228e-01
-   2.22494845e-01  1.63152754e-01  6.66962113e-02 -6.09516043e-02
-  -2.15422366e-01 -3.94604290e-01 -5.97282700e-01 -8.20168143e-01
-  -1.05060507e+00 -1.26740942e+00 -1.47991752e+00 -1.57663613e+00
-  -1.60622625e+00 -1.62708936e+00 -1.64709918e+00 -1.66862468e+00]
- [-1.24175170e-01  6.28469597e-02  1.84691133e-01  2.26464786e-01
-   2.10465764e-01  1.45035378e-01  3.78525416e-02 -1.04597313e-01
-  -2.77547785e-01 -4.78625416e-01 -7.05982890e-01 -9.55875239e-01
-  -1.21268885e+00 -1.45453850e+00 -1.68615169e+00 -1.78598620e+00
-  -1.81891621e+00 -1.84620764e+00 -1.86792399e+00 -1.89298324e+00]]</t>
+          <t>[[ 1.80013322e-02  2.09431125e-02  2.39956197e-02  2.71597796e-02
+   3.04364859e-02  3.38318697e-02  3.74271255e-02  4.13581943e-02
+   4.54977940e-02  4.97437673e-02  5.40293897e-02  5.79877928e-02
+   6.10527316e-02  6.27006425e-02  6.25505908e-02  6.05847279e-02
+   5.71137597e-02  5.25150666e-02  4.70693020e-02  4.09571429e-02]
+ [ 3.58061494e-02  4.07996484e-02  4.59747889e-02  5.14729026e-02
+   5.76470945e-02  6.42456084e-02  7.11274085e-02  7.80527125e-02
+   8.41957581e-02  8.86323119e-02  9.06196484e-02  8.96588607e-02
+   8.59335451e-02  8.01504021e-02  7.29073051e-02  6.45509025e-02
+   5.53223331e-02  4.54128248e-02  3.49716158e-02  2.40828656e-02]
+ [ 6.04315339e-02  6.85173125e-02  7.77958655e-02  8.78343109e-02
+   9.84210490e-02  1.08650333e-01  1.17047648e-01  1.22339119e-01
+   1.23606525e-01  1.20488621e-01  1.13866681e-01  1.04828855e-01
+   9.39998415e-02  8.18058110e-02  6.85564720e-02  5.44781469e-02
+   3.97297571e-02  2.44020243e-02  8.54716253e-03 -7.83867475e-03]
+ [ 9.35309310e-02  1.07603005e-01  1.22782422e-01  1.37710057e-01
+   1.50237270e-01  1.58467924e-01  1.61125503e-01  1.57846006e-01
+   1.49723441e-01  1.38198075e-01  1.24201363e-01  1.08318240e-01
+   9.09856331e-02  7.24812286e-02  5.30348672e-02  3.28055575e-02
+   1.18596408e-02 -9.83512945e-03 -3.23205809e-02 -5.49166808e-02]
+ [ 1.38569425e-01  1.59639942e-01  1.78863714e-01  1.93341079e-01
+   2.00875622e-01  2.00845363e-01  1.93900512e-01  1.81614690e-01
+   1.65606568e-01  1.46792578e-01  1.25789786e-01  1.03033239e-01
+   7.88315556e-02  5.35048756e-02  2.72140726e-02 -6.71376234e-05
+  -2.84739386e-02 -5.79508612e-02 -8.71009599e-02 -1.13334725e-01]
+ [ 1.94994409e-01  2.19149693e-01  2.36070323e-01  2.43752449e-01
+   2.42577572e-01  2.33283741e-01  2.17731282e-01  1.97807085e-01
+   1.74470317e-01  1.48382587e-01  1.20045297e-01  8.98801151e-02
+   5.83074132e-02  2.54617686e-02 -8.78663561e-03 -4.46349868e-02
+  -8.19737738e-02 -1.18913346e-01 -1.51979726e-01 -1.79080339e-01]
+ [ 2.55439296e-01  2.76133930e-01  2.86077375e-01  2.85833331e-01
+   2.75993185e-01  2.58507689e-01  2.35593665e-01  2.08366975e-01
+   1.77552138e-01  1.43793747e-01  1.07648022e-01  6.96249041e-02
+   2.98841359e-02 -1.17768272e-02 -5.55932516e-02 -1.01540194e-01
+  -1.47689057e-01 -1.89742564e-01 -2.24393801e-01 -2.51733115e-01]
+ [ 3.10088359e-01  3.24972558e-01  3.28363689e-01  3.20528770e-01
+   3.03148639e-01  2.78756098e-01  2.48818170e-01  2.14142325e-01
+   1.75541372e-01  1.33728463e-01  8.93068411e-02  4.25634834e-02
+  -6.71273580e-03 -5.87865198e-02 -1.13763258e-01 -1.70241742e-01
+  -2.23612229e-01 -2.68627983e-01 -3.04541349e-01 -3.32805052e-01]
+ [ 3.55220819e-01  3.65799390e-01  3.63473805e-01  3.49293036e-01
+   3.25820627e-01  2.95092833e-01  2.58104643e-01  2.15811179e-01
+   1.69117749e-01  1.18755437e-01  6.52108380e-02  8.40487176e-03
+  -5.19417972e-02 -1.16009354e-01 -1.83209259e-01 -2.49597613e-01
+  -3.08315296e-01 -3.55996701e-01 -3.93747911e-01 -4.25022004e-01]
+ [ 3.90557078e-01  3.98733337e-01  3.92339076e-01  3.73548295e-01
+   3.44978471e-01  3.08138675e-01  2.64104911e-01  2.13983220e-01
+   1.58722142e-01  9.90261917e-02  3.51253606e-02 -3.31921871e-02
+  -1.06138467e-01 -1.83650967e-01 -2.63431968e-01 -3.38691239e-01
+  -4.02052668e-01 -4.52823072e-01 -4.94144579e-01 -5.30681414e-01]
+ [ 4.15427838e-01  4.24120419e-01  4.15980581e-01  3.94187770e-01
+   3.61209627e-01  3.18484630e-01  2.67339979e-01  2.09019205e-01
+   1.44500254e-01  7.44035896e-02 -1.19653513e-03 -8.24823034e-02
+  -1.69534282e-01 -2.61699764e-01 -3.54100638e-01 -4.37349452e-01
+  -5.05663918e-01 -5.60502231e-01 -6.08053268e-01 -6.51335663e-01]
+ [ 4.29293870e-01  4.42339024e-01  4.35123712e-01  4.11772947e-01
+   3.74993523e-01  3.26572375e-01  2.68133445e-01  2.01061041e-01
+   1.26405644e-01  4.47165986e-02 -4.39390605e-02 -1.39662096e-01
+  -2.42399803e-01 -3.50160680e-01 -4.55132974e-01 -5.46059467e-01
+  -6.19975321e-01 -6.81223351e-01 -7.37147981e-01 -7.88030977e-01]
+ [ 4.33612924e-01  4.53551881e-01  4.50192781e-01  4.26667461e-01
+   3.86691175e-01  3.32688952e-01  2.66632993e-01  1.90138771e-01
+   1.04341286e-01  9.83965866e-03 -9.32670644e-02 -2.04969188e-01
+  -3.24998574e-01 -4.49206156e-01 -5.66530532e-01 -6.65568650e-01
+  -7.46514907e-01 -8.16837428e-01 -8.82508904e-01 -9.41525566e-01]
+ [ 4.29660642e-01  4.57769740e-01  4.61316734e-01  4.39094526e-01
+   3.96544746e-01  3.36984448e-01  2.62896281e-01  1.76219305e-01
+   7.82342011e-02 -3.03484673e-02 -1.49369640e-01 -2.78732774e-01
+  -4.17600457e-01 -5.59021772e-01 -6.88580344e-01 -7.97056034e-01
+  -8.86905411e-01 -9.68640612e-01 -1.04469693e+00 -1.11287631e+00]
+ [ 4.18881882e-01  4.55389146e-01  4.68409897e-01  4.49179458e-01
+   4.04677101e-01  3.39532335e-01  2.56949823e-01  1.59267179e-01
+   4.80099463e-02 -7.59947299e-02 -2.12492073e-01 -3.61337299e-01
+  -5.20483793e-01 -6.79658663e-01 -8.22284806e-01 -9.41573680e-01
+  -1.04268185e+00 -1.13713531e+00 -1.22452522e+00 -1.30342285e+00]
+ [ 4.04003472e-01  4.46123274e-01  4.71177769e-01  4.56932302e-01
+   4.11140244e-01  3.40371951e-01  2.48803114e-01  1.39248976e-01
+   1.35686342e-02 -1.27284687e-01 -2.82925805e-01 -4.53135689e-01
+  -6.33784445e-01 -8.11663890e-01 -9.68650359e-01 -1.10032045e+00
+  -1.21461733e+00 -1.32306526e+00 -1.42317650e+00 -1.51426551e+00]
+ [ 3.85937742e-01  4.32307227e-01  4.69004618e-01  4.62272576e-01
+   4.15947959e-01  3.39531830e-01  2.38448076e-01  1.16112192e-01
+  -2.52162403e-02 -1.84425633e-01 -3.60994604e-01 -5.54333244e-01
+  -7.57879852e-01 -9.55765570e-01 -1.12875867e+00 -1.27398331e+00
+  -1.40347583e+00 -1.52765090e+00 -1.64156614e+00 -1.74644025e+00]
+ [ 3.65000767e-01  4.16423221e-01  4.61121510e-01  4.65035411e-01
+   4.19095319e-01  3.37031567e-01  2.25860606e-01  8.97838112e-02
+  -6.84987346e-02 -2.47648518e-01 -4.46988304e-01 -6.65036619e-01
+  -8.93511242e-01 -1.11282089e+00 -1.30321961e+00 -1.46321425e+00
+  -1.61047495e+00 -1.75178923e+00 -1.88046101e+00 -2.00112851e+00]
+ [ 3.41341989e-01  3.98682017e-01  4.48799189e-01  4.64958719e-01
+   4.20561472e-01  3.32865663e-01  2.11004660e-01  6.01671269e-02
+  -1.16442360e-01 -3.17197311e-01 -5.41063197e-01 -7.85784998e-01
+  -1.04129952e+00 -1.28366578e+00 -1.49221734e+00 -1.66924100e+00
+  -1.83654209e+00 -1.99610030e+00 -2.14085271e+00 -2.27953043e+00]
+ [ 3.15258647e-01  3.79482192e-01  4.33872391e-01  4.61650293e-01
+   4.20298462e-01  3.27008717e-01  1.93829929e-01  2.71507954e-02
+  -1.69217497e-01 -3.93267109e-01 -6.43353877e-01 -9.17223754e-01
+  -1.20210079e+00 -1.46850718e+00 -1.69641321e+00 -1.89325077e+00
+  -2.08223891e+00 -2.26136969e+00 -2.42388081e+00 -2.58279986e+00]]</t>
         </is>
       </c>
       <c r="D903" t="inlineStr">
@@ -22682,106 +22682,106 @@
       <c r="B904" t="inlineStr"/>
       <c r="C904" t="inlineStr">
         <is>
-          <t>[[ 4.06906650e-02  4.07329754e-02  4.07694167e-02  4.08088718e-02
-   4.08707508e-02  4.09845223e-02  4.11865027e-02  4.15185231e-02
-   4.20172933e-02  4.27130433e-02  4.36486988e-02  4.48786786e-02
-   4.64906665e-02  4.87022003e-02  5.13868853e-02  5.29893007e-02
-   5.26249125e-02  5.04969637e-02  4.67509556e-02  4.16779727e-02]
- [ 5.14413179e-02  5.18648542e-02  5.23747714e-02  5.30273849e-02
-   5.38891879e-02  5.50258801e-02  5.64848167e-02  5.83245753e-02
-   6.06281577e-02  6.35038260e-02  6.72173128e-02  7.16769606e-02
-   7.42224984e-02  7.33383439e-02  6.96435007e-02  6.35133874e-02
-   5.55076655e-02  4.63622220e-02  3.67208849e-02  2.68979594e-02]
- [ 6.61588476e-02  6.74272722e-02  6.90354851e-02  7.10881491e-02
-   7.36583554e-02  7.68298185e-02  8.07270758e-02  8.54785242e-02
-   9.11814667e-02  9.73726150e-02  9.97919446e-02  9.70265842e-02
-   9.02842425e-02  8.03320453e-02  6.82047505e-02  5.49567190e-02
-   4.13516111e-02  2.76830157e-02  1.40232034e-02  3.22475167e-04]
- [ 8.57999218e-02  8.86974116e-02  9.23286447e-02  9.67955635e-02
-   1.02251978e-01  1.08817852e-01  1.16086733e-01  1.23925661e-01
-   1.29288300e-01  1.26846302e-01  1.18464674e-01  1.05545789e-01
-   8.95519133e-02  7.18617244e-02  5.36208341e-02  3.53995674e-02
-   1.73129259e-02 -7.39949836e-04 -1.88380188e-02 -3.59163079e-02]
- [ 1.11546480e-01  1.17061354e-01  1.23816271e-01  1.31970080e-01
-   1.40961297e-01  1.49977131e-01  1.59025569e-01  1.62415501e-01
-   1.55617461e-01  1.41787326e-01  1.22984027e-01  1.01057241e-01
-   7.76255204e-02  5.40251724e-02  3.07290527e-02  7.65955759e-03
-  -1.54251110e-02 -3.84305183e-02 -5.93606898e-02 -7.58717341e-02]
- [ 1.44611793e-01  1.53927835e-01  1.64596174e-01  1.75520050e-01
-   1.85951965e-01  1.95690786e-01  1.98544954e-01  1.88463860e-01
-   1.69805413e-01  1.45367883e-01  1.17359506e-01  8.78024420e-02
-   5.83221146e-02  2.93560924e-02  6.73522226e-04 -2.80377894e-02
-  -5.65992892e-02 -8.24337281e-02 -1.02376720e-01 -1.12385357e-01]
- [ 1.86211375e-01  1.98905849e-01  2.11717220e-01  2.23499368e-01
-   2.33804452e-01  2.38315962e-01  2.26930655e-01  2.04395698e-01
-   1.74705082e-01  1.40588627e-01  1.04523359e-01  6.85242133e-02
-   3.32138381e-02 -1.71737666e-03 -3.66115726e-02 -7.14208976e-02
-  -1.03586168e-01 -1.28498916e-01 -1.47387298e-01 -1.05548584e-01]
- [ 2.34248655e-01  2.48850334e-01  2.62359753e-01  2.73301742e-01
-   2.80654106e-01  2.71488463e-01  2.46626668e-01  2.12508049e-01
-   1.72569749e-01  1.29761774e-01  8.66003345e-02  4.42196391e-02
-   2.39281234e-03 -3.92515506e-02 -8.08627975e-02 -1.20601611e-01
-  -1.52930357e-01 -1.77730056e-01 -1.51142769e-01 -1.08122123e-01]
- [ 2.86210826e-01  3.01945597e-01  3.14273777e-01  3.23602713e-01
-   3.20933124e-01  2.96698132e-01  2.59651264e-01  2.14679745e-01
-   1.65278538e-01  1.14496399e-01  6.43009565e-02  1.48892760e-02
-  -3.41205800e-02 -8.29865544e-02 -1.30934723e-01 -1.73103908e-01
-  -2.04270328e-01 -2.23386785e-01 -1.46331715e-01 -1.22380887e-01]
- [ 3.41010020e-01  3.56294849e-01  3.66833726e-01  3.71350319e-01
-   3.53588379e-01  3.16126989e-01  2.67640474e-01  2.12414250e-01
-   1.54021229e-01  9.54013795e-02  3.76584094e-02 -1.93972240e-02
-  -7.60672829e-02 -1.32315513e-01 -1.85270122e-01 -2.27408485e-01
-  -2.59604009e-01 -2.16171079e-01 -1.54157962e-01 -1.40249546e-01]
- [ 3.97450338e-01  4.11008756e-01  4.19188132e-01  4.13509999e-01
-   3.80729706e-01  3.31255118e-01  2.71807689e-01  2.06609801e-01
-   1.39389769e-01  7.26054876e-02  6.75598172e-03 -5.84109352e-02
-  -1.23067032e-01 -1.86385057e-01 -2.42610078e-01 -2.84160472e-01
-  -3.15539106e-01 -2.07554888e-01 -1.66798878e-01 -1.65838000e-01]
- [ 4.54269562e-01  4.65578321e-01  4.69408876e-01  4.50174653e-01
-   4.04060005e-01  3.43093234e-01  2.72876550e-01  1.97777049e-01
-   1.21621036e-01  4.62076092e-02 -2.82159840e-02 -1.01855672e-01
-  -1.74746684e-01 -2.44406383e-01 -3.02245681e-01 -3.44837670e-01
-  -3.46777081e-01 -2.20624672e-01 -1.92669560e-01 -1.93640328e-01]
- [ 5.10679602e-01  5.19377710e-01  5.16171029e-01  4.82788474e-01
-   4.24535402e-01  3.52265158e-01  2.71280996e-01  1.86264564e-01
-   1.00839153e-01  1.63625671e-02 -6.70360776e-02 -1.49481074e-01
-  -2.30706249e-01 -3.05828470e-01 -3.64169082e-01 -4.09418031e-01
-  -3.21628310e-01 -2.29725689e-01 -2.23288926e-01 -2.23248563e-01]
- [ 5.66556632e-01  5.71674817e-01  5.59384042e-01  5.12531128e-01
-   4.42717287e-01  3.59162767e-01  2.67336675e-01  1.72272598e-01
-   7.71871259e-02 -1.67634751e-02 -1.09509740e-01 -2.01129544e-01
-  -2.90581514e-01 -3.70193430e-01 -4.28960571e-01 -4.76037877e-01
-  -3.10389384e-01 -2.54145619e-01 -2.55614117e-01 -2.54590256e-01]
- [ 6.21664431e-01  6.21863051e-01  5.99428087e-01  5.40132582e-01
-   4.58974439e-01  3.64070920e-01  2.61299301e-01  1.55932405e-01
-   5.08063297e-02 -5.30254402e-02 -1.55500596e-01 -2.56679398e-01
-  -3.54059583e-01 -4.37031920e-01 -4.97783066e-01 -5.37859047e-01
-  -3.35892413e-01 -2.87294215e-01 -2.89402467e-01 -2.87702330e-01]
- [ 6.75216096e-01  6.70043833e-01  6.36786331e-01  5.66016554e-01
-   4.73573357e-01  3.67218557e-01  2.53379730e-01  1.37368383e-01
-   2.18105615e-02 -9.23174766e-02 -2.04918369e-01 -3.15968313e-01
-  -4.20733397e-01 -5.06489366e-01 -5.71304910e-01 -5.66358181e-01
-  -3.52981395e-01 -3.23803037e-01 -3.25002754e-01 -3.22423241e-01]
- [ 7.26463481e-01  7.16024967e-01  6.71911566e-01  5.90444443e-01
-   4.86725260e-01  3.68800562e-01  2.43715393e-01  1.16682988e-01
-  -9.71481320e-03 -1.34554556e-01 -2.57707651e-01 -3.78715047e-01
-  -4.90450599e-01 -5.79051002e-01 -6.49486426e-01 -5.37790882e-01
-  -3.80394735e-01 -3.62856279e-01 -3.62431075e-01 -3.58556412e-01]
- [ 7.76425634e-01  7.59607570e-01  7.05151886e-01  6.13599540e-01
-   4.98606800e-01  3.68984477e-01  2.32396975e-01  9.39569802e-02
-  -4.37097203e-02 -1.79677435e-01 -3.13783809e-01 -4.44586597e-01
-  -5.63406094e-01 -6.55359240e-01 -7.31481963e-01 -5.20022523e-01
-  -4.12122542e-01 -4.03955884e-01 -4.01530631e-01 -3.96057770e-01]
- [ 8.25937374e-01  8.00432803e-01  7.36800253e-01  6.35630782e-01
-   5.09368622e-01  3.67903658e-01  2.19499063e-01  6.92473233e-02
-  -8.01217436e-02 -2.27643721e-01 -3.72945994e-01 -5.13654408e-01
-  -6.39713302e-01 -7.35912898e-01 -8.15798532e-01 -5.42870216e-01
-  -4.48187388e-01 -4.46698286e-01 -4.42267863e-01 -4.34979770e-01]
- [ 8.76139373e-01  8.38942655e-01  7.66988426e-01  6.56667107e-01
-   5.19133132e-01  3.65658526e-01  2.05081092e-01  4.25965526e-02
-  -1.18907977e-01 -2.78367946e-01 -4.34972919e-01 -5.86081250e-01
-  -7.19677972e-01 -8.20554006e-01 -9.00526887e-01 -5.75322900e-01
-  -4.90038392e-01 -4.91007921e-01 -4.84666949e-01 -4.75373304e-01]]</t>
+          <t>[[ 5.70502699e-02  5.87053082e-02  6.04700199e-02  6.23519515e-02
+   6.43502876e-02  6.64574653e-02  6.86308281e-02  7.07472341e-02
+   7.26924048e-02  7.44580184e-02  7.60869691e-02  7.73947221e-02
+   7.80355411e-02  7.75974091e-02  7.56590381e-02  7.21198367e-02
+   6.72348499e-02  6.13654500e-02  5.47864421e-02  4.76882126e-02]
+ [ 8.43000149e-02  8.76672363e-02  9.12004940e-02  9.48420242e-02
+   9.83787082e-02  1.01625394e-01  1.04645531e-01  1.07462313e-01
+   1.09660595e-01  1.10704379e-01  1.09902168e-01  1.06552541e-01
+   1.00699848e-01  9.29992071e-02  8.40255585e-02  7.41335061e-02
+   6.35750410e-02  5.25409843e-02  4.11616277e-02  2.95356458e-02]
+ [ 1.22479578e-01  1.27960039e-01  1.33172397e-01  1.37944757e-01
+   1.42505680e-01  1.46627630e-01  1.49599214e-01  1.50496858e-01
+   1.48124978e-01  1.41792392e-01  1.32273789e-01  1.20614796e-01
+   1.07442124e-01  9.32077990e-02  7.82307302e-02  6.27066327e-02
+   4.67757647e-02  3.05704154e-02  1.42001303e-02 -2.26921740e-03]
+ [ 1.71519625e-01  1.78336369e-01  1.84848211e-01  1.90960703e-01
+   1.95727147e-01  1.97655768e-01  1.95081560e-01  1.87154585e-01
+   1.74811781e-01  1.59467425e-01  1.42060816e-01  1.23225557e-01
+   1.03399614e-01  8.28172221e-02  6.16693637e-02  4.01763527e-02
+   1.85035769e-02 -3.28096539e-03 -2.51266897e-02 -4.63194623e-02]
+ [ 2.29978139e-01  2.38649031e-01  2.46483621e-01  2.51407020e-01
+   2.50992141e-01  2.44013456e-01  2.30730885e-01  2.12676323e-01
+   1.91488255e-01  1.68135426e-01  1.43258748e-01  1.17253177e-01
+   9.03763725e-02  6.29679827e-02  3.53110297e-02  7.51136523e-03
+  -2.04308202e-02 -4.83401443e-02 -7.48034318e-02 -9.73343807e-02]
+ [ 2.98864133e-01  3.08671515e-01  3.13301212e-01  3.10277567e-01
+   2.99519305e-01  2.81415462e-01  2.57861242e-01  2.30808981e-01
+   2.01253470e-01  1.69854521e-01  1.37081673e-01  1.03347654e-01
+   6.91224068e-02  3.46701856e-02  3.60390806e-05 -3.47903476e-02
+  -6.95243934e-02 -1.02271516e-01 -1.29760056e-01 -1.50159226e-01]
+ [ 3.77030309e-01  3.81418969e-01  3.76575720e-01  3.62966928e-01
+   3.40828994e-01  3.12179162e-01  2.79326385e-01  2.43389932e-01
+   2.05102796e-01  1.65144557e-01  1.24099556e-01  8.24939767e-02
+   4.06063895e-02 -1.54462961e-03 -4.39330864e-02 -8.62843162e-02
+  -1.26635420e-01 -1.60989818e-01 -1.86497917e-01 -2.03580540e-01]
+ [ 4.55769416e-01  4.50097991e-01  4.34779363e-01  4.09794656e-01
+   3.76800886e-01  3.38444856e-01  2.96193954e-01  2.50908324e-01
+   2.03517005e-01  1.54788618e-01  1.05287636e-01  5.53669578e-02
+   5.07573335e-03 -4.55136491e-02 -9.61682945e-02 -1.45347205e-01
+  -1.88765763e-01 -2.21889860e-01 -2.44509949e-01 -2.58234009e-01]
+ [ 5.30126822e-01  5.14393220e-01  4.88157946e-01  4.52151352e-01
+   4.09032959e-01  3.60897161e-01  3.08827697e-01  2.53975672e-01
+   1.97330532e-01  1.39546655e-01  8.10831680e-02  2.20981056e-02
+  -3.72854721e-02 -9.68243193e-02 -1.55617820e-01 -2.09922235e-01
+  -2.53770924e-01 -2.84735450e-01 -3.04364021e-01 -3.15523627e-01]
+ [ 5.99892615e-01  5.74457419e-01  5.37579439e-01  4.91207297e-01
+   4.38095873e-01  3.79896016e-01  3.17901796e-01  2.53343493e-01
+   1.87094376e-01  1.19727859e-01  5.15917143e-02 -1.71134034e-02
+  -8.61031052e-02 -1.54841465e-01 -2.20936856e-01 -2.78390173e-01
+  -3.21282935e-01 -3.49828512e-01 -3.67126178e-01 -3.76385477e-01]
+ [ 6.64925902e-01  6.30625074e-01  5.83792365e-01  5.27489423e-01
+   4.64395088e-01  3.96095497e-01  3.24038740e-01  2.49428816e-01
+   1.73047290e-01  9.54522420e-02  1.70018422e-02 -6.19504172e-02
+  -1.40911242e-01 -2.18790456e-01 -2.91078539e-01 -3.49991602e-01
+  -3.91498466e-01 -4.17774386e-01 -4.33904210e-01 -4.41129837e-01]
+ [ 7.24930784e-01  6.83047257e-01  6.27212370e-01  5.61465078e-01
+   4.88491722e-01  4.10006095e-01  3.27586498e-01  2.42427128e-01
+   1.55329333e-01  6.68812193e-02 -2.24214466e-02 -1.12049433e-01
+  -2.01314485e-01 -2.87987736e-01 -3.65350885e-01 -4.24625504e-01
+  -4.64607004e-01 -4.89723738e-01 -5.05225035e-01 -5.09660226e-01]
+ [ 7.80684495e-01  7.31696519e-01  6.68279900e-01  5.93626311e-01
+   5.10805909e-01  4.21921452e-01  3.28724616e-01  2.32489217e-01
+   1.34082368e-01  3.42331495e-02 -6.64029213e-02 -1.67108784e-01
+  -2.66953330e-01 -3.61979452e-01 -4.43207753e-01 -5.02435506e-01
+  -5.41369673e-01 -5.66443665e-01 -5.81057595e-01 -5.81583074e-01]
+ [ 8.33117702e-01  7.76782485e-01  7.07375934e-01  6.24282083e-01
+   5.31590948e-01  4.32011133e-01  3.27591515e-01  2.19745470e-01
+   1.09482105e-01 -2.27603151e-03 -1.14706101e-01 -2.26933087e-01
+  -3.37511823e-01 -4.40371612e-01 -5.24412180e-01 -5.83943231e-01
+  -6.22535715e-01 -6.48194106e-01 -6.60939336e-01 -6.56767175e-01]
+ [ 8.83553487e-01  8.19056499e-01  7.44639106e-01  6.53610906e-01
+   5.50993407e-01  4.40406266e-01  3.24318579e-01  2.04335961e-01
+   8.17023284e-02 -4.24654482e-02 -1.67162113e-01 -2.91394204e-01
+  -4.12714854e-01 -5.22702700e-01 -6.09367954e-01 -6.69538133e-01
+  -7.08658984e-01 -7.34547275e-01 -7.44746602e-01 -7.35313549e-01]
+ [ 9.33762470e-01  8.58896286e-01  7.80012248e-01  6.81696970e-01
+   5.69118639e-01  4.47224973e-01  3.19029087e-01  1.86403211e-01
+   5.08870049e-02 -8.62013261e-02 -2.23655651e-01 -3.60351164e-01
+  -4.92188625e-01 -6.08994866e-01 -6.98460021e-01 -7.59664751e-01
+  -7.99575937e-01 -8.25360482e-01 -8.32651711e-01 -8.17125792e-01]
+ [ 9.84396752e-01  8.97784491e-01  8.13229240e-01  7.08568689e-01
+   5.86057419e-01  4.52579583e-01  3.11835265e-01  1.66067389e-01
+   1.71487544e-02 -1.33376511e-01 -2.84112129e-01 -4.33545572e-01
+  -5.75810039e-01 -6.99427548e-01 -7.92115987e-01 -8.54228450e-01
+  -8.95216313e-01 -9.20907432e-01 -9.24524618e-01 -9.02082808e-01]
+ [ 1.03576183e+00  9.37011716e-01  8.43985822e-01  7.34216768e-01
+   6.01892751e-01  4.56575016e-01  3.02834153e-01  1.43425269e-01
+  -1.94312834e-02 -1.83914281e-01 -3.48432278e-01 -5.10658943e-01
+  -6.63784485e-01 -7.94303111e-01 -8.90288923e-01 -9.53147901e-01
+  -9.95940042e-01 -1.02113575e+00 -1.02010761e+00 -9.90225931e-01]
+ [ 1.08799640e+00  9.76749059e-01  8.72967620e-01  7.58585173e-01
+   6.16698676e-01  4.59292665e-01  2.92109673e-01  1.18548158e-01
+  -5.87845531e-02 -2.37758466e-01 -4.16406377e-01 -5.91774207e-01
+  -7.56229485e-01 -8.93840600e-01 -9.92570375e-01 -1.05685758e+00
+  -1.10181267e+00 -1.12576842e+00 -1.11933860e+00 -1.08166912e+00]
+ [ 1.14122381e+00  1.01712419e+00  9.01163062e-01  7.81544874e-01
+   6.30530288e-01  4.60794256e-01  2.79730293e-01  9.14914332e-02
+  -1.00855109e-01 -2.94812749e-01 -4.87820106e-01 -6.77065458e-01
+  -8.53456072e-01 -9.97680025e-01 -1.09901862e+00 -1.16570927e+00
+  -1.21258292e+00 -1.23470042e+00 -1.22226680e+00 -1.17651205e+00]]</t>
         </is>
       </c>
       <c r="D904" t="inlineStr">
@@ -22799,86 +22799,106 @@
       <c r="B905" t="inlineStr"/>
       <c r="C905" t="inlineStr">
         <is>
-          <t>[[ 0.00135157  0.00205208  0.0027608   0.00347884  0.00421228  0.00497164
-   0.00577065  0.00662548  0.00754958  0.00855284  0.00965098  0.01086611
-   0.01224323  0.01402417  0.01653089  0.01868226  0.01966589  0.01965851
-   0.01868495  0.01686529]
- [ 0.00213243  0.00303722  0.00397352  0.00495851  0.00601293  0.00715676
-   0.00840285  0.00976803  0.01127755  0.01297834  0.01516261  0.01838905
-   0.02111914  0.02215581  0.02188719  0.02041022  0.018004    0.01499315
-   0.0116331   0.00804365]
- [ 0.00299581  0.0042049   0.00550383  0.00691918  0.00846728  0.01016729
-   0.01204972  0.01418651  0.01698296  0.02104115  0.0239935   0.02470705
-   0.02375518  0.02151077  0.01837586  0.014688    0.01069058  0.00647419
-   0.00205962 -0.00257153]
- [ 0.00400476  0.00564783  0.00744812  0.00942338  0.01160346  0.01401985
-   0.01690666  0.02106262  0.02559701  0.02703855  0.02622329  0.02388394
-   0.02048114  0.01637685  0.01187731  0.00713167  0.00216545 -0.00305031
-  -0.00853669 -0.01399163]
- [ 0.0052052   0.00738799  0.00978627  0.01241742  0.01521924  0.01876716
-   0.02402624  0.02841699  0.02889092  0.02721242  0.02409612  0.01995945
-   0.01516221  0.01000832  0.00460332 -0.00107156 -0.00707216 -0.01337638
-  -0.01948849 -0.02476228]
- [ 0.00657614  0.00936732  0.01230462  0.01532019  0.01939556  0.02536757
-   0.03008889  0.03034805  0.02835005  0.02484141  0.02023697  0.01492011
-   0.00921493  0.00321707 -0.00311863 -0.00985615 -0.01696164 -0.02386509
-  -0.02978521 -0.03438654]
- [ 0.00800925  0.011113    0.01424231  0.01862081  0.0249861   0.03071382
-   0.03158877  0.02972185  0.02616123  0.02134462  0.01567795  0.00952176
-   0.00300663 -0.0039185  -0.01131864 -0.01918929 -0.02702444 -0.03383217
-  -0.03984047 -0.03882621]
- [ 0.00882405  0.01200386  0.01636641  0.02299003  0.02980855  0.03238185
-   0.03114393  0.02790213  0.02316803  0.01736307  0.01088637  0.00395059
-  -0.0034695  -0.01143758 -0.01998239 -0.02877893 -0.03677243 -0.04376005
-  -0.04615285 -0.04360947]
- [ 0.00865539  0.01265673  0.01946528  0.02691729  0.03203799  0.03225109
-   0.02976     0.02546589  0.01980692  0.01320501  0.00597636 -0.00182179
-  -0.01024478 -0.01933374 -0.02896534 -0.0383082  -0.04633359 -0.05322385
-  -0.05095306 -0.04989886]
- [ 0.00773111  0.01421342  0.02235116  0.02935178  0.03244553  0.03128898
-   0.02786899  0.02272685  0.01629019  0.00895837  0.00092451 -0.00782007
-  -0.01731521 -0.02755286 -0.03808903 -0.04767204 -0.05622797 -0.05979541
-  -0.05723692 -0.05668968]
- [ 0.00717134  0.01609106  0.02406625  0.03045608  0.03189156  0.02987567
-   0.02571005  0.01984082  0.0126974   0.0046171  -0.0042904  -0.01404411
-  -0.02465997 -0.03601595 -0.0472519  -0.05708976 -0.06613098 -0.06515433
-  -0.06395539 -0.06461707]
- [ 0.00745238  0.01712709  0.02489158  0.03051608  0.03084512  0.02820656
-   0.02340778  0.01687578  0.00903957  0.00016599 -0.00967186 -0.02048388
-  -0.03226233 -0.0446641  -0.05643985 -0.06687557 -0.07473166 -0.0723759
-  -0.07196126 -0.07309677]
- [ 0.00769143  0.01694708  0.02517407  0.02986453  0.02952453  0.02638964
-   0.02102171  0.01385869  0.00530962 -0.00440091 -0.01521769 -0.02713518
-  -0.04010359 -0.05347556 -0.06572246 -0.07707928 -0.0824772  -0.08062351
-  -0.080879   -0.08204304]
- [ 0.00720104  0.01601141  0.02492291  0.0287782   0.02803776  0.02448107
-   0.01858005  0.01079423  0.00150385 -0.00908616 -0.0209278  -0.03400403
-  -0.04816979 -0.06243982 -0.07523557 -0.08743296 -0.08934984 -0.08892074
-  -0.09025587 -0.0914537 ]
- [ 0.0054947   0.01475245  0.02415417  0.02743294  0.02644113  0.02251024
-   0.01609709  0.00768044 -0.00238055 -0.01389305 -0.0268073  -0.04109819
-  -0.05645297 -0.07154196 -0.08516348 -0.09751908 -0.0980204  -0.09833603
-  -0.10004038 -0.1013463 ]
- [ 0.00281277  0.01332682  0.02294806  0.02592149  0.02476644  0.02049344
-   0.01358043  0.00451554 -0.00634811 -0.01882738 -0.03286431 -0.0484184
-  -0.06493292 -0.08083441 -0.09560092 -0.1072927  -0.10687941 -0.10851633
-  -0.11028595 -0.11171767]
- [-0.00043094  0.01169626  0.02140314  0.0242919   0.02303245  0.01844064
-   0.0110311   0.00129638 -0.01040482 -0.02389542 -0.03910806 -0.05595139
-  -0.07361709 -0.09040025 -0.10652318 -0.1175938  -0.11723574 -0.11925148
-  -0.1210045  -0.1225615 ]
- [-0.00385078  0.00983124  0.01959183  0.02257109  0.02125106  0.01635793
-   0.00844675 -0.00198127 -0.01455755 -0.02910407 -0.04554264 -0.06367873
-  -0.082547   -0.10032751 -0.11779356 -0.12739715 -0.12877011 -0.13045601
-  -0.13218685 -0.13388904]
- [-0.00724698  0.00766924  0.01758632  0.02077336  0.01942997  0.01424776
-   0.00582443 -0.00532276 -0.01881234 -0.03445989 -0.05215934 -0.07162341
-  -0.09174694 -0.11067997 -0.12923782 -0.13768404 -0.14026807 -0.14209
-  -0.14383741 -0.14571719]
- [-0.01036832  0.00524757  0.01542126  0.01890926  0.01757338  0.0121101
-   0.00316059 -0.00873362 -0.02317456 -0.03996405 -0.05894785 -0.07981325
-  -0.10125655 -0.12145041 -0.14078954 -0.14912548 -0.15187506 -0.15415382
-  -0.15596709 -0.15805947]]</t>
+          <t>[[ 9.01840336e-03  1.04921921e-02  1.20214534e-02  1.36066511e-02
+   1.52482329e-02  1.69492704e-02  1.87504408e-02  2.07198486e-02
+   2.27937273e-02  2.49208977e-02  2.70679316e-02  2.90510335e-02
+   3.05865228e-02  3.14121021e-02  3.13369284e-02  3.03520599e-02
+   2.86131557e-02  2.63092780e-02  2.35810298e-02  2.05189278e-02]
+ [ 1.42011982e-02  1.61816867e-02  1.82342167e-02  2.04148422e-02
+   2.28636094e-02  2.54806683e-02  2.82100823e-02  3.09567506e-02
+   3.33931647e-02  3.51527613e-02  3.59409656e-02  3.55599043e-02
+   3.40823943e-02  3.17887224e-02  2.89160131e-02  2.56017520e-02
+   2.19415778e-02  1.80113342e-02  1.38702110e-02  9.55158687e-03]
+ [ 1.98355492e-02  2.24895586e-02  2.55350745e-02  2.88300111e-02
+   3.23049149e-02  3.56624907e-02  3.84187565e-02  4.01555853e-02
+   4.05715882e-02  3.95481930e-02  3.73746620e-02  3.44081603e-02
+   3.08537342e-02  2.68512660e-02  2.25024120e-02  1.78814584e-02
+   1.30405684e-02  8.00951957e-03  2.80545027e-03 -2.57290207e-03]
+ [ 2.61851430e-02  3.01247943e-02  3.43744605e-02  3.85536368e-02
+   4.20607851e-02  4.43650588e-02  4.51090811e-02  4.41909452e-02
+   4.19169324e-02  3.86902634e-02  3.47717106e-02  3.03250334e-02
+   2.54725553e-02  2.02920180e-02  1.48477682e-02  9.18432229e-03
+   3.32025339e-03 -2.75346635e-03 -9.04854709e-03 -1.53746052e-02]
+ [ 3.38206084e-02  3.89632848e-02  4.36552267e-02  4.71887139e-02
+   4.90276680e-02  4.90202828e-02  4.73252546e-02  4.43266568e-02
+   4.04195581e-02  3.58276317e-02  3.07014850e-02  2.51472996e-02
+   1.92404001e-02  1.30589230e-02  6.64213260e-03 -1.63862647e-05
+  -6.94962782e-03 -1.41440537e-02 -2.12587118e-02 -2.76615810e-02]
+ [ 4.21840325e-02  4.74096556e-02  5.10701728e-02  5.27320822e-02
+   5.24779158e-02  5.04673387e-02  4.71028041e-02  4.27925115e-02
+   3.77439618e-02  3.21002838e-02  2.59699483e-02  1.94441764e-02
+   1.26139094e-02  5.50826087e-03 -1.90085307e-03 -9.65609085e-03
+  -1.77337615e-02 -2.57250681e-02 -3.28784693e-02 -3.87412689e-02]
+ [ 4.96215399e-02  5.36416716e-02  5.55732814e-02  5.55258737e-02
+   5.36143306e-02  5.02176049e-02  4.57663352e-02  4.04772889e-02
+   3.44912105e-02  2.79333182e-02  2.09116637e-02  1.35253072e-02
+   5.80528081e-03 -2.28776195e-03 -1.07995238e-02 -1.97251592e-02
+  -2.86900198e-02 -3.68593180e-02 -4.35906539e-02 -4.89015786e-02]
+ [ 5.46600862e-02  5.72837629e-02  5.78815265e-02  5.65004449e-02
+   5.34368036e-02  4.91370667e-02  4.38598298e-02  3.77474278e-02
+   3.09431368e-02  2.35726660e-02  1.57423505e-02  7.50277657e-03
+  -1.18327150e-03 -1.03624536e-02 -2.00533471e-02 -3.00089573e-02
+  -3.94167126e-02 -4.73517573e-02 -5.36823003e-02 -5.86644171e-02]
+ [ 5.73092874e-02  5.90159735e-02  5.86407770e-02  5.63529330e-02
+   5.25660294e-02  4.76085834e-02  4.16411212e-02  3.48177366e-02
+   2.72844867e-02  1.91593203e-02  1.05207422e-02  1.35599376e-03
+  -8.37999135e-03 -1.87162831e-02 -2.95579301e-02 -4.02686459e-02
+  -4.97418198e-02 -5.74344639e-02 -6.35250274e-02 -6.85706099e-02]
+ [ 5.80875619e-02  5.93036171e-02  5.83525985e-02  5.55578453e-02
+   5.13086548e-02  4.58294712e-02  3.92803287e-02  3.18257286e-02
+   2.36067473e-02  1.47281674e-02  5.22419558e-03 -4.93667464e-03
+  -1.57859762e-02 -2.73144119e-02 -3.91802418e-02 -5.03735546e-02
+  -5.97973013e-02 -6.73483844e-02 -7.34941329e-02 -7.89282572e-02]
+ [ 5.73093014e-02  5.85084645e-02  5.73855536e-02  5.43791813e-02
+   4.98297645e-02  4.39357453e-02  3.68802137e-02  2.88347181e-02
+   1.99341687e-02  1.02641599e-02 -1.65064991e-04 -1.13786385e-02
+  -2.33876750e-02 -3.61021320e-02 -4.88490619e-02 -6.03334425e-02
+  -6.97575925e-02 -7.73226740e-02 -8.38824576e-02 -8.98533713e-02]
+ [ 5.52206580e-02  5.68986739e-02  5.59705586e-02  5.29669177e-02
+   4.82359300e-02  4.20074515e-02  3.44903720e-02  2.58627568e-02
+   1.62597310e-02  5.75195727e-03 -5.65194149e-03 -1.79649266e-02
+  -3.11802184e-02 -4.50416474e-02 -5.85443773e-02 -7.02403765e-02
+  -7.97482739e-02 -8.76266918e-02 -9.48203536e-02 -1.01365503e-01]
+ [ 5.22460831e-02  5.46485308e-02  5.42437924e-02  5.14092232e-02
+   4.65924748e-02  4.00857393e-02  3.21266473e-02  2.29098476e-02
+   1.25720964e-02  1.18558188e-03 -1.12377619e-02 -2.46967667e-02
+  -3.91591245e-02 -5.41249138e-02 -6.82613445e-02 -8.01944615e-02
+  -8.99476876e-02 -9.84208582e-02 -1.06333624e-01 -1.13444550e-01]
+ [ 4.86883320e-02  5.18736019e-02  5.22755406e-02  4.97573619e-02
+   4.49357012e-02  3.81864408e-02  2.97909097e-02  1.99688387e-02
+   8.86535182e-03 -3.43903096e-03 -1.69262854e-02 -3.15854712e-02
+  -4.73216947e-02 -6.33472908e-02 -7.80286234e-02 -9.03208836e-02
+  -1.00502445e-01 -1.09764524e-01 -1.18383082e-01 -1.26109040e-01]
+ [ 4.48002233e-02  4.87047455e-02  5.00973399e-02  4.80406074e-02
+   4.32809946e-02  3.63136366e-02  2.74812781e-02  1.70339312e-02
+   5.13475614e-03 -8.12778260e-03 -2.27264361e-02 -3.86457194e-02
+  -5.56667432e-02 -7.26908019e-02 -8.79449424e-02 -1.00703117e-01
+  -1.11516830e-01 -1.21618809e-01 -1.30965329e-01 -1.39403582e-01]
+ [ 4.09106004e-02  4.51757776e-02  4.77128708e-02  4.62703321e-02
+   4.16332913e-02  3.44670822e-02  2.51945477e-02  1.41007680e-02
+   1.37400050e-03 -1.28892283e-02 -2.86499136e-02 -4.58858758e-02
+  -6.41789093e-02 -8.21915141e-02 -9.80884337e-02 -1.11421741e-01
+  -1.22995786e-01 -1.33977547e-01 -1.44115110e-01 -1.53339056e-01]
+ [ 3.71074120e-02  4.15657777e-02  4.50941841e-02  4.44469070e-02
+   3.99928554e-02  3.26455440e-02  2.29264725e-02  1.11640362e-02
+  -2.42450872e-03 -1.77322848e-02 -3.47091618e-02 -5.32984206e-02
+  -7.28691623e-02 -9.18956167e-02 -1.08528679e-01 -1.22491839e-01
+  -1.34942376e-01 -1.46881648e-01 -1.57834450e-01 -1.67917959e-01]
+ [ 3.34071208e-02  3.81136208e-02  4.22046839e-02  4.25629083e-02
+   3.83581877e-02  3.08472071e-02  2.06721553e-02  8.21756800e-03
+  -6.26942655e-03 -2.26663193e-02 -4.09111257e-02 -6.08682520e-02
+  -8.17796583e-02 -1.01852230e-01 -1.19278695e-01 -1.33922390e-01
+  -1.47400597e-01 -1.60334551e-01 -1.72111387e-01 -1.83155620e-01]
+ [ 2.98086170e-02  3.48159907e-02  3.91926091e-02  4.06037839e-02
+   3.67266736e-02  2.90683988e-02  1.84265554e-02  5.25425790e-03
+  -1.01686455e-02 -2.77001173e-02 -4.72498143e-02 -6.86208107e-02
+  -9.09343110e-02 -1.12099603e-01 -1.30311935e-01 -1.45771007e-01
+  -1.60381030e-01 -1.74314884e-01 -1.86955782e-01 -1.99066191e-01]
+ [ 2.63233262e-02  3.16858352e-02  3.62272838e-02  3.85466707e-02
+   3.50938940e-02  2.73044284e-02  1.61843251e-02  2.26702503e-03
+  -1.41292473e-02 -3.28368421e-02 -5.37184757e-02 -7.65859408e-02
+  -1.00372477e-01 -1.22616759e-01 -1.41646355e-01 -1.58081810e-01
+  -1.73861858e-01 -1.88818840e-01 -2.02388121e-01 -2.15657473e-01]]</t>
         </is>
       </c>
       <c r="D905" t="inlineStr">
@@ -22964,36 +22984,36 @@
       <c r="B909" t="inlineStr"/>
       <c r="C909" t="inlineStr">
         <is>
-          <t>[[[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  0.  0. ]]]</t>
+          <t>[[[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[ 0.          0.          0.        ]]]</t>
         </is>
       </c>
       <c r="D909" t="inlineStr">
@@ -23029,7 +23049,7 @@
       <c r="B911" t="inlineStr"/>
       <c r="C911" t="inlineStr">
         <is>
-          <t>[9.]</t>
+          <t>[0.17453293]</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
@@ -23223,7 +23243,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>sse_tune.tune_rosco.flp_kp_norm</t>
+          <t>sse_tune.tune_rosco.dac_kp_norm</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -23241,7 +23261,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>sse_tune.tune_rosco.flp_tau</t>
+          <t>sse_tune.tune_rosco.dac_tau</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -24711,18 +24731,18 @@
   [[ 0.          0.          0.        ]]]
  ...
  [[[ 0.          0.          0.        ]]
-  [[ 0.0646428   0.1001559   0.08453631]]
-  [[ 0.1292856   0.20031179  0.16907263]]
+  [[ 0.09492323  0.11579979  0.1152312 ]]
+  [[ 0.18984647  0.23159959  0.2304624 ]]
   ...
-  [[-0.1292856  -0.20031179 -0.16907263]]
-  [[-0.0646428  -0.1001559  -0.08453631]]
+  [[-0.18984647 -0.23159959 -0.2304624 ]]
+  [[-0.09492323 -0.11579979 -0.1152312 ]]
   [[ 0.          0.          0.        ]]]
  [[[ 0.          0.          0.        ]]
-  [[ 0.1168486   0.10665333  0.09069508]]
-  [[ 0.2336972   0.21330666  0.18139016]]
+  [[ 0.09551385  0.1033368   0.1129884 ]]
+  [[ 0.1910277   0.2066736   0.2259768 ]]
   ...
-  [[-0.2336972  -0.21330666 -0.18139016]]
-  [[-0.1168486  -0.10665333 -0.09069508]]
+  [[-0.1910277  -0.2066736  -0.2259768 ]]
+  [[-0.09551385 -0.1033368  -0.1129884 ]]
   [[ 0.          0.          0.        ]]]
  [[[ 0.          0.          0.        ]]
   [[ 0.20244966  0.20244966  0.20244966]]
@@ -24770,20 +24790,20 @@
   [[0.34328947 0.34328947 0.34328947]]
   [[0.34328947 0.34328947 0.34328947]]]
  ...
- [[[0.11524771 0.15920291 0.19802924]]
-  [[0.1154285  0.1594353  0.19831109]]
-  [[0.11594555 0.16011029 0.1991453 ]]
+ [[[0.16618966 0.18052688 0.24367898]]
+  [[0.16648519 0.18083626 0.24411231]]
+  [[0.16730439 0.18171541 0.24531347]]
   ...
-  [[0.11594555 0.16011029 0.1991453 ]]
-  [[0.1154285  0.1594353  0.19831109]]
-  [[0.11524771 0.15920291 0.19802924]]]
- [[[0.11574139 0.16061717 0.20021618]]
-  [[0.11592295 0.16085163 0.20050114]]
-  [[0.11644222 0.16153261 0.20134456]]
+  [[0.16730439 0.18171541 0.24531347]]
+  [[0.16648519 0.18083626 0.24411231]]
+  [[0.16618966 0.18052688 0.24367898]]]
+ [[[0.16611716 0.20973775 0.25365742]]
+  [[0.16641256 0.21011072 0.2541085 ]]
+  [[0.1672314  0.21114458 0.25535885]]
   ...
-  [[0.11644222 0.16153261 0.20134456]]
-  [[0.11592295 0.16085163 0.20050114]]
-  [[0.11574139 0.16061717 0.20021618]]]
+  [[0.1672314  0.21114458 0.25535885]]
+  [[0.16641256 0.21011072 0.2541085 ]]
+  [[0.16611716 0.20973775 0.25365742]]]
  [[[0.001      0.001      0.001     ]]
   [[0.001      0.001      0.001     ]]
   [[0.001      0.001      0.001     ]]
@@ -24947,36 +24967,36 @@
       <c r="B990" t="inlineStr"/>
       <c r="C990" t="inlineStr">
         <is>
-          <t>[[[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  0.  0. ]]]</t>
+          <t>[[[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[ 0.          0.          0.        ]]]</t>
         </is>
       </c>
       <c r="D990" t="inlineStr">
@@ -25802,406 +25822,406 @@
       <c r="B1013" t="inlineStr"/>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>[[[ 2.69782987e-03]
-  [ 4.09608945e-03]
-  [ 5.51073921e-03]
-  [ 6.94400024e-03]
-  [ 8.40799129e-03]
-  [ 9.92371742e-03]
-  [ 1.15186021e-02]
-  [ 1.32248984e-02]
-  [ 1.50694576e-02]
-  [ 1.70720326e-02]
-  [ 1.92639921e-02]
-  [ 2.16894746e-02]
-  [ 2.44383086e-02]
-  [ 2.79931843e-02]
-  [ 3.29967606e-02]
-  [ 3.72910320e-02]
-  [ 3.92544274e-02]
-  [ 3.92396937e-02]
-  [ 3.72964092e-02]
-  [ 3.36642431e-02]]
- [[ 5.37660355e-03]
-  [ 7.65788032e-03]
-  [ 1.00186283e-02]
-  [ 1.25021372e-02]
-  [ 1.51606809e-02]
-  [ 1.80446674e-02]
-  [ 2.11865056e-02]
-  [ 2.46285836e-02]
-  [ 2.84346091e-02]
-  [ 3.27229110e-02]
-  [ 3.82302133e-02]
-  [ 4.63651726e-02]
-  [ 5.32486787e-02]
-  [ 5.58624813e-02]
-  [ 5.51852120e-02]
-  [ 5.14612434e-02]
-  [ 4.53943405e-02]
-  [ 3.78029397e-02]
-  [ 2.93310811e-02]
-  [ 2.02808315e-02]]
- [[ 9.12711346e-03]
-  [ 1.28107499e-02]
-  [ 1.67681079e-02]
-  [ 2.10801712e-02]
-  [ 2.57966437e-02]
-  [ 3.09759507e-02]
-  [ 3.67109995e-02]
-  [ 4.32210144e-02]
-  [ 5.17407601e-02]
-  [ 6.41045499e-02]
-  [ 7.30992584e-02]
-  [ 7.52731712e-02]
-  [ 7.23731772e-02]
-  [ 6.55353051e-02]
-  [ 5.59844045e-02]
-  [ 4.47488592e-02]
-  [ 3.25702042e-02]
-  [ 1.97244434e-02]
-  [ 6.27489069e-03]
-  [-7.83449439e-03]]
- [[ 1.43046467e-02]
-  [ 2.01735414e-02]
-  [ 2.66040149e-02]
-  [ 3.36594550e-02]
-  [ 4.14464984e-02]
-  [ 5.00776101e-02]
-  [ 6.03890451e-02]
-  [ 7.52337533e-02]
-  [ 9.14301616e-02]
-  [ 9.65792218e-02]
-  [ 9.36671987e-02]
-  [ 8.53112335e-02]
-  [ 7.31567691e-02]
-  [ 5.84965983e-02]
-  [ 4.24246619e-02]
-  [ 2.54736594e-02]
-  [ 7.73478216e-03]
-  [-1.08954198e-02]
-  [-3.04922711e-02]
-  [-4.99768271e-02]]
- [[ 2.13266869e-02]
-  [ 3.02700032e-02]
-  [ 4.00961799e-02]
-  [ 5.08765152e-02]
-  [ 6.23561018e-02]
-  [ 7.68925847e-02]
-  [ 9.84400552e-02]
-  [ 1.16429784e-01]
-  [ 1.18371572e-01]
-  [ 1.11494432e-01]
-  [ 9.87263752e-02]
-  [ 8.17776476e-02]
-  [ 6.21224438e-02]
-  [ 4.10059698e-02]
-  [ 1.88606822e-02]
-  [-4.39036421e-03]
-  [-2.89759675e-02]
-  [-5.48055375e-02]
-  [-7.98480090e-02]
-  [-1.01455721e-01]]
- [[ 3.03979914e-02]
-  [ 4.33001457e-02]
-  [ 5.68777339e-02]
-  [ 7.08171248e-02]
-  [ 8.96554088e-02]
-  [ 1.17260838e-01]
-  [ 1.39084981e-01]
-  [ 1.40282947e-01]
-  [ 1.31047256e-01]
-  [ 1.14828644e-01]
-  [ 9.35447646e-02]
-  [ 6.89677441e-02]
-  [ 4.25957386e-02]
-  [ 1.48707989e-02]
-  [-1.44157689e-02]
-  [-4.55597472e-02]
-  [-7.84046724e-02]
-  [-1.10315672e-01]
-  [-1.37681224e-01]
-  [-1.58950746e-01]]
- [[ 4.12296373e-02]
-  [ 5.72069631e-02]
-  [ 7.33158507e-02]
-  [ 9.58552933e-02]
-  [ 1.28622183e-01]
-  [ 1.58107094e-01]
-  [ 1.62611086e-01]
-  [ 1.53000673e-01]
-  [ 1.34671487e-01]
-  [ 1.09876750e-01]
-  [ 8.07061650e-02]
-  [ 4.90156459e-02]
-  [ 1.54773766e-02]
-  [-2.01714835e-02]
-  [-5.82655412e-02]
-  [-9.87816592e-02]
-  [-1.39115055e-01]
-  [-1.74159583e-01]
-  [-2.05088809e-01]
-  [-1.99867637e-01]]
- [[ 5.00591070e-02]
-  [ 6.80982507e-02]
-  [ 9.28471298e-02]
-  [ 1.30423146e-01]
-  [ 1.69104821e-01]
-  [ 1.83703238e-01]
-  [ 1.76680469e-01]
-  [ 1.58289656e-01]
-  [ 1.31432977e-01]
-  [ 9.85012163e-02]
-  [ 6.17586996e-02]
-  [ 2.24117978e-02]
-  [-1.96825800e-02]
-  [-6.48857476e-02]
-  [-1.13360696e-01]
-  [-1.63263748e-01]
-  [-2.08611141e-01]
-  [-2.48252137e-01]
-  [-2.61826550e-01]
-  [-2.47397889e-01]]
- [[ 5.36487763e-02]
-  [ 7.84503644e-02]
-  [ 1.20651868e-01]
-  [ 1.66841750e-01]
-  [ 1.98581430e-01]
-  [ 1.99902320e-01]
-  [ 1.84461733e-01]
-  [ 1.57845548e-01]
-  [ 1.22769487e-01]
-  [ 8.18487669e-02]
-  [ 3.70433157e-02]
-  [-1.12920344e-02]
-  [-6.35003410e-02]
-  [-1.19836554e-01]
-  [-1.79536232e-01]
-  [-2.37446165e-01]
-  [-2.87190009e-01]
-  [-3.29897987e-01]
-  [-3.15822917e-01]
-  [-3.09288655e-01]]
- [[ 5.19808351e-02]
-  [ 9.55652242e-02]
-  [ 1.50280059e-01]
-  [ 1.97349372e-01]
-  [ 2.18150503e-01]
-  [ 2.10374358e-01]
-  [ 1.87379707e-01]
-  [ 1.52806096e-01]
-  [ 1.09528561e-01]
-  [ 6.02324334e-02]
-  [ 6.21601184e-03]
-  [-5.25789441e-02]
-  [-1.16420405e-01]
-  [-1.85254164e-01]
-  [-2.56095112e-01]
-  [-3.20527388e-01]
-  [-3.78053973e-01]
-  [-4.02039985e-01]
-  [-3.84837682e-01]
-  [-3.81158263e-01]]
- [[ 5.19841147e-02]
-  [ 1.16642019e-01]
-  [ 1.74453161e-01]
-  [ 2.20772231e-01]
-  [ 2.31177897e-01]
-  [ 2.16564925e-01]
-  [ 1.86368898e-01]
-  [ 1.43823603e-01]
-  [ 9.20418625e-02]
-  [ 3.34687588e-02]
-  [-3.11005618e-02]
-  [-1.01803996e-01]
-  [-1.78756963e-01]
-  [-2.61075050e-01]
-  [-3.42523001e-01]
-  [-4.13836422e-01]
-  [-4.79375099e-01]
-  [-4.72295457e-01]
-  [-4.63604520e-01]
-  [-4.68400903e-01]]
- [[ 5.79359120e-02]
-  [ 1.33148653e-01]
-  [ 1.93510949e-01]
-  [ 2.37236725e-01]
-  [ 2.39794670e-01]
-  [ 2.19282161e-01]
-  [ 1.81975673e-01]
-  [ 1.31194911e-01]
-  [ 7.02749879e-02]
-  [ 1.29040552e-03]
-  [-7.51905120e-02]
-  [-1.59244831e-01]
-  [-2.50812327e-01]
-  [-3.47225587e-01]
-  [-4.38772046e-01]
-  [-5.19900972e-01]
-  [-5.80975361e-01]
-  [-5.62661360e-01]
-  [-5.59437874e-01]
-  [-5.68265507e-01]]
- [[ 6.38345288e-02]
-  [ 1.40651155e-01]
-  [ 2.08930557e-01]
-  [ 2.47858679e-01]
-  [ 2.45036888e-01]
-  [ 2.19019063e-01]
-  [ 1.74468325e-01]
-  [ 1.15019317e-01]
-  [ 4.40668598e-02]
-  [-3.65250954e-02]
-  [-1.26298252e-01]
-  [-2.25206662e-01]
-  [-3.32837127e-01]
-  [-4.43816915e-01]
-  [-5.45459223e-01]
-  [-6.39714410e-01]
-  [-6.84514091e-01]
-  [-6.69129471e-01]
-  [-6.71249917e-01]
-  [-6.80910815e-01]]
- [[ 6.35471364e-02]
-  [ 1.41296106e-01]
-  [ 2.19937569e-01]
-  [ 2.53959382e-01]
-  [ 2.47425252e-01]
-  [ 2.16038498e-01]
-  [ 1.63963604e-01]
-  [ 9.52559593e-02]
-  [ 1.32710588e-02]
-  [-8.01827725e-02]
-  [-1.84681890e-01]
-  [-3.00075873e-01]
-  [-4.25084617e-01]
-  [-5.51013588e-01]
-  [-6.63932434e-01]
-  [-7.71570955e-01]
-  [-7.88486843e-01]
-  [-7.84700173e-01]
-  [-7.96482273e-01]
-  [-8.07052795e-01]]
- [[ 5.13753819e-02]
-  [ 1.37935356e-01]
-  [ 2.25841397e-01]
-  [ 2.56497898e-01]
-  [ 2.47224446e-01]
-  [ 2.10470657e-01]
-  [ 1.50507675e-01]
-  [ 7.18120460e-02]
-  [-2.22580970e-02]
-  [-1.29899948e-01]
-  [-2.50648088e-01]
-  [-3.84267895e-01]
-  [-5.27835011e-01]
-  [-6.68916955e-01]
-  [-7.96278154e-01]
-  [-9.11802958e-01]
-  [-9.16490249e-01]
-  [-9.19441391e-01]
-  [-9.35377060e-01]
-  [-9.47587427e-01]]
- [[ 2.77768324e-02]
-  [ 1.31606047e-01]
-  [ 2.26618418e-01]
-  [ 2.55981829e-01]
-  [ 2.44575406e-01]
-  [ 2.02378344e-01]
-  [ 1.34110486e-01]
-  [ 4.45921744e-02]
-  [-6.26893017e-02]
-  [-1.85925568e-01]
-  [-3.24544130e-01]
-  [-4.78145033e-01]
-  [-6.41230527e-01]
-  [-7.98262158e-01]
-  [-9.44085502e-01]
-  [-1.05954502e+00]
-  [-1.05546371e+00]
-  [-1.07162874e+00]
-  [-1.08910420e+00]
-  [-1.10324283e+00]]
- [[-4.48198130e-03]
-  [ 1.21647631e-01]
-  [ 2.22604521e-01]
-  [ 2.52649277e-01]
-  [ 2.39550275e-01]
-  [ 1.91792973e-01]
-  [ 1.14729568e-01]
-  [ 1.34830695e-02]
-  [-1.08215938e-01]
-  [-2.48525633e-01]
-  [-4.06745643e-01]
-  [-5.81925640e-01]
-  [-7.65658706e-01]
-  [-9.40212909e-01]
-  [-1.10790036e+00]
-  [-1.22304098e+00]
-  [-1.21931695e+00]
-  [-1.24028181e+00]
-  [-1.25851412e+00]
-  [-1.27470785e+00]]
- [[-4.20729621e-02]
-  [ 1.07414545e-01]
-  [ 2.14057196e-01]
-  [ 2.46608039e-01]
-  [ 2.32185571e-01]
-  [ 1.78724058e-01]
-  [ 9.22878608e-02]
-  [-2.16469907e-02]
-  [-1.59053433e-01]
-  [-3.17986327e-01]
-  [-4.97591502e-01]
-  [-6.95743416e-01]
-  [-9.01895067e-01]
-  [-1.09616203e+00]
-  [-1.28699323e+00]
-  [-1.39192055e+00]
-  [-1.40692126e+00]
-  [-1.42534119e+00]
-  [-1.44425200e+00]
-  [-1.46284984e+00]]
- [[-8.29860494e-02]
-  [ 8.78213958e-02]
-  [ 2.01383015e-01]
-  [ 2.37878228e-01]
-  [ 2.22494845e-01]
-  [ 1.63152754e-01]
-  [ 6.66962113e-02]
-  [-6.09516043e-02]
-  [-2.15422366e-01]
-  [-3.94604290e-01]
-  [-5.97282700e-01]
-  [-8.20168143e-01]
-  [-1.05060507e+00]
-  [-1.26740942e+00]
-  [-1.47991752e+00]
-  [-1.57663613e+00]
-  [-1.60622625e+00]
-  [-1.62708936e+00]
-  [-1.64709918e+00]
-  [-1.66862468e+00]]
- [[-1.24175170e-01]
-  [ 6.28469597e-02]
-  [ 1.84691133e-01]
-  [ 2.26464786e-01]
-  [ 2.10465764e-01]
-  [ 1.45035378e-01]
-  [ 3.78525416e-02]
-  [-1.04597313e-01]
-  [-2.77547785e-01]
-  [-4.78625416e-01]
-  [-7.05982890e-01]
-  [-9.55875239e-01]
-  [-1.21268885e+00]
-  [-1.45453850e+00]
-  [-1.68615169e+00]
-  [-1.78598620e+00]
-  [-1.81891621e+00]
-  [-1.84620764e+00]
-  [-1.86792399e+00]
-  [-1.89298324e+00]]]</t>
+          <t>[[[ 1.80013322e-02]
+  [ 2.09431125e-02]
+  [ 2.39956197e-02]
+  [ 2.71597796e-02]
+  [ 3.04364859e-02]
+  [ 3.38318697e-02]
+  [ 3.74271255e-02]
+  [ 4.13581943e-02]
+  [ 4.54977940e-02]
+  [ 4.97437673e-02]
+  [ 5.40293897e-02]
+  [ 5.79877928e-02]
+  [ 6.10527316e-02]
+  [ 6.27006425e-02]
+  [ 6.25505908e-02]
+  [ 6.05847279e-02]
+  [ 5.71137597e-02]
+  [ 5.25150666e-02]
+  [ 4.70693020e-02]
+  [ 4.09571429e-02]]
+ [[ 3.58061494e-02]
+  [ 4.07996484e-02]
+  [ 4.59747889e-02]
+  [ 5.14729026e-02]
+  [ 5.76470945e-02]
+  [ 6.42456084e-02]
+  [ 7.11274085e-02]
+  [ 7.80527125e-02]
+  [ 8.41957581e-02]
+  [ 8.86323119e-02]
+  [ 9.06196484e-02]
+  [ 8.96588607e-02]
+  [ 8.59335451e-02]
+  [ 8.01504021e-02]
+  [ 7.29073051e-02]
+  [ 6.45509025e-02]
+  [ 5.53223331e-02]
+  [ 4.54128248e-02]
+  [ 3.49716158e-02]
+  [ 2.40828656e-02]]
+ [[ 6.04315339e-02]
+  [ 6.85173125e-02]
+  [ 7.77958655e-02]
+  [ 8.78343109e-02]
+  [ 9.84210490e-02]
+  [ 1.08650333e-01]
+  [ 1.17047648e-01]
+  [ 1.22339119e-01]
+  [ 1.23606525e-01]
+  [ 1.20488621e-01]
+  [ 1.13866681e-01]
+  [ 1.04828855e-01]
+  [ 9.39998415e-02]
+  [ 8.18058110e-02]
+  [ 6.85564720e-02]
+  [ 5.44781469e-02]
+  [ 3.97297571e-02]
+  [ 2.44020243e-02]
+  [ 8.54716253e-03]
+  [-7.83867475e-03]]
+ [[ 9.35309310e-02]
+  [ 1.07603005e-01]
+  [ 1.22782422e-01]
+  [ 1.37710057e-01]
+  [ 1.50237270e-01]
+  [ 1.58467924e-01]
+  [ 1.61125503e-01]
+  [ 1.57846006e-01]
+  [ 1.49723441e-01]
+  [ 1.38198075e-01]
+  [ 1.24201363e-01]
+  [ 1.08318240e-01]
+  [ 9.09856331e-02]
+  [ 7.24812286e-02]
+  [ 5.30348672e-02]
+  [ 3.28055575e-02]
+  [ 1.18596408e-02]
+  [-9.83512945e-03]
+  [-3.23205809e-02]
+  [-5.49166808e-02]]
+ [[ 1.38569425e-01]
+  [ 1.59639942e-01]
+  [ 1.78863714e-01]
+  [ 1.93341079e-01]
+  [ 2.00875622e-01]
+  [ 2.00845363e-01]
+  [ 1.93900512e-01]
+  [ 1.81614690e-01]
+  [ 1.65606568e-01]
+  [ 1.46792578e-01]
+  [ 1.25789786e-01]
+  [ 1.03033239e-01]
+  [ 7.88315556e-02]
+  [ 5.35048756e-02]
+  [ 2.72140726e-02]
+  [-6.71376234e-05]
+  [-2.84739386e-02]
+  [-5.79508612e-02]
+  [-8.71009599e-02]
+  [-1.13334725e-01]]
+ [[ 1.94994409e-01]
+  [ 2.19149693e-01]
+  [ 2.36070323e-01]
+  [ 2.43752449e-01]
+  [ 2.42577572e-01]
+  [ 2.33283741e-01]
+  [ 2.17731282e-01]
+  [ 1.97807085e-01]
+  [ 1.74470317e-01]
+  [ 1.48382587e-01]
+  [ 1.20045297e-01]
+  [ 8.98801151e-02]
+  [ 5.83074132e-02]
+  [ 2.54617686e-02]
+  [-8.78663561e-03]
+  [-4.46349868e-02]
+  [-8.19737738e-02]
+  [-1.18913346e-01]
+  [-1.51979726e-01]
+  [-1.79080339e-01]]
+ [[ 2.55439296e-01]
+  [ 2.76133930e-01]
+  [ 2.86077375e-01]
+  [ 2.85833331e-01]
+  [ 2.75993185e-01]
+  [ 2.58507689e-01]
+  [ 2.35593665e-01]
+  [ 2.08366975e-01]
+  [ 1.77552138e-01]
+  [ 1.43793747e-01]
+  [ 1.07648022e-01]
+  [ 6.96249041e-02]
+  [ 2.98841359e-02]
+  [-1.17768272e-02]
+  [-5.55932516e-02]
+  [-1.01540194e-01]
+  [-1.47689057e-01]
+  [-1.89742564e-01]
+  [-2.24393801e-01]
+  [-2.51733115e-01]]
+ [[ 3.10088359e-01]
+  [ 3.24972558e-01]
+  [ 3.28363689e-01]
+  [ 3.20528770e-01]
+  [ 3.03148639e-01]
+  [ 2.78756098e-01]
+  [ 2.48818170e-01]
+  [ 2.14142325e-01]
+  [ 1.75541372e-01]
+  [ 1.33728463e-01]
+  [ 8.93068411e-02]
+  [ 4.25634834e-02]
+  [-6.71273580e-03]
+  [-5.87865198e-02]
+  [-1.13763258e-01]
+  [-1.70241742e-01]
+  [-2.23612229e-01]
+  [-2.68627983e-01]
+  [-3.04541349e-01]
+  [-3.32805052e-01]]
+ [[ 3.55220819e-01]
+  [ 3.65799390e-01]
+  [ 3.63473805e-01]
+  [ 3.49293036e-01]
+  [ 3.25820627e-01]
+  [ 2.95092833e-01]
+  [ 2.58104643e-01]
+  [ 2.15811179e-01]
+  [ 1.69117749e-01]
+  [ 1.18755437e-01]
+  [ 6.52108380e-02]
+  [ 8.40487176e-03]
+  [-5.19417972e-02]
+  [-1.16009354e-01]
+  [-1.83209259e-01]
+  [-2.49597613e-01]
+  [-3.08315296e-01]
+  [-3.55996701e-01]
+  [-3.93747911e-01]
+  [-4.25022004e-01]]
+ [[ 3.90557078e-01]
+  [ 3.98733337e-01]
+  [ 3.92339076e-01]
+  [ 3.73548295e-01]
+  [ 3.44978471e-01]
+  [ 3.08138675e-01]
+  [ 2.64104911e-01]
+  [ 2.13983220e-01]
+  [ 1.58722142e-01]
+  [ 9.90261917e-02]
+  [ 3.51253606e-02]
+  [-3.31921871e-02]
+  [-1.06138467e-01]
+  [-1.83650967e-01]
+  [-2.63431968e-01]
+  [-3.38691239e-01]
+  [-4.02052668e-01]
+  [-4.52823072e-01]
+  [-4.94144579e-01]
+  [-5.30681414e-01]]
+ [[ 4.15427838e-01]
+  [ 4.24120419e-01]
+  [ 4.15980581e-01]
+  [ 3.94187770e-01]
+  [ 3.61209627e-01]
+  [ 3.18484630e-01]
+  [ 2.67339979e-01]
+  [ 2.09019205e-01]
+  [ 1.44500254e-01]
+  [ 7.44035896e-02]
+  [-1.19653513e-03]
+  [-8.24823034e-02]
+  [-1.69534282e-01]
+  [-2.61699764e-01]
+  [-3.54100638e-01]
+  [-4.37349452e-01]
+  [-5.05663918e-01]
+  [-5.60502231e-01]
+  [-6.08053268e-01]
+  [-6.51335663e-01]]
+ [[ 4.29293870e-01]
+  [ 4.42339024e-01]
+  [ 4.35123712e-01]
+  [ 4.11772947e-01]
+  [ 3.74993523e-01]
+  [ 3.26572375e-01]
+  [ 2.68133445e-01]
+  [ 2.01061041e-01]
+  [ 1.26405644e-01]
+  [ 4.47165986e-02]
+  [-4.39390605e-02]
+  [-1.39662096e-01]
+  [-2.42399803e-01]
+  [-3.50160680e-01]
+  [-4.55132974e-01]
+  [-5.46059467e-01]
+  [-6.19975321e-01]
+  [-6.81223351e-01]
+  [-7.37147981e-01]
+  [-7.88030977e-01]]
+ [[ 4.33612924e-01]
+  [ 4.53551881e-01]
+  [ 4.50192781e-01]
+  [ 4.26667461e-01]
+  [ 3.86691175e-01]
+  [ 3.32688952e-01]
+  [ 2.66632993e-01]
+  [ 1.90138771e-01]
+  [ 1.04341286e-01]
+  [ 9.83965866e-03]
+  [-9.32670644e-02]
+  [-2.04969188e-01]
+  [-3.24998574e-01]
+  [-4.49206156e-01]
+  [-5.66530532e-01]
+  [-6.65568650e-01]
+  [-7.46514907e-01]
+  [-8.16837428e-01]
+  [-8.82508904e-01]
+  [-9.41525566e-01]]
+ [[ 4.29660642e-01]
+  [ 4.57769740e-01]
+  [ 4.61316734e-01]
+  [ 4.39094526e-01]
+  [ 3.96544746e-01]
+  [ 3.36984448e-01]
+  [ 2.62896281e-01]
+  [ 1.76219305e-01]
+  [ 7.82342011e-02]
+  [-3.03484673e-02]
+  [-1.49369640e-01]
+  [-2.78732774e-01]
+  [-4.17600457e-01]
+  [-5.59021772e-01]
+  [-6.88580344e-01]
+  [-7.97056034e-01]
+  [-8.86905411e-01]
+  [-9.68640612e-01]
+  [-1.04469693e+00]
+  [-1.11287631e+00]]
+ [[ 4.18881882e-01]
+  [ 4.55389146e-01]
+  [ 4.68409897e-01]
+  [ 4.49179458e-01]
+  [ 4.04677101e-01]
+  [ 3.39532335e-01]
+  [ 2.56949823e-01]
+  [ 1.59267179e-01]
+  [ 4.80099463e-02]
+  [-7.59947299e-02]
+  [-2.12492073e-01]
+  [-3.61337299e-01]
+  [-5.20483793e-01]
+  [-6.79658663e-01]
+  [-8.22284806e-01]
+  [-9.41573680e-01]
+  [-1.04268185e+00]
+  [-1.13713531e+00]
+  [-1.22452522e+00]
+  [-1.30342285e+00]]
+ [[ 4.04003472e-01]
+  [ 4.46123274e-01]
+  [ 4.71177769e-01]
+  [ 4.56932302e-01]
+  [ 4.11140244e-01]
+  [ 3.40371951e-01]
+  [ 2.48803114e-01]
+  [ 1.39248976e-01]
+  [ 1.35686342e-02]
+  [-1.27284687e-01]
+  [-2.82925805e-01]
+  [-4.53135689e-01]
+  [-6.33784445e-01]
+  [-8.11663890e-01]
+  [-9.68650359e-01]
+  [-1.10032045e+00]
+  [-1.21461733e+00]
+  [-1.32306526e+00]
+  [-1.42317650e+00]
+  [-1.51426551e+00]]
+ [[ 3.85937742e-01]
+  [ 4.32307227e-01]
+  [ 4.69004618e-01]
+  [ 4.62272576e-01]
+  [ 4.15947959e-01]
+  [ 3.39531830e-01]
+  [ 2.38448076e-01]
+  [ 1.16112192e-01]
+  [-2.52162403e-02]
+  [-1.84425633e-01]
+  [-3.60994604e-01]
+  [-5.54333244e-01]
+  [-7.57879852e-01]
+  [-9.55765570e-01]
+  [-1.12875867e+00]
+  [-1.27398331e+00]
+  [-1.40347583e+00]
+  [-1.52765090e+00]
+  [-1.64156614e+00]
+  [-1.74644025e+00]]
+ [[ 3.65000767e-01]
+  [ 4.16423221e-01]
+  [ 4.61121510e-01]
+  [ 4.65035411e-01]
+  [ 4.19095319e-01]
+  [ 3.37031567e-01]
+  [ 2.25860606e-01]
+  [ 8.97838112e-02]
+  [-6.84987346e-02]
+  [-2.47648518e-01]
+  [-4.46988304e-01]
+  [-6.65036619e-01]
+  [-8.93511242e-01]
+  [-1.11282089e+00]
+  [-1.30321961e+00]
+  [-1.46321425e+00]
+  [-1.61047495e+00]
+  [-1.75178923e+00]
+  [-1.88046101e+00]
+  [-2.00112851e+00]]
+ [[ 3.41341989e-01]
+  [ 3.98682017e-01]
+  [ 4.48799189e-01]
+  [ 4.64958719e-01]
+  [ 4.20561472e-01]
+  [ 3.32865663e-01]
+  [ 2.11004660e-01]
+  [ 6.01671269e-02]
+  [-1.16442360e-01]
+  [-3.17197311e-01]
+  [-5.41063197e-01]
+  [-7.85784998e-01]
+  [-1.04129952e+00]
+  [-1.28366578e+00]
+  [-1.49221734e+00]
+  [-1.66924100e+00]
+  [-1.83654209e+00]
+  [-1.99610030e+00]
+  [-2.14085271e+00]
+  [-2.27953043e+00]]
+ [[ 3.15258647e-01]
+  [ 3.79482192e-01]
+  [ 4.33872391e-01]
+  [ 4.61650293e-01]
+  [ 4.20298462e-01]
+  [ 3.27008717e-01]
+  [ 1.93829929e-01]
+  [ 2.71507954e-02]
+  [-1.69217497e-01]
+  [-3.93267109e-01]
+  [-6.43353877e-01]
+  [-9.17223754e-01]
+  [-1.20210079e+00]
+  [-1.46850718e+00]
+  [-1.69641321e+00]
+  [-1.89325077e+00]
+  [-2.08223891e+00]
+  [-2.26136969e+00]
+  [-2.42388081e+00]
+  [-2.58279986e+00]]]</t>
         </is>
       </c>
       <c r="D1013" t="inlineStr">
@@ -26219,406 +26239,406 @@
       <c r="B1014" t="inlineStr"/>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>[[[ 4.06906650e-02]
-  [ 4.07329754e-02]
-  [ 4.07694167e-02]
-  [ 4.08088718e-02]
-  [ 4.08707508e-02]
-  [ 4.09845223e-02]
-  [ 4.11865027e-02]
-  [ 4.15185231e-02]
-  [ 4.20172933e-02]
-  [ 4.27130433e-02]
-  [ 4.36486988e-02]
-  [ 4.48786786e-02]
-  [ 4.64906665e-02]
-  [ 4.87022003e-02]
-  [ 5.13868853e-02]
-  [ 5.29893007e-02]
-  [ 5.26249125e-02]
-  [ 5.04969637e-02]
-  [ 4.67509556e-02]
-  [ 4.16779727e-02]]
- [[ 5.14413179e-02]
-  [ 5.18648542e-02]
-  [ 5.23747714e-02]
-  [ 5.30273849e-02]
-  [ 5.38891879e-02]
-  [ 5.50258801e-02]
-  [ 5.64848167e-02]
-  [ 5.83245753e-02]
-  [ 6.06281577e-02]
-  [ 6.35038260e-02]
-  [ 6.72173128e-02]
-  [ 7.16769606e-02]
-  [ 7.42224984e-02]
-  [ 7.33383439e-02]
-  [ 6.96435007e-02]
-  [ 6.35133874e-02]
-  [ 5.55076655e-02]
-  [ 4.63622220e-02]
-  [ 3.67208849e-02]
-  [ 2.68979594e-02]]
- [[ 6.61588476e-02]
-  [ 6.74272722e-02]
-  [ 6.90354851e-02]
-  [ 7.10881491e-02]
-  [ 7.36583554e-02]
-  [ 7.68298185e-02]
-  [ 8.07270758e-02]
-  [ 8.54785242e-02]
-  [ 9.11814667e-02]
-  [ 9.73726150e-02]
-  [ 9.97919446e-02]
-  [ 9.70265842e-02]
-  [ 9.02842425e-02]
-  [ 8.03320453e-02]
-  [ 6.82047505e-02]
-  [ 5.49567190e-02]
-  [ 4.13516111e-02]
-  [ 2.76830157e-02]
-  [ 1.40232034e-02]
-  [ 3.22475167e-04]]
- [[ 8.57999218e-02]
-  [ 8.86974116e-02]
-  [ 9.23286447e-02]
-  [ 9.67955635e-02]
-  [ 1.02251978e-01]
-  [ 1.08817852e-01]
-  [ 1.16086733e-01]
-  [ 1.23925661e-01]
-  [ 1.29288300e-01]
-  [ 1.26846302e-01]
-  [ 1.18464674e-01]
-  [ 1.05545789e-01]
-  [ 8.95519133e-02]
-  [ 7.18617244e-02]
-  [ 5.36208341e-02]
-  [ 3.53995674e-02]
-  [ 1.73129259e-02]
-  [-7.39949836e-04]
-  [-1.88380188e-02]
-  [-3.59163079e-02]]
- [[ 1.11546480e-01]
-  [ 1.17061354e-01]
-  [ 1.23816271e-01]
-  [ 1.31970080e-01]
-  [ 1.40961297e-01]
-  [ 1.49977131e-01]
-  [ 1.59025569e-01]
-  [ 1.62415501e-01]
-  [ 1.55617461e-01]
-  [ 1.41787326e-01]
-  [ 1.22984027e-01]
-  [ 1.01057241e-01]
-  [ 7.76255204e-02]
-  [ 5.40251724e-02]
-  [ 3.07290527e-02]
-  [ 7.65955759e-03]
-  [-1.54251110e-02]
-  [-3.84305183e-02]
-  [-5.93606898e-02]
-  [-7.58717341e-02]]
- [[ 1.44611793e-01]
-  [ 1.53927835e-01]
-  [ 1.64596174e-01]
-  [ 1.75520050e-01]
-  [ 1.85951965e-01]
-  [ 1.95690786e-01]
-  [ 1.98544954e-01]
-  [ 1.88463860e-01]
-  [ 1.69805413e-01]
-  [ 1.45367883e-01]
-  [ 1.17359506e-01]
-  [ 8.78024420e-02]
-  [ 5.83221146e-02]
-  [ 2.93560924e-02]
-  [ 6.73522226e-04]
-  [-2.80377894e-02]
-  [-5.65992892e-02]
-  [-8.24337281e-02]
-  [-1.02376720e-01]
-  [-1.12385357e-01]]
- [[ 1.86211375e-01]
-  [ 1.98905849e-01]
-  [ 2.11717220e-01]
-  [ 2.23499368e-01]
-  [ 2.33804452e-01]
-  [ 2.38315962e-01]
-  [ 2.26930655e-01]
-  [ 2.04395698e-01]
-  [ 1.74705082e-01]
-  [ 1.40588627e-01]
-  [ 1.04523359e-01]
-  [ 6.85242133e-02]
-  [ 3.32138381e-02]
-  [-1.71737666e-03]
-  [-3.66115726e-02]
-  [-7.14208976e-02]
-  [-1.03586168e-01]
-  [-1.28498916e-01]
-  [-1.47387298e-01]
-  [-1.05548584e-01]]
- [[ 2.34248655e-01]
-  [ 2.48850334e-01]
-  [ 2.62359753e-01]
-  [ 2.73301742e-01]
-  [ 2.80654106e-01]
-  [ 2.71488463e-01]
-  [ 2.46626668e-01]
-  [ 2.12508049e-01]
-  [ 1.72569749e-01]
-  [ 1.29761774e-01]
-  [ 8.66003345e-02]
-  [ 4.42196391e-02]
-  [ 2.39281234e-03]
-  [-3.92515506e-02]
-  [-8.08627975e-02]
-  [-1.20601611e-01]
-  [-1.52930357e-01]
-  [-1.77730056e-01]
-  [-1.51142769e-01]
-  [-1.08122123e-01]]
- [[ 2.86210826e-01]
-  [ 3.01945597e-01]
-  [ 3.14273777e-01]
-  [ 3.23602713e-01]
-  [ 3.20933124e-01]
-  [ 2.96698132e-01]
-  [ 2.59651264e-01]
-  [ 2.14679745e-01]
-  [ 1.65278538e-01]
-  [ 1.14496399e-01]
-  [ 6.43009565e-02]
-  [ 1.48892760e-02]
-  [-3.41205800e-02]
-  [-8.29865544e-02]
-  [-1.30934723e-01]
-  [-1.73103908e-01]
-  [-2.04270328e-01]
-  [-2.23386785e-01]
-  [-1.46331715e-01]
-  [-1.22380887e-01]]
- [[ 3.41010020e-01]
-  [ 3.56294849e-01]
-  [ 3.66833726e-01]
-  [ 3.71350319e-01]
-  [ 3.53588379e-01]
-  [ 3.16126989e-01]
-  [ 2.67640474e-01]
-  [ 2.12414250e-01]
-  [ 1.54021229e-01]
-  [ 9.54013795e-02]
-  [ 3.76584094e-02]
-  [-1.93972240e-02]
-  [-7.60672829e-02]
-  [-1.32315513e-01]
-  [-1.85270122e-01]
-  [-2.27408485e-01]
-  [-2.59604009e-01]
-  [-2.16171079e-01]
-  [-1.54157962e-01]
-  [-1.40249546e-01]]
- [[ 3.97450338e-01]
-  [ 4.11008756e-01]
-  [ 4.19188132e-01]
-  [ 4.13509999e-01]
-  [ 3.80729706e-01]
-  [ 3.31255118e-01]
-  [ 2.71807689e-01]
-  [ 2.06609801e-01]
-  [ 1.39389769e-01]
-  [ 7.26054876e-02]
-  [ 6.75598172e-03]
-  [-5.84109352e-02]
-  [-1.23067032e-01]
-  [-1.86385057e-01]
-  [-2.42610078e-01]
-  [-2.84160472e-01]
-  [-3.15539106e-01]
-  [-2.07554888e-01]
-  [-1.66798878e-01]
-  [-1.65838000e-01]]
- [[ 4.54269562e-01]
-  [ 4.65578321e-01]
-  [ 4.69408876e-01]
-  [ 4.50174653e-01]
-  [ 4.04060005e-01]
-  [ 3.43093234e-01]
-  [ 2.72876550e-01]
-  [ 1.97777049e-01]
-  [ 1.21621036e-01]
-  [ 4.62076092e-02]
-  [-2.82159840e-02]
-  [-1.01855672e-01]
-  [-1.74746684e-01]
-  [-2.44406383e-01]
-  [-3.02245681e-01]
-  [-3.44837670e-01]
-  [-3.46777081e-01]
-  [-2.20624672e-01]
-  [-1.92669560e-01]
-  [-1.93640328e-01]]
- [[ 5.10679602e-01]
-  [ 5.19377710e-01]
-  [ 5.16171029e-01]
-  [ 4.82788474e-01]
-  [ 4.24535402e-01]
-  [ 3.52265158e-01]
-  [ 2.71280996e-01]
-  [ 1.86264564e-01]
-  [ 1.00839153e-01]
-  [ 1.63625671e-02]
-  [-6.70360776e-02]
-  [-1.49481074e-01]
-  [-2.30706249e-01]
-  [-3.05828470e-01]
-  [-3.64169082e-01]
-  [-4.09418031e-01]
-  [-3.21628310e-01]
-  [-2.29725689e-01]
-  [-2.23288926e-01]
-  [-2.23248563e-01]]
- [[ 5.66556632e-01]
-  [ 5.71674817e-01]
-  [ 5.59384042e-01]
-  [ 5.12531128e-01]
-  [ 4.42717287e-01]
-  [ 3.59162767e-01]
-  [ 2.67336675e-01]
-  [ 1.72272598e-01]
-  [ 7.71871259e-02]
-  [-1.67634751e-02]
-  [-1.09509740e-01]
-  [-2.01129544e-01]
-  [-2.90581514e-01]
-  [-3.70193430e-01]
-  [-4.28960571e-01]
-  [-4.76037877e-01]
-  [-3.10389384e-01]
-  [-2.54145619e-01]
-  [-2.55614117e-01]
-  [-2.54590256e-01]]
- [[ 6.21664431e-01]
-  [ 6.21863051e-01]
-  [ 5.99428087e-01]
-  [ 5.40132582e-01]
-  [ 4.58974439e-01]
-  [ 3.64070920e-01]
-  [ 2.61299301e-01]
-  [ 1.55932405e-01]
-  [ 5.08063297e-02]
-  [-5.30254402e-02]
-  [-1.55500596e-01]
-  [-2.56679398e-01]
-  [-3.54059583e-01]
-  [-4.37031920e-01]
-  [-4.97783066e-01]
-  [-5.37859047e-01]
-  [-3.35892413e-01]
-  [-2.87294215e-01]
-  [-2.89402467e-01]
-  [-2.87702330e-01]]
- [[ 6.75216096e-01]
-  [ 6.70043833e-01]
-  [ 6.36786331e-01]
-  [ 5.66016554e-01]
-  [ 4.73573357e-01]
-  [ 3.67218557e-01]
-  [ 2.53379730e-01]
-  [ 1.37368383e-01]
-  [ 2.18105615e-02]
-  [-9.23174766e-02]
-  [-2.04918369e-01]
-  [-3.15968313e-01]
-  [-4.20733397e-01]
-  [-5.06489366e-01]
-  [-5.71304910e-01]
-  [-5.66358181e-01]
-  [-3.52981395e-01]
-  [-3.23803037e-01]
-  [-3.25002754e-01]
-  [-3.22423241e-01]]
- [[ 7.26463481e-01]
-  [ 7.16024967e-01]
-  [ 6.71911566e-01]
-  [ 5.90444443e-01]
-  [ 4.86725260e-01]
-  [ 3.68800562e-01]
-  [ 2.43715393e-01]
-  [ 1.16682988e-01]
-  [-9.71481320e-03]
-  [-1.34554556e-01]
-  [-2.57707651e-01]
-  [-3.78715047e-01]
-  [-4.90450599e-01]
-  [-5.79051002e-01]
-  [-6.49486426e-01]
-  [-5.37790882e-01]
-  [-3.80394735e-01]
-  [-3.62856279e-01]
-  [-3.62431075e-01]
-  [-3.58556412e-01]]
- [[ 7.76425634e-01]
-  [ 7.59607570e-01]
-  [ 7.05151886e-01]
-  [ 6.13599540e-01]
-  [ 4.98606800e-01]
-  [ 3.68984477e-01]
-  [ 2.32396975e-01]
-  [ 9.39569802e-02]
-  [-4.37097203e-02]
-  [-1.79677435e-01]
-  [-3.13783809e-01]
-  [-4.44586597e-01]
-  [-5.63406094e-01]
-  [-6.55359240e-01]
-  [-7.31481963e-01]
-  [-5.20022523e-01]
-  [-4.12122542e-01]
-  [-4.03955884e-01]
-  [-4.01530631e-01]
-  [-3.96057770e-01]]
- [[ 8.25937374e-01]
-  [ 8.00432803e-01]
-  [ 7.36800253e-01]
-  [ 6.35630782e-01]
-  [ 5.09368622e-01]
-  [ 3.67903658e-01]
-  [ 2.19499063e-01]
-  [ 6.92473233e-02]
-  [-8.01217436e-02]
-  [-2.27643721e-01]
-  [-3.72945994e-01]
-  [-5.13654408e-01]
-  [-6.39713302e-01]
-  [-7.35912898e-01]
-  [-8.15798532e-01]
-  [-5.42870216e-01]
-  [-4.48187388e-01]
-  [-4.46698286e-01]
-  [-4.42267863e-01]
-  [-4.34979770e-01]]
- [[ 8.76139373e-01]
-  [ 8.38942655e-01]
-  [ 7.66988426e-01]
-  [ 6.56667107e-01]
-  [ 5.19133132e-01]
-  [ 3.65658526e-01]
-  [ 2.05081092e-01]
-  [ 4.25965526e-02]
-  [-1.18907977e-01]
-  [-2.78367946e-01]
-  [-4.34972919e-01]
-  [-5.86081250e-01]
-  [-7.19677972e-01]
-  [-8.20554006e-01]
-  [-9.00526887e-01]
-  [-5.75322900e-01]
-  [-4.90038392e-01]
-  [-4.91007921e-01]
-  [-4.84666949e-01]
-  [-4.75373304e-01]]]</t>
+          <t>[[[ 5.70502699e-02]
+  [ 5.87053082e-02]
+  [ 6.04700199e-02]
+  [ 6.23519515e-02]
+  [ 6.43502876e-02]
+  [ 6.64574653e-02]
+  [ 6.86308281e-02]
+  [ 7.07472341e-02]
+  [ 7.26924048e-02]
+  [ 7.44580184e-02]
+  [ 7.60869691e-02]
+  [ 7.73947221e-02]
+  [ 7.80355411e-02]
+  [ 7.75974091e-02]
+  [ 7.56590381e-02]
+  [ 7.21198367e-02]
+  [ 6.72348499e-02]
+  [ 6.13654500e-02]
+  [ 5.47864421e-02]
+  [ 4.76882126e-02]]
+ [[ 8.43000149e-02]
+  [ 8.76672363e-02]
+  [ 9.12004940e-02]
+  [ 9.48420242e-02]
+  [ 9.83787082e-02]
+  [ 1.01625394e-01]
+  [ 1.04645531e-01]
+  [ 1.07462313e-01]
+  [ 1.09660595e-01]
+  [ 1.10704379e-01]
+  [ 1.09902168e-01]
+  [ 1.06552541e-01]
+  [ 1.00699848e-01]
+  [ 9.29992071e-02]
+  [ 8.40255585e-02]
+  [ 7.41335061e-02]
+  [ 6.35750410e-02]
+  [ 5.25409843e-02]
+  [ 4.11616277e-02]
+  [ 2.95356458e-02]]
+ [[ 1.22479578e-01]
+  [ 1.27960039e-01]
+  [ 1.33172397e-01]
+  [ 1.37944757e-01]
+  [ 1.42505680e-01]
+  [ 1.46627630e-01]
+  [ 1.49599214e-01]
+  [ 1.50496858e-01]
+  [ 1.48124978e-01]
+  [ 1.41792392e-01]
+  [ 1.32273789e-01]
+  [ 1.20614796e-01]
+  [ 1.07442124e-01]
+  [ 9.32077990e-02]
+  [ 7.82307302e-02]
+  [ 6.27066327e-02]
+  [ 4.67757647e-02]
+  [ 3.05704154e-02]
+  [ 1.42001303e-02]
+  [-2.26921740e-03]]
+ [[ 1.71519625e-01]
+  [ 1.78336369e-01]
+  [ 1.84848211e-01]
+  [ 1.90960703e-01]
+  [ 1.95727147e-01]
+  [ 1.97655768e-01]
+  [ 1.95081560e-01]
+  [ 1.87154585e-01]
+  [ 1.74811781e-01]
+  [ 1.59467425e-01]
+  [ 1.42060816e-01]
+  [ 1.23225557e-01]
+  [ 1.03399614e-01]
+  [ 8.28172221e-02]
+  [ 6.16693637e-02]
+  [ 4.01763527e-02]
+  [ 1.85035769e-02]
+  [-3.28096539e-03]
+  [-2.51266897e-02]
+  [-4.63194623e-02]]
+ [[ 2.29978139e-01]
+  [ 2.38649031e-01]
+  [ 2.46483621e-01]
+  [ 2.51407020e-01]
+  [ 2.50992141e-01]
+  [ 2.44013456e-01]
+  [ 2.30730885e-01]
+  [ 2.12676323e-01]
+  [ 1.91488255e-01]
+  [ 1.68135426e-01]
+  [ 1.43258748e-01]
+  [ 1.17253177e-01]
+  [ 9.03763725e-02]
+  [ 6.29679827e-02]
+  [ 3.53110297e-02]
+  [ 7.51136523e-03]
+  [-2.04308202e-02]
+  [-4.83401443e-02]
+  [-7.48034318e-02]
+  [-9.73343807e-02]]
+ [[ 2.98864133e-01]
+  [ 3.08671515e-01]
+  [ 3.13301212e-01]
+  [ 3.10277567e-01]
+  [ 2.99519305e-01]
+  [ 2.81415462e-01]
+  [ 2.57861242e-01]
+  [ 2.30808981e-01]
+  [ 2.01253470e-01]
+  [ 1.69854521e-01]
+  [ 1.37081673e-01]
+  [ 1.03347654e-01]
+  [ 6.91224068e-02]
+  [ 3.46701856e-02]
+  [ 3.60390806e-05]
+  [-3.47903476e-02]
+  [-6.95243934e-02]
+  [-1.02271516e-01]
+  [-1.29760056e-01]
+  [-1.50159226e-01]]
+ [[ 3.77030309e-01]
+  [ 3.81418969e-01]
+  [ 3.76575720e-01]
+  [ 3.62966928e-01]
+  [ 3.40828994e-01]
+  [ 3.12179162e-01]
+  [ 2.79326385e-01]
+  [ 2.43389932e-01]
+  [ 2.05102796e-01]
+  [ 1.65144557e-01]
+  [ 1.24099556e-01]
+  [ 8.24939767e-02]
+  [ 4.06063895e-02]
+  [-1.54462961e-03]
+  [-4.39330864e-02]
+  [-8.62843162e-02]
+  [-1.26635420e-01]
+  [-1.60989818e-01]
+  [-1.86497917e-01]
+  [-2.03580540e-01]]
+ [[ 4.55769416e-01]
+  [ 4.50097991e-01]
+  [ 4.34779363e-01]
+  [ 4.09794656e-01]
+  [ 3.76800886e-01]
+  [ 3.38444856e-01]
+  [ 2.96193954e-01]
+  [ 2.50908324e-01]
+  [ 2.03517005e-01]
+  [ 1.54788618e-01]
+  [ 1.05287636e-01]
+  [ 5.53669578e-02]
+  [ 5.07573335e-03]
+  [-4.55136491e-02]
+  [-9.61682945e-02]
+  [-1.45347205e-01]
+  [-1.88765763e-01]
+  [-2.21889860e-01]
+  [-2.44509949e-01]
+  [-2.58234009e-01]]
+ [[ 5.30126822e-01]
+  [ 5.14393220e-01]
+  [ 4.88157946e-01]
+  [ 4.52151352e-01]
+  [ 4.09032959e-01]
+  [ 3.60897161e-01]
+  [ 3.08827697e-01]
+  [ 2.53975672e-01]
+  [ 1.97330532e-01]
+  [ 1.39546655e-01]
+  [ 8.10831680e-02]
+  [ 2.20981056e-02]
+  [-3.72854721e-02]
+  [-9.68243193e-02]
+  [-1.55617820e-01]
+  [-2.09922235e-01]
+  [-2.53770924e-01]
+  [-2.84735450e-01]
+  [-3.04364021e-01]
+  [-3.15523627e-01]]
+ [[ 5.99892615e-01]
+  [ 5.74457419e-01]
+  [ 5.37579439e-01]
+  [ 4.91207297e-01]
+  [ 4.38095873e-01]
+  [ 3.79896016e-01]
+  [ 3.17901796e-01]
+  [ 2.53343493e-01]
+  [ 1.87094376e-01]
+  [ 1.19727859e-01]
+  [ 5.15917143e-02]
+  [-1.71134034e-02]
+  [-8.61031052e-02]
+  [-1.54841465e-01]
+  [-2.20936856e-01]
+  [-2.78390173e-01]
+  [-3.21282935e-01]
+  [-3.49828512e-01]
+  [-3.67126178e-01]
+  [-3.76385477e-01]]
+ [[ 6.64925902e-01]
+  [ 6.30625074e-01]
+  [ 5.83792365e-01]
+  [ 5.27489423e-01]
+  [ 4.64395088e-01]
+  [ 3.96095497e-01]
+  [ 3.24038740e-01]
+  [ 2.49428816e-01]
+  [ 1.73047290e-01]
+  [ 9.54522420e-02]
+  [ 1.70018422e-02]
+  [-6.19504172e-02]
+  [-1.40911242e-01]
+  [-2.18790456e-01]
+  [-2.91078539e-01]
+  [-3.49991602e-01]
+  [-3.91498466e-01]
+  [-4.17774386e-01]
+  [-4.33904210e-01]
+  [-4.41129837e-01]]
+ [[ 7.24930784e-01]
+  [ 6.83047257e-01]
+  [ 6.27212370e-01]
+  [ 5.61465078e-01]
+  [ 4.88491722e-01]
+  [ 4.10006095e-01]
+  [ 3.27586498e-01]
+  [ 2.42427128e-01]
+  [ 1.55329333e-01]
+  [ 6.68812193e-02]
+  [-2.24214466e-02]
+  [-1.12049433e-01]
+  [-2.01314485e-01]
+  [-2.87987736e-01]
+  [-3.65350885e-01]
+  [-4.24625504e-01]
+  [-4.64607004e-01]
+  [-4.89723738e-01]
+  [-5.05225035e-01]
+  [-5.09660226e-01]]
+ [[ 7.80684495e-01]
+  [ 7.31696519e-01]
+  [ 6.68279900e-01]
+  [ 5.93626311e-01]
+  [ 5.10805909e-01]
+  [ 4.21921452e-01]
+  [ 3.28724616e-01]
+  [ 2.32489217e-01]
+  [ 1.34082368e-01]
+  [ 3.42331495e-02]
+  [-6.64029213e-02]
+  [-1.67108784e-01]
+  [-2.66953330e-01]
+  [-3.61979452e-01]
+  [-4.43207753e-01]
+  [-5.02435506e-01]
+  [-5.41369673e-01]
+  [-5.66443665e-01]
+  [-5.81057595e-01]
+  [-5.81583074e-01]]
+ [[ 8.33117702e-01]
+  [ 7.76782485e-01]
+  [ 7.07375934e-01]
+  [ 6.24282083e-01]
+  [ 5.31590948e-01]
+  [ 4.32011133e-01]
+  [ 3.27591515e-01]
+  [ 2.19745470e-01]
+  [ 1.09482105e-01]
+  [-2.27603151e-03]
+  [-1.14706101e-01]
+  [-2.26933087e-01]
+  [-3.37511823e-01]
+  [-4.40371612e-01]
+  [-5.24412180e-01]
+  [-5.83943231e-01]
+  [-6.22535715e-01]
+  [-6.48194106e-01]
+  [-6.60939336e-01]
+  [-6.56767175e-01]]
+ [[ 8.83553487e-01]
+  [ 8.19056499e-01]
+  [ 7.44639106e-01]
+  [ 6.53610906e-01]
+  [ 5.50993407e-01]
+  [ 4.40406266e-01]
+  [ 3.24318579e-01]
+  [ 2.04335961e-01]
+  [ 8.17023284e-02]
+  [-4.24654482e-02]
+  [-1.67162113e-01]
+  [-2.91394204e-01]
+  [-4.12714854e-01]
+  [-5.22702700e-01]
+  [-6.09367954e-01]
+  [-6.69538133e-01]
+  [-7.08658984e-01]
+  [-7.34547275e-01]
+  [-7.44746602e-01]
+  [-7.35313549e-01]]
+ [[ 9.33762470e-01]
+  [ 8.58896286e-01]
+  [ 7.80012248e-01]
+  [ 6.81696970e-01]
+  [ 5.69118639e-01]
+  [ 4.47224973e-01]
+  [ 3.19029087e-01]
+  [ 1.86403211e-01]
+  [ 5.08870049e-02]
+  [-8.62013261e-02]
+  [-2.23655651e-01]
+  [-3.60351164e-01]
+  [-4.92188625e-01]
+  [-6.08994866e-01]
+  [-6.98460021e-01]
+  [-7.59664751e-01]
+  [-7.99575937e-01]
+  [-8.25360482e-01]
+  [-8.32651711e-01]
+  [-8.17125792e-01]]
+ [[ 9.84396752e-01]
+  [ 8.97784491e-01]
+  [ 8.13229240e-01]
+  [ 7.08568689e-01]
+  [ 5.86057419e-01]
+  [ 4.52579583e-01]
+  [ 3.11835265e-01]
+  [ 1.66067389e-01]
+  [ 1.71487544e-02]
+  [-1.33376511e-01]
+  [-2.84112129e-01]
+  [-4.33545572e-01]
+  [-5.75810039e-01]
+  [-6.99427548e-01]
+  [-7.92115987e-01]
+  [-8.54228450e-01]
+  [-8.95216313e-01]
+  [-9.20907432e-01]
+  [-9.24524618e-01]
+  [-9.02082808e-01]]
+ [[ 1.03576183e+00]
+  [ 9.37011716e-01]
+  [ 8.43985822e-01]
+  [ 7.34216768e-01]
+  [ 6.01892751e-01]
+  [ 4.56575016e-01]
+  [ 3.02834153e-01]
+  [ 1.43425269e-01]
+  [-1.94312834e-02]
+  [-1.83914281e-01]
+  [-3.48432278e-01]
+  [-5.10658943e-01]
+  [-6.63784485e-01]
+  [-7.94303111e-01]
+  [-8.90288923e-01]
+  [-9.53147901e-01]
+  [-9.95940042e-01]
+  [-1.02113575e+00]
+  [-1.02010761e+00]
+  [-9.90225931e-01]]
+ [[ 1.08799640e+00]
+  [ 9.76749059e-01]
+  [ 8.72967620e-01]
+  [ 7.58585173e-01]
+  [ 6.16698676e-01]
+  [ 4.59292665e-01]
+  [ 2.92109673e-01]
+  [ 1.18548158e-01]
+  [-5.87845531e-02]
+  [-2.37758466e-01]
+  [-4.16406377e-01]
+  [-5.91774207e-01]
+  [-7.56229485e-01]
+  [-8.93840600e-01]
+  [-9.92570375e-01]
+  [-1.05685758e+00]
+  [-1.10181267e+00]
+  [-1.12576842e+00]
+  [-1.11933860e+00]
+  [-1.08166912e+00]]
+ [[ 1.14122381e+00]
+  [ 1.01712419e+00]
+  [ 9.01163062e-01]
+  [ 7.81544874e-01]
+  [ 6.30530288e-01]
+  [ 4.60794256e-01]
+  [ 2.79730293e-01]
+  [ 9.14914332e-02]
+  [-1.00855109e-01]
+  [-2.94812749e-01]
+  [-4.87820106e-01]
+  [-6.77065458e-01]
+  [-8.53456072e-01]
+  [-9.97680025e-01]
+  [-1.09901862e+00]
+  [-1.16570927e+00]
+  [-1.21258292e+00]
+  [-1.23470042e+00]
+  [-1.22226680e+00]
+  [-1.17651205e+00]]]</t>
         </is>
       </c>
       <c r="D1014" t="inlineStr">
@@ -26636,406 +26656,406 @@
       <c r="B1015" t="inlineStr"/>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>[[[ 0.00135157]
-  [ 0.00205208]
-  [ 0.0027608 ]
-  [ 0.00347884]
-  [ 0.00421228]
-  [ 0.00497164]
-  [ 0.00577065]
-  [ 0.00662548]
-  [ 0.00754958]
-  [ 0.00855284]
-  [ 0.00965098]
-  [ 0.01086611]
-  [ 0.01224323]
-  [ 0.01402417]
-  [ 0.01653089]
-  [ 0.01868226]
-  [ 0.01966589]
-  [ 0.01965851]
-  [ 0.01868495]
-  [ 0.01686529]]
- [[ 0.00213243]
-  [ 0.00303722]
-  [ 0.00397352]
-  [ 0.00495851]
-  [ 0.00601293]
-  [ 0.00715676]
-  [ 0.00840285]
-  [ 0.00976803]
-  [ 0.01127755]
-  [ 0.01297834]
-  [ 0.01516261]
-  [ 0.01838905]
-  [ 0.02111914]
-  [ 0.02215581]
-  [ 0.02188719]
-  [ 0.02041022]
-  [ 0.018004  ]
-  [ 0.01499315]
-  [ 0.0116331 ]
-  [ 0.00804365]]
- [[ 0.00299581]
-  [ 0.0042049 ]
-  [ 0.00550383]
-  [ 0.00691918]
-  [ 0.00846728]
-  [ 0.01016729]
-  [ 0.01204972]
-  [ 0.01418651]
-  [ 0.01698296]
-  [ 0.02104115]
-  [ 0.0239935 ]
-  [ 0.02470705]
-  [ 0.02375518]
-  [ 0.02151077]
-  [ 0.01837586]
-  [ 0.014688  ]
-  [ 0.01069058]
-  [ 0.00647419]
-  [ 0.00205962]
-  [-0.00257153]]
- [[ 0.00400476]
-  [ 0.00564783]
-  [ 0.00744812]
-  [ 0.00942338]
-  [ 0.01160346]
-  [ 0.01401985]
-  [ 0.01690666]
-  [ 0.02106262]
-  [ 0.02559701]
-  [ 0.02703855]
-  [ 0.02622329]
-  [ 0.02388394]
-  [ 0.02048114]
-  [ 0.01637685]
-  [ 0.01187731]
-  [ 0.00713167]
-  [ 0.00216545]
-  [-0.00305031]
-  [-0.00853669]
-  [-0.01399163]]
- [[ 0.0052052 ]
-  [ 0.00738799]
-  [ 0.00978627]
-  [ 0.01241742]
-  [ 0.01521924]
-  [ 0.01876716]
-  [ 0.02402624]
-  [ 0.02841699]
-  [ 0.02889092]
-  [ 0.02721242]
-  [ 0.02409612]
-  [ 0.01995945]
-  [ 0.01516221]
-  [ 0.01000832]
-  [ 0.00460332]
-  [-0.00107156]
-  [-0.00707216]
-  [-0.01337638]
-  [-0.01948849]
-  [-0.02476228]]
- [[ 0.00657614]
-  [ 0.00936732]
-  [ 0.01230462]
-  [ 0.01532019]
-  [ 0.01939556]
-  [ 0.02536757]
-  [ 0.03008889]
-  [ 0.03034805]
-  [ 0.02835005]
-  [ 0.02484141]
-  [ 0.02023697]
-  [ 0.01492011]
-  [ 0.00921493]
-  [ 0.00321707]
-  [-0.00311863]
-  [-0.00985615]
-  [-0.01696164]
-  [-0.02386509]
-  [-0.02978521]
-  [-0.03438654]]
- [[ 0.00800925]
-  [ 0.011113  ]
-  [ 0.01424231]
-  [ 0.01862081]
-  [ 0.0249861 ]
-  [ 0.03071382]
-  [ 0.03158877]
-  [ 0.02972185]
-  [ 0.02616123]
-  [ 0.02134462]
-  [ 0.01567795]
-  [ 0.00952176]
-  [ 0.00300663]
-  [-0.0039185 ]
-  [-0.01131864]
-  [-0.01918929]
-  [-0.02702444]
-  [-0.03383217]
-  [-0.03984047]
-  [-0.03882621]]
- [[ 0.00882405]
-  [ 0.01200386]
-  [ 0.01636641]
-  [ 0.02299003]
-  [ 0.02980855]
-  [ 0.03238185]
-  [ 0.03114393]
-  [ 0.02790213]
-  [ 0.02316803]
-  [ 0.01736307]
-  [ 0.01088637]
-  [ 0.00395059]
-  [-0.0034695 ]
-  [-0.01143758]
-  [-0.01998239]
-  [-0.02877893]
-  [-0.03677243]
-  [-0.04376005]
-  [-0.04615285]
-  [-0.04360947]]
- [[ 0.00865539]
-  [ 0.01265673]
-  [ 0.01946528]
-  [ 0.02691729]
-  [ 0.03203799]
-  [ 0.03225109]
-  [ 0.02976   ]
-  [ 0.02546589]
-  [ 0.01980692]
-  [ 0.01320501]
-  [ 0.00597636]
-  [-0.00182179]
-  [-0.01024478]
-  [-0.01933374]
-  [-0.02896534]
-  [-0.0383082 ]
-  [-0.04633359]
-  [-0.05322385]
-  [-0.05095306]
-  [-0.04989886]]
- [[ 0.00773111]
-  [ 0.01421342]
-  [ 0.02235116]
-  [ 0.02935178]
-  [ 0.03244553]
-  [ 0.03128898]
-  [ 0.02786899]
-  [ 0.02272685]
-  [ 0.01629019]
-  [ 0.00895837]
-  [ 0.00092451]
-  [-0.00782007]
-  [-0.01731521]
-  [-0.02755286]
-  [-0.03808903]
-  [-0.04767204]
-  [-0.05622797]
-  [-0.05979541]
-  [-0.05723692]
-  [-0.05668968]]
- [[ 0.00717134]
-  [ 0.01609106]
-  [ 0.02406625]
-  [ 0.03045608]
-  [ 0.03189156]
-  [ 0.02987567]
-  [ 0.02571005]
-  [ 0.01984082]
-  [ 0.0126974 ]
-  [ 0.0046171 ]
-  [-0.0042904 ]
-  [-0.01404411]
-  [-0.02465997]
-  [-0.03601595]
-  [-0.0472519 ]
-  [-0.05708976]
-  [-0.06613098]
-  [-0.06515433]
-  [-0.06395539]
-  [-0.06461707]]
- [[ 0.00745238]
-  [ 0.01712709]
-  [ 0.02489158]
-  [ 0.03051608]
-  [ 0.03084512]
-  [ 0.02820656]
-  [ 0.02340778]
-  [ 0.01687578]
-  [ 0.00903957]
-  [ 0.00016599]
-  [-0.00967186]
-  [-0.02048388]
-  [-0.03226233]
-  [-0.0446641 ]
-  [-0.05643985]
-  [-0.06687557]
-  [-0.07473166]
-  [-0.0723759 ]
-  [-0.07196126]
-  [-0.07309677]]
- [[ 0.00769143]
-  [ 0.01694708]
-  [ 0.02517407]
-  [ 0.02986453]
-  [ 0.02952453]
-  [ 0.02638964]
-  [ 0.02102171]
-  [ 0.01385869]
-  [ 0.00530962]
-  [-0.00440091]
-  [-0.01521769]
-  [-0.02713518]
-  [-0.04010359]
-  [-0.05347556]
-  [-0.06572246]
-  [-0.07707928]
-  [-0.0824772 ]
-  [-0.08062351]
-  [-0.080879  ]
-  [-0.08204304]]
- [[ 0.00720104]
-  [ 0.01601141]
-  [ 0.02492291]
-  [ 0.0287782 ]
-  [ 0.02803776]
-  [ 0.02448107]
-  [ 0.01858005]
-  [ 0.01079423]
-  [ 0.00150385]
-  [-0.00908616]
-  [-0.0209278 ]
-  [-0.03400403]
-  [-0.04816979]
-  [-0.06243982]
-  [-0.07523557]
-  [-0.08743296]
-  [-0.08934984]
-  [-0.08892074]
-  [-0.09025587]
-  [-0.0914537 ]]
- [[ 0.0054947 ]
-  [ 0.01475245]
-  [ 0.02415417]
-  [ 0.02743294]
-  [ 0.02644113]
-  [ 0.02251024]
-  [ 0.01609709]
-  [ 0.00768044]
-  [-0.00238055]
-  [-0.01389305]
-  [-0.0268073 ]
-  [-0.04109819]
-  [-0.05645297]
-  [-0.07154196]
-  [-0.08516348]
-  [-0.09751908]
-  [-0.0980204 ]
-  [-0.09833603]
-  [-0.10004038]
-  [-0.1013463 ]]
- [[ 0.00281277]
-  [ 0.01332682]
-  [ 0.02294806]
-  [ 0.02592149]
-  [ 0.02476644]
-  [ 0.02049344]
-  [ 0.01358043]
-  [ 0.00451554]
-  [-0.00634811]
-  [-0.01882738]
-  [-0.03286431]
-  [-0.0484184 ]
-  [-0.06493292]
-  [-0.08083441]
-  [-0.09560092]
-  [-0.1072927 ]
-  [-0.10687941]
-  [-0.10851633]
-  [-0.11028595]
-  [-0.11171767]]
- [[-0.00043094]
-  [ 0.01169626]
-  [ 0.02140314]
-  [ 0.0242919 ]
-  [ 0.02303245]
-  [ 0.01844064]
-  [ 0.0110311 ]
-  [ 0.00129638]
-  [-0.01040482]
-  [-0.02389542]
-  [-0.03910806]
-  [-0.05595139]
-  [-0.07361709]
-  [-0.09040025]
-  [-0.10652318]
-  [-0.1175938 ]
-  [-0.11723574]
-  [-0.11925148]
-  [-0.1210045 ]
-  [-0.1225615 ]]
- [[-0.00385078]
-  [ 0.00983124]
-  [ 0.01959183]
-  [ 0.02257109]
-  [ 0.02125106]
-  [ 0.01635793]
-  [ 0.00844675]
-  [-0.00198127]
-  [-0.01455755]
-  [-0.02910407]
-  [-0.04554264]
-  [-0.06367873]
-  [-0.082547  ]
-  [-0.10032751]
-  [-0.11779356]
-  [-0.12739715]
-  [-0.12877011]
-  [-0.13045601]
-  [-0.13218685]
-  [-0.13388904]]
- [[-0.00724698]
-  [ 0.00766924]
-  [ 0.01758632]
-  [ 0.02077336]
-  [ 0.01942997]
-  [ 0.01424776]
-  [ 0.00582443]
-  [-0.00532276]
-  [-0.01881234]
-  [-0.03445989]
-  [-0.05215934]
-  [-0.07162341]
-  [-0.09174694]
-  [-0.11067997]
-  [-0.12923782]
-  [-0.13768404]
-  [-0.14026807]
-  [-0.14209   ]
-  [-0.14383741]
-  [-0.14571719]]
- [[-0.01036832]
-  [ 0.00524757]
-  [ 0.01542126]
-  [ 0.01890926]
-  [ 0.01757338]
-  [ 0.0121101 ]
-  [ 0.00316059]
-  [-0.00873362]
-  [-0.02317456]
-  [-0.03996405]
-  [-0.05894785]
-  [-0.07981325]
-  [-0.10125655]
-  [-0.12145041]
-  [-0.14078954]
-  [-0.14912548]
-  [-0.15187506]
-  [-0.15415382]
-  [-0.15596709]
-  [-0.15805947]]]</t>
+          <t>[[[ 9.01840336e-03]
+  [ 1.04921921e-02]
+  [ 1.20214534e-02]
+  [ 1.36066511e-02]
+  [ 1.52482329e-02]
+  [ 1.69492704e-02]
+  [ 1.87504408e-02]
+  [ 2.07198486e-02]
+  [ 2.27937273e-02]
+  [ 2.49208977e-02]
+  [ 2.70679316e-02]
+  [ 2.90510335e-02]
+  [ 3.05865228e-02]
+  [ 3.14121021e-02]
+  [ 3.13369284e-02]
+  [ 3.03520599e-02]
+  [ 2.86131557e-02]
+  [ 2.63092780e-02]
+  [ 2.35810298e-02]
+  [ 2.05189278e-02]]
+ [[ 1.42011982e-02]
+  [ 1.61816867e-02]
+  [ 1.82342167e-02]
+  [ 2.04148422e-02]
+  [ 2.28636094e-02]
+  [ 2.54806683e-02]
+  [ 2.82100823e-02]
+  [ 3.09567506e-02]
+  [ 3.33931647e-02]
+  [ 3.51527613e-02]
+  [ 3.59409656e-02]
+  [ 3.55599043e-02]
+  [ 3.40823943e-02]
+  [ 3.17887224e-02]
+  [ 2.89160131e-02]
+  [ 2.56017520e-02]
+  [ 2.19415778e-02]
+  [ 1.80113342e-02]
+  [ 1.38702110e-02]
+  [ 9.55158687e-03]]
+ [[ 1.98355492e-02]
+  [ 2.24895586e-02]
+  [ 2.55350745e-02]
+  [ 2.88300111e-02]
+  [ 3.23049149e-02]
+  [ 3.56624907e-02]
+  [ 3.84187565e-02]
+  [ 4.01555853e-02]
+  [ 4.05715882e-02]
+  [ 3.95481930e-02]
+  [ 3.73746620e-02]
+  [ 3.44081603e-02]
+  [ 3.08537342e-02]
+  [ 2.68512660e-02]
+  [ 2.25024120e-02]
+  [ 1.78814584e-02]
+  [ 1.30405684e-02]
+  [ 8.00951957e-03]
+  [ 2.80545027e-03]
+  [-2.57290207e-03]]
+ [[ 2.61851430e-02]
+  [ 3.01247943e-02]
+  [ 3.43744605e-02]
+  [ 3.85536368e-02]
+  [ 4.20607851e-02]
+  [ 4.43650588e-02]
+  [ 4.51090811e-02]
+  [ 4.41909452e-02]
+  [ 4.19169324e-02]
+  [ 3.86902634e-02]
+  [ 3.47717106e-02]
+  [ 3.03250334e-02]
+  [ 2.54725553e-02]
+  [ 2.02920180e-02]
+  [ 1.48477682e-02]
+  [ 9.18432229e-03]
+  [ 3.32025339e-03]
+  [-2.75346635e-03]
+  [-9.04854709e-03]
+  [-1.53746052e-02]]
+ [[ 3.38206084e-02]
+  [ 3.89632848e-02]
+  [ 4.36552267e-02]
+  [ 4.71887139e-02]
+  [ 4.90276680e-02]
+  [ 4.90202828e-02]
+  [ 4.73252546e-02]
+  [ 4.43266568e-02]
+  [ 4.04195581e-02]
+  [ 3.58276317e-02]
+  [ 3.07014850e-02]
+  [ 2.51472996e-02]
+  [ 1.92404001e-02]
+  [ 1.30589230e-02]
+  [ 6.64213260e-03]
+  [-1.63862647e-05]
+  [-6.94962782e-03]
+  [-1.41440537e-02]
+  [-2.12587118e-02]
+  [-2.76615810e-02]]
+ [[ 4.21840325e-02]
+  [ 4.74096556e-02]
+  [ 5.10701728e-02]
+  [ 5.27320822e-02]
+  [ 5.24779158e-02]
+  [ 5.04673387e-02]
+  [ 4.71028041e-02]
+  [ 4.27925115e-02]
+  [ 3.77439618e-02]
+  [ 3.21002838e-02]
+  [ 2.59699483e-02]
+  [ 1.94441764e-02]
+  [ 1.26139094e-02]
+  [ 5.50826087e-03]
+  [-1.90085307e-03]
+  [-9.65609085e-03]
+  [-1.77337615e-02]
+  [-2.57250681e-02]
+  [-3.28784693e-02]
+  [-3.87412689e-02]]
+ [[ 4.96215399e-02]
+  [ 5.36416716e-02]
+  [ 5.55732814e-02]
+  [ 5.55258737e-02]
+  [ 5.36143306e-02]
+  [ 5.02176049e-02]
+  [ 4.57663352e-02]
+  [ 4.04772889e-02]
+  [ 3.44912105e-02]
+  [ 2.79333182e-02]
+  [ 2.09116637e-02]
+  [ 1.35253072e-02]
+  [ 5.80528081e-03]
+  [-2.28776195e-03]
+  [-1.07995238e-02]
+  [-1.97251592e-02]
+  [-2.86900198e-02]
+  [-3.68593180e-02]
+  [-4.35906539e-02]
+  [-4.89015786e-02]]
+ [[ 5.46600862e-02]
+  [ 5.72837629e-02]
+  [ 5.78815265e-02]
+  [ 5.65004449e-02]
+  [ 5.34368036e-02]
+  [ 4.91370667e-02]
+  [ 4.38598298e-02]
+  [ 3.77474278e-02]
+  [ 3.09431368e-02]
+  [ 2.35726660e-02]
+  [ 1.57423505e-02]
+  [ 7.50277657e-03]
+  [-1.18327150e-03]
+  [-1.03624536e-02]
+  [-2.00533471e-02]
+  [-3.00089573e-02]
+  [-3.94167126e-02]
+  [-4.73517573e-02]
+  [-5.36823003e-02]
+  [-5.86644171e-02]]
+ [[ 5.73092874e-02]
+  [ 5.90159735e-02]
+  [ 5.86407770e-02]
+  [ 5.63529330e-02]
+  [ 5.25660294e-02]
+  [ 4.76085834e-02]
+  [ 4.16411212e-02]
+  [ 3.48177366e-02]
+  [ 2.72844867e-02]
+  [ 1.91593203e-02]
+  [ 1.05207422e-02]
+  [ 1.35599376e-03]
+  [-8.37999135e-03]
+  [-1.87162831e-02]
+  [-2.95579301e-02]
+  [-4.02686459e-02]
+  [-4.97418198e-02]
+  [-5.74344639e-02]
+  [-6.35250274e-02]
+  [-6.85706099e-02]]
+ [[ 5.80875619e-02]
+  [ 5.93036171e-02]
+  [ 5.83525985e-02]
+  [ 5.55578453e-02]
+  [ 5.13086548e-02]
+  [ 4.58294712e-02]
+  [ 3.92803287e-02]
+  [ 3.18257286e-02]
+  [ 2.36067473e-02]
+  [ 1.47281674e-02]
+  [ 5.22419558e-03]
+  [-4.93667464e-03]
+  [-1.57859762e-02]
+  [-2.73144119e-02]
+  [-3.91802418e-02]
+  [-5.03735546e-02]
+  [-5.97973013e-02]
+  [-6.73483844e-02]
+  [-7.34941329e-02]
+  [-7.89282572e-02]]
+ [[ 5.73093014e-02]
+  [ 5.85084645e-02]
+  [ 5.73855536e-02]
+  [ 5.43791813e-02]
+  [ 4.98297645e-02]
+  [ 4.39357453e-02]
+  [ 3.68802137e-02]
+  [ 2.88347181e-02]
+  [ 1.99341687e-02]
+  [ 1.02641599e-02]
+  [-1.65064991e-04]
+  [-1.13786385e-02]
+  [-2.33876750e-02]
+  [-3.61021320e-02]
+  [-4.88490619e-02]
+  [-6.03334425e-02]
+  [-6.97575925e-02]
+  [-7.73226740e-02]
+  [-8.38824576e-02]
+  [-8.98533713e-02]]
+ [[ 5.52206580e-02]
+  [ 5.68986739e-02]
+  [ 5.59705586e-02]
+  [ 5.29669177e-02]
+  [ 4.82359300e-02]
+  [ 4.20074515e-02]
+  [ 3.44903720e-02]
+  [ 2.58627568e-02]
+  [ 1.62597310e-02]
+  [ 5.75195727e-03]
+  [-5.65194149e-03]
+  [-1.79649266e-02]
+  [-3.11802184e-02]
+  [-4.50416474e-02]
+  [-5.85443773e-02]
+  [-7.02403765e-02]
+  [-7.97482739e-02]
+  [-8.76266918e-02]
+  [-9.48203536e-02]
+  [-1.01365503e-01]]
+ [[ 5.22460831e-02]
+  [ 5.46485308e-02]
+  [ 5.42437924e-02]
+  [ 5.14092232e-02]
+  [ 4.65924748e-02]
+  [ 4.00857393e-02]
+  [ 3.21266473e-02]
+  [ 2.29098476e-02]
+  [ 1.25720964e-02]
+  [ 1.18558188e-03]
+  [-1.12377619e-02]
+  [-2.46967667e-02]
+  [-3.91591245e-02]
+  [-5.41249138e-02]
+  [-6.82613445e-02]
+  [-8.01944615e-02]
+  [-8.99476876e-02]
+  [-9.84208582e-02]
+  [-1.06333624e-01]
+  [-1.13444550e-01]]
+ [[ 4.86883320e-02]
+  [ 5.18736019e-02]
+  [ 5.22755406e-02]
+  [ 4.97573619e-02]
+  [ 4.49357012e-02]
+  [ 3.81864408e-02]
+  [ 2.97909097e-02]
+  [ 1.99688387e-02]
+  [ 8.86535182e-03]
+  [-3.43903096e-03]
+  [-1.69262854e-02]
+  [-3.15854712e-02]
+  [-4.73216947e-02]
+  [-6.33472908e-02]
+  [-7.80286234e-02]
+  [-9.03208836e-02]
+  [-1.00502445e-01]
+  [-1.09764524e-01]
+  [-1.18383082e-01]
+  [-1.26109040e-01]]
+ [[ 4.48002233e-02]
+  [ 4.87047455e-02]
+  [ 5.00973399e-02]
+  [ 4.80406074e-02]
+  [ 4.32809946e-02]
+  [ 3.63136366e-02]
+  [ 2.74812781e-02]
+  [ 1.70339312e-02]
+  [ 5.13475614e-03]
+  [-8.12778260e-03]
+  [-2.27264361e-02]
+  [-3.86457194e-02]
+  [-5.56667432e-02]
+  [-7.26908019e-02]
+  [-8.79449424e-02]
+  [-1.00703117e-01]
+  [-1.11516830e-01]
+  [-1.21618809e-01]
+  [-1.30965329e-01]
+  [-1.39403582e-01]]
+ [[ 4.09106004e-02]
+  [ 4.51757776e-02]
+  [ 4.77128708e-02]
+  [ 4.62703321e-02]
+  [ 4.16332913e-02]
+  [ 3.44670822e-02]
+  [ 2.51945477e-02]
+  [ 1.41007680e-02]
+  [ 1.37400050e-03]
+  [-1.28892283e-02]
+  [-2.86499136e-02]
+  [-4.58858758e-02]
+  [-6.41789093e-02]
+  [-8.21915141e-02]
+  [-9.80884337e-02]
+  [-1.11421741e-01]
+  [-1.22995786e-01]
+  [-1.33977547e-01]
+  [-1.44115110e-01]
+  [-1.53339056e-01]]
+ [[ 3.71074120e-02]
+  [ 4.15657777e-02]
+  [ 4.50941841e-02]
+  [ 4.44469070e-02]
+  [ 3.99928554e-02]
+  [ 3.26455440e-02]
+  [ 2.29264725e-02]
+  [ 1.11640362e-02]
+  [-2.42450872e-03]
+  [-1.77322848e-02]
+  [-3.47091618e-02]
+  [-5.32984206e-02]
+  [-7.28691623e-02]
+  [-9.18956167e-02]
+  [-1.08528679e-01]
+  [-1.22491839e-01]
+  [-1.34942376e-01]
+  [-1.46881648e-01]
+  [-1.57834450e-01]
+  [-1.67917959e-01]]
+ [[ 3.34071208e-02]
+  [ 3.81136208e-02]
+  [ 4.22046839e-02]
+  [ 4.25629083e-02]
+  [ 3.83581877e-02]
+  [ 3.08472071e-02]
+  [ 2.06721553e-02]
+  [ 8.21756800e-03]
+  [-6.26942655e-03]
+  [-2.26663193e-02]
+  [-4.09111257e-02]
+  [-6.08682520e-02]
+  [-8.17796583e-02]
+  [-1.01852230e-01]
+  [-1.19278695e-01]
+  [-1.33922390e-01]
+  [-1.47400597e-01]
+  [-1.60334551e-01]
+  [-1.72111387e-01]
+  [-1.83155620e-01]]
+ [[ 2.98086170e-02]
+  [ 3.48159907e-02]
+  [ 3.91926091e-02]
+  [ 4.06037839e-02]
+  [ 3.67266736e-02]
+  [ 2.90683988e-02]
+  [ 1.84265554e-02]
+  [ 5.25425790e-03]
+  [-1.01686455e-02]
+  [-2.77001173e-02]
+  [-4.72498143e-02]
+  [-6.86208107e-02]
+  [-9.09343110e-02]
+  [-1.12099603e-01]
+  [-1.30311935e-01]
+  [-1.45771007e-01]
+  [-1.60381030e-01]
+  [-1.74314884e-01]
+  [-1.86955782e-01]
+  [-1.99066191e-01]]
+ [[ 2.63233262e-02]
+  [ 3.16858352e-02]
+  [ 3.62272838e-02]
+  [ 3.85466707e-02]
+  [ 3.50938940e-02]
+  [ 2.73044284e-02]
+  [ 1.61843251e-02]
+  [ 2.26702503e-03]
+  [-1.41292473e-02]
+  [-3.28368421e-02]
+  [-5.37184757e-02]
+  [-7.65859408e-02]
+  [-1.00372477e-01]
+  [-1.22616759e-01]
+  [-1.41646355e-01]
+  [-1.58081810e-01]
+  [-1.73861858e-01]
+  [-1.88818840e-01]
+  [-2.02388121e-01]
+  [-2.15657473e-01]]]</t>
         </is>
       </c>
       <c r="D1015" t="inlineStr">
@@ -28580,11 +28600,11 @@
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>[52.2678878  45.32068549 38.54033588 32.29276828 26.94391203 22.85969643
- 20.12402391 18.05505207 15.99903562 13.36570204 10.53580656  8.45624897
-  7.338172    6.55447053  6.28921618  6.26282047  6.23772637  6.27956631
-  6.37829963  6.44291374  6.43456846  6.41245054  6.3979759   6.45216515
-  6.62009368  6.85372537  7.10395325  7.32167035  7.40976496  7.46314431]</t>
+          <t>[44.9025997  39.73045652 34.79991722 30.24818223 26.21245199 22.82992692
+ 20.17773966 17.97488873 15.80820604 13.31779963 10.74053324  8.62777166
+  7.12825102  5.94744328  5.01194633  4.80693976  4.52663618  4.39627378
+  4.31668547  4.21786541  3.98657455  3.6588583   3.4653058   3.59555297
+  4.03709034  4.72067529  5.57716454  6.53741479  7.08472907  8.49262511]</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr">
@@ -28665,18 +28685,18 @@
   [[ 0.          0.          0.        ]]]
  ...
  [[[ 0.          0.          0.        ]]
-  [[ 0.0646428   0.1001559   0.08453631]]
-  [[ 0.1292856   0.20031179  0.16907263]]
+  [[ 0.09492323  0.11579979  0.1152312 ]]
+  [[ 0.18984647  0.23159959  0.2304624 ]]
   ...
-  [[-0.1292856  -0.20031179 -0.16907263]]
-  [[-0.0646428  -0.1001559  -0.08453631]]
+  [[-0.18984647 -0.23159959 -0.2304624 ]]
+  [[-0.09492323 -0.11579979 -0.1152312 ]]
   [[ 0.          0.          0.        ]]]
  [[[ 0.          0.          0.        ]]
-  [[ 0.1168486   0.10665333  0.09069508]]
-  [[ 0.2336972   0.21330666  0.18139016]]
+  [[ 0.09551385  0.1033368   0.1129884 ]]
+  [[ 0.1910277   0.2066736   0.2259768 ]]
   ...
-  [[-0.2336972  -0.21330666 -0.18139016]]
-  [[-0.1168486  -0.10665333 -0.09069508]]
+  [[-0.1910277  -0.2066736  -0.2259768 ]]
+  [[-0.09551385 -0.1033368  -0.1129884 ]]
   [[ 0.          0.          0.        ]]]
  [[[ 0.          0.          0.        ]]
   [[ 0.20244966  0.20244966  0.20244966]]
@@ -28724,20 +28744,20 @@
   [[0.34328947 0.34328947 0.34328947]]
   [[0.34328947 0.34328947 0.34328947]]]
  ...
- [[[0.11524771 0.15920291 0.19802924]]
-  [[0.1154285  0.1594353  0.19831109]]
-  [[0.11594555 0.16011029 0.1991453 ]]
+ [[[0.16618966 0.18052688 0.24367898]]
+  [[0.16648519 0.18083626 0.24411231]]
+  [[0.16730439 0.18171541 0.24531347]]
   ...
-  [[0.11594555 0.16011029 0.1991453 ]]
-  [[0.1154285  0.1594353  0.19831109]]
-  [[0.11524771 0.15920291 0.19802924]]]
- [[[0.11574139 0.16061717 0.20021618]]
-  [[0.11592295 0.16085163 0.20050114]]
-  [[0.11644222 0.16153261 0.20134456]]
+  [[0.16730439 0.18171541 0.24531347]]
+  [[0.16648519 0.18083626 0.24411231]]
+  [[0.16618966 0.18052688 0.24367898]]]
+ [[[0.16611716 0.20973775 0.25365742]]
+  [[0.16641256 0.21011072 0.2541085 ]]
+  [[0.1672314  0.21114458 0.25535885]]
   ...
-  [[0.11644222 0.16153261 0.20134456]]
-  [[0.11592295 0.16085163 0.20050114]]
-  [[0.11574139 0.16061717 0.20021618]]]
+  [[0.1672314  0.21114458 0.25535885]]
+  [[0.16641256 0.21011072 0.2541085 ]]
+  [[0.16611716 0.20973775 0.25365742]]]
  [[[0.001      0.001      0.001     ]]
   [[0.001      0.001      0.001     ]]
   [[0.001      0.001      0.001     ]]
@@ -28913,14 +28933,14 @@
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>[ 1.24861807e+07  8.42115853e+06  5.24725920e+06  3.71195701e+06
-  3.71857045e+06  3.85130101e+06  3.93623821e+06  3.80492230e+06
-  3.44779844e+06  3.01650618e+06  2.47098837e+06  1.79486536e+06
-  1.16149973e+06  4.79572486e+05 -2.87475712e+05 -3.15106046e+05
- -2.98244031e+05 -2.67347186e+05 -2.33079477e+05 -1.86075562e+05
- -1.34941198e+05 -9.38227554e+04 -5.58650437e+04 -2.65894503e+04
- -1.30350175e+04 -4.23796194e+03  6.25377281e+02  1.07395288e+03
-  9.92337517e+02  2.22044605e-13]</t>
+          <t>[ 6.03041846e+06  7.76818453e+05 -2.95953554e+06 -4.65331548e+06
+ -4.06727311e+06 -2.31724700e+06 -8.36044130e+05 -1.32744102e+05
+  4.15254830e+05  6.34684362e+05  5.76451231e+05  4.33294819e+05
+  2.45430042e+05 -1.85385543e+05 -8.46846886e+05 -8.68329085e+05
+ -7.27450720e+05 -5.12314602e+05 -3.70182931e+05 -2.81634372e+05
+ -2.09404271e+05 -1.45313107e+05 -8.25222076e+04 -3.49065801e+04
+ -1.42462477e+04 -1.45442329e+03  5.51828234e+03  6.09699486e+03
+  5.63365194e+03  8.88178420e-13]</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr">
@@ -28942,14 +28962,14 @@
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>[ 2.98180059e+07  2.85604344e+07  2.70804698e+07  2.54207732e+07
-  2.34787243e+07  2.12119553e+07  1.90275197e+07  1.71038044e+07
-  1.52914513e+07  1.36261860e+07  1.21004348e+07  1.06916129e+07
-  9.41218372e+06  8.25125261e+06  6.68715104e+06  6.20614788e+06
-  5.29064149e+06  4.44695031e+06  3.68711907e+06  2.98823995e+06
-  2.35977596e+06  1.81753176e+06  1.32441641e+06  9.10095110e+05
-  6.02713710e+05  3.41181300e+05  1.57740473e+05  7.52442894e+04
-  4.23375055e+04 -1.42108547e-11]</t>
+          <t>[ 4.31983984e+07  4.04512224e+07  3.77714410e+07  3.51595481e+07
+  3.26227243e+07  3.01571670e+07  2.77316511e+07  2.53076651e+07
+  2.29138117e+07  2.06329412e+07  1.84764951e+07  1.64210225e+07
+  1.44930312e+07  1.26660843e+07  1.01554889e+07  9.40498697e+06
+  7.99325920e+06  6.70902260e+06  5.57423272e+06  4.55792036e+06
+  3.64779109e+06  2.83809344e+06  2.08365346e+06  1.44104044e+06
+  9.58451356e+05  5.43638257e+05  2.51155955e+05  1.19776540e+05
+  6.74042083e+04 -2.84217094e-11]</t>
         </is>
       </c>
       <c r="D1090" t="inlineStr">
@@ -29110,14 +29130,14 @@
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>[-3.20252555e+07 -2.44932777e+07 -2.46244644e+07 -2.33532680e+07
- -2.19490494e+07 -2.05046254e+07 -1.89821080e+07 -1.74369095e+07
- -1.56708174e+07 -1.39545169e+07 -1.23470719e+07 -1.08294179e+07
- -9.45301178e+06 -8.19378750e+06 -6.55773246e+06 -6.08913627e+06
- -5.20909179e+06 -4.38913538e+06 -3.64645445e+06 -2.96201033e+06
- -2.34308526e+06 -1.81105460e+06 -1.32316028e+06 -9.10393844e+05
- -6.02692612e+05 -3.40741028e+05 -1.57228331e+05 -7.48902675e+04
- -4.20426908e+04  1.41491621e-11]</t>
+          <t>[-4.02663191e+07 -2.60149744e+07 -2.80531071e+07 -2.69785554e+07
+ -2.56614572e+07 -2.54593274e+07 -2.49899817e+07 -2.40018035e+07
+ -2.23264208e+07 -2.02225955e+07 -1.81437234e+07 -1.61415291e+07
+ -1.42446603e+07 -1.24042048e+07 -9.89412353e+06 -9.16918935e+06
+ -7.83465513e+06 -6.60960859e+06 -5.51100778e+06 -4.51809633e+06
+ -3.62192975e+06 -2.82803570e+06 -2.08177629e+06 -1.44140425e+06
+ -9.58127428e+05 -5.42594040e+05 -2.49993812e+05 -1.18845708e+05
+ -6.65424897e+04  2.83471346e-11]</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr">
@@ -29139,14 +29159,14 @@
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>[ 4.40467845e+06  1.69320309e+07  1.24306606e+07  1.07060360e+07
-  9.12784147e+06  6.65882159e+06  4.14970511e+06  1.72387578e+06
-  3.75872817e+05  2.09073081e+05  2.75898911e+05  5.05802472e+05
-  7.60823439e+05  1.08397687e+06  1.34043884e+06  1.24015433e+06
-  9.72213769e+05  7.63106975e+05  5.93753371e+05  4.36688611e+05
-  3.10971374e+05  1.79737766e+05  8.02906505e+04  1.27733160e+04
- -1.39765220e+04 -1.78379260e+04 -1.27161277e+04 -7.36914395e+03
- -5.08539676e+03  1.34123371e-12]</t>
+          <t>[ 1.67657723e+07  3.09858992e+07  2.54649522e+07  2.30218312e+07
+  2.05493179e+07  1.63293296e+07  1.20517324e+07  8.02551945e+06
+  5.17166706e+06  4.14339442e+06  3.53814472e+06  3.04774731e+06
+  2.68287941e+06  2.56899994e+06  2.44078334e+06  2.26577624e+06
+  1.74343227e+06  1.25957329e+06  9.15368282e+05  6.63898665e+05
+  4.81513138e+05  2.79471563e+05  1.20950990e+05  1.30310049e+04
+ -2.87017131e+04 -3.37102010e+04 -2.47559867e+04 -1.61025037e+04
+ -1.21310506e+04  2.24106877e-12]</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr">
@@ -29168,14 +29188,14 @@
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>[7.40495056e+05 7.39934502e+05 7.38334701e+05 7.35818447e+05
- 7.26621697e+05 7.04547892e+05 6.79253232e+05 6.54983545e+05
- 6.28061631e+05 5.99314927e+05 5.68303218e+05 5.35167807e+05
- 5.01559899e+05 4.67890988e+05 4.16041177e+05 3.98336855e+05
- 3.63697842e+05 3.27010295e+05 2.83103293e+05 2.22895227e+05
- 1.62572134e+05 1.21959193e+05 9.25523779e+04 6.91983072e+04
- 5.06093403e+04 3.50664882e+04 2.26249669e+04 1.31317297e+04
- 8.61154867e+03 8.88178420e-13]</t>
+          <t>[8.25556152e+05 8.51519241e+05 8.66082229e+05 8.71352859e+05
+ 8.64377970e+05 8.42226336e+05 8.15918384e+05 7.89818769e+05
+ 7.59542467e+05 7.26658617e+05 6.91922346e+05 6.53806472e+05
+ 6.10318910e+05 5.48908095e+05 4.60694165e+05 4.46899361e+05
+ 4.32295059e+05 4.20454989e+05 3.94701143e+05 3.16545704e+05
+ 2.22627977e+05 1.64229167e+05 1.25441498e+05 9.45205172e+04
+ 6.85912355e+04 4.58109885e+04 2.78561464e+04 1.54984223e+04
+ 9.76157319e+03 2.66453526e-12]</t>
         </is>
       </c>
       <c r="D1098" t="inlineStr">
@@ -29369,14 +29389,14 @@
       <c r="B1107" t="inlineStr"/>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>[-3.81474296e-04 -5.46160798e-04 -7.35273707e-04 -1.14339090e-03
- -1.41285499e-03 -1.58546589e-03 -1.60152805e-03 -1.60905785e-03
- -1.60178232e-03 -1.56775273e-03 -1.51917657e-03 -1.47219038e-03
- -1.42178143e-03 -1.38890176e-03 -1.30722019e-03 -1.34615477e-03
- -1.34005090e-03 -1.32474613e-03 -1.30507802e-03 -1.20626197e-03
- -8.35471087e-04 -1.13803745e-03 -1.12603840e-03 -1.04314137e-03
- -1.01807903e-03 -8.99832624e-04 -6.96916442e-04 -6.22976050e-04
- -6.11520614e-04  1.05238544e-18]</t>
+          <t>[-2.05202711e-04 -9.55962090e-04 -1.13846742e-03 -1.51906019e-03
+ -1.81345137e-03 -2.06501979e-03 -2.15386501e-03 -2.21539598e-03
+ -2.25691221e-03 -2.24388019e-03 -2.20382747e-03 -2.16675771e-03
+ -2.11766030e-03 -2.07923796e-03 -1.95151201e-03 -2.00611210e-03
+ -1.99776897e-03 -1.98424808e-03 -1.96796782e-03 -1.83688812e-03
+ -1.28893991e-03 -1.77274405e-03 -1.76828323e-03 -1.64905200e-03
+ -1.61622389e-03 -1.43053624e-03 -1.10574596e-03 -9.86892032e-04
+ -9.66092087e-04  2.10680254e-18]</t>
         </is>
       </c>
       <c r="D1107" t="inlineStr">
@@ -29394,14 +29414,14 @@
       <c r="B1108" t="inlineStr"/>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>[-3.81474296e-04  4.88927186e-04  6.83999735e-04  6.88744251e-04
-  1.06009571e-03  1.32900067e-03  1.40617068e-03  1.45821410e-03
-  1.45918993e-03  1.40802997e-03  1.34870687e-03  1.30324564e-03
-  1.26394157e-03  1.25948752e-03  1.24364025e-03  1.30169205e-03
-  1.32815437e-03  1.34720719e-03  1.36679602e-03  1.33976164e-03
-  8.95850349e-04  1.31551777e-03  1.33153871e-03  1.27691873e-03
-  1.26956842e-03  1.14218369e-03  9.04052086e-04  8.39921119e-04
-  9.10052135e-04 -1.70658503e-18]</t>
+          <t>[-2.05202711e-04  8.84547928e-04  1.11514411e-03  1.18657274e-03
+  1.64422645e-03  1.99773244e-03  2.13102231e-03  2.22805697e-03
+  2.24839299e-03  2.18378839e-03  2.10228542e-03  2.03587026e-03
+  1.97305410e-03  1.95632169e-03  1.90825902e-03  1.99245351e-03
+  2.02321436e-03  2.04273898e-03  2.07070647e-03  2.04660806e-03
+  1.38735076e-03  2.05854455e-03  2.09822821e-03  2.02437713e-03
+  2.02104778e-03  1.82199658e-03  1.44105240e-03  1.33664340e-03
+  1.44551253e-03 -3.41928754e-18]</t>
         </is>
       </c>
       <c r="D1108" t="inlineStr">
@@ -30796,7 +30816,7 @@
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>[29818005.859375]</t>
+          <t>[43198398.4375]</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
@@ -30814,7 +30834,7 @@
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>[22609.73521302]</t>
+          <t>[24668.03518575]</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
@@ -30850,7 +30870,7 @@
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>[203487.61691721 101743.8084586  101743.8084586       0.
+          <t>[222012.31667178 111006.15833589 111006.15833589      0.
       0.              0.        ]</t>
         </is>
       </c>
@@ -32952,7 +32972,7 @@
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>[34193.11064912]</t>
+          <t>[36251.41062185]</t>
         </is>
       </c>
       <c r="D1296" t="inlineStr"/>
@@ -32988,7 +33008,7 @@
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>[2.77579719]</t>
+          <t>[2.77450751]</t>
         </is>
       </c>
       <c r="D1298" t="inlineStr"/>
@@ -33024,7 +33044,7 @@
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>[283603.87741159 182034.20141685 182034.20141685      0.
+          <t>[302128.57716617 191297.55295925 191297.55295925      0.
       0.              0.        ]</t>
         </is>
       </c>
@@ -33080,9 +33100,9 @@
       </c>
       <c r="C1303" t="inlineStr">
         <is>
-          <t>[[ 1.11791772e+09]
- [-1.26873817e+08]
- [-2.05767041e+09]]</t>
+          <t>[[ 1.79339099e+09]
+ [ 1.84544849e+07]
+ [-2.02691833e+09]]</t>
         </is>
       </c>
       <c r="D1303" t="inlineStr"/>
@@ -33100,9 +33120,9 @@
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>[[1.28783467e+10]
- [1.06079062e+10]
- [5.37883447e+09]]</t>
+          <t>[[1.43627432e+10]
+ [6.32610742e+09]
+ [1.32441416e+10]]</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr"/>
@@ -33445,9 +33465,9 @@
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>[[ 1.11783584e+09]
- [ 1.13737766e+10]
- [-1.65640330e+10]]</t>
+          <t>[[ 1.79330770e+09]
+ [ 4.35665470e+10]
+ [-1.13599855e+10]]</t>
         </is>
       </c>
       <c r="D1323" t="inlineStr"/>
@@ -33546,8 +33566,8 @@
       <c r="C1328" t="inlineStr">
         <is>
           <t>[[-0.00000000e+00]
- [ 6.49363302e+09]
- [ 5.63257625e+09]]</t>
+ [ 2.27335789e+09]
+ [ 1.32072189e+10]]</t>
         </is>
       </c>
       <c r="D1328" t="inlineStr"/>
@@ -33565,7 +33585,7 @@
       </c>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>[[ 1.28783171e+10]
+          <t>[[ 1.43627102e+10]
  [-0.00000000e+00]
  [-0.00000000e+00]]</t>
         </is>
@@ -33585,7 +33605,7 @@
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>[[ 1.33095770e+08]
+          <t>[[ 1.48436783e+08]
  [-4.03870219e+05]
  [-0.00000000e+00]]</t>
         </is>
@@ -33932,36 +33952,36 @@
       </c>
       <c r="C1348" t="inlineStr">
         <is>
-          <t>[[-11857099.609375  ]
- [-11418266.10200646]
- [-10994041.38781906]
- [-10584524.62399189]
- [-10186892.40763521]
- [ -9803545.06695728]
- [ -9434998.54112769]
- [ -9079544.99727999]
- [ -8737182.01310775]
- [ -8407039.93538803]
- [ -8088691.89571691]
- [ -7782651.81617458]
- [ -7487793.46907806]
- [ -7204110.98374672]
- [ -6932719.18505793]
- [ -6672211.04000552]
- [ -6422821.83099806]
- [ -6185780.77367307]
- [ -5959435.40386514]
- [ -5744109.98023828]
- [ -5540750.22664481]
- [ -5347689.38275822]
- [ -5165028.10138858]
- [ -4994976.02657998]
- [ -4839652.54331651]
- [ -4683869.82342976]
- [ -4514457.11014449]
- [ -4336643.79939631]
- [ -4151428.65942692]
- [ -3958792.23632812]]</t>
+          <t>[[-11879564.453125  ]
+ [-11439018.26830699]
+ [-11013090.468631  ]
+ [-10601877.92628417]
+ [-10202559.20377155]
+ [ -9817543.26896829]
+ [ -9447347.42014039]
+ [ -9090265.16283936]
+ [ -8746306.68669632]
+ [ -8414601.09678719]
+ [ -8094722.90056819]
+ [ -7787200.35173354]
+ [ -7490901.46694066]
+ [ -7205824.06920888]
+ [ -6933099.10120929]
+ [ -6671309.49571547]
+ [ -6420695.95075551]
+ [ -6182502.81236823]
+ [ -5955062.27482909]
+ [ -5738708.42648619]
+ [ -5534402.28262779]
+ [ -5340455.00819875]
+ [ -5156985.12257288]
+ [ -4986219.61082137]
+ [ -4830248.5745143 ]
+ [ -4673909.34523987]
+ [ -4504062.44059374]
+ [ -4325941.82068016]
+ [ -4140539.53667008]
+ [ -3947829.58984375]]</t>
         </is>
       </c>
       <c r="D1348" t="inlineStr"/>
@@ -33979,36 +33999,36 @@
       </c>
       <c r="C1349" t="inlineStr">
         <is>
-          <t>[[1334149.29199219]
- [1343883.44553308]
- [1351435.08378292]
- [1356876.36732165]
- [1361430.12055996]
- [1363521.18424402]
- [1362924.90139185]
- [1361204.06951798]
- [1358858.08785033]
- [1354790.68362504]
- [1348562.51404484]
- [1341389.47816457]
- [1332746.4510927 ]
- [1322459.32833451]
- [1311308.5199078 ]
- [1298868.11609142]
- [1285300.52812028]
- [1271230.25332837]
- [1256379.92351241]
- [1240974.53173006]
- [1225454.9951678 ]
- [1209703.04517453]
- [1193732.97065296]
- [1177745.20695086]
- [1161933.04126853]
- [1145347.06066089]
- [1127132.16336975]
- [1107533.26719733]
- [1086639.42318089]
- [1064486.08398438]]</t>
+          <t>[[2107229.00390625]
+ [2123092.30745406]
+ [2135670.25652488]
+ [2145263.05717233]
+ [2153493.93749848]
+ [2157320.84427825]
+ [2156974.19123707]
+ [2155862.67039238]
+ [2154190.30672156]
+ [2149398.85072687]
+ [2140753.60611426]
+ [2130692.99962766]
+ [2118199.66478915]
+ [2102992.218887  ]
+ [2086705.53549418]
+ [2068718.87765954]
+ [2049308.74196059]
+ [2029572.48649907]
+ [2009093.20948983]
+ [1988326.9961821 ]
+ [1968084.84751863]
+ [1948139.02535353]
+ [1928572.13909503]
+ [1909661.62998309]
+ [1891453.71604697]
+ [1873350.82989742]
+ [1854854.37884391]
+ [1836178.09440271]
+ [1817355.75123439]
+ [1798380.49316406]]</t>
         </is>
       </c>
       <c r="D1349" t="inlineStr"/>
@@ -34026,36 +34046,36 @@
       </c>
       <c r="C1350" t="inlineStr">
         <is>
-          <t>[[-142782.39440918]
- [-144589.33430606]
- [-146564.27399537]
- [-148682.26014893]
- [-150956.08867261]
- [-153488.89411752]
- [-156405.77231411]
- [-159706.38103371]
- [-163281.87819906]
- [-167178.90810639]
- [-171418.05384092]
- [-175876.49636954]
- [-180651.48924166]
- [-185650.25171407]
- [-190622.42167279]
- [-195760.4833674 ]
- [-200752.50263535]
- [-205077.7549001 ]
- [-209048.73422679]
- [-212442.58320781]
- [-214915.28246997]
- [-217100.46877957]
- [-218529.95091471]
- [-218584.56921855]
- [-217631.0751736 ]
- [-216010.85756291]
- [-213279.66288667]
- [-207295.18156898]
- [-198684.44239968]
- [-188346.74072266]]</t>
+          <t>[[-18718.55163574]
+ [-19562.10629768]
+ [-20537.53179611]
+ [-21631.00755622]
+ [-22860.99751181]
+ [-24273.09233894]
+ [-25972.27310851]
+ [-27966.13864836]
+ [-30111.93006636]
+ [-32407.72156947]
+ [-34887.93825089]
+ [-37484.55223635]
+ [-40296.59518049]
+ [-43202.2208433 ]
+ [-45926.29593864]
+ [-48481.48347595]
+ [-50908.04882664]
+ [-53172.69540919]
+ [-55320.99879727]
+ [-57312.70703537]
+ [-59083.62441655]
+ [-60671.69953273]
+ [-62128.12323553]
+ [-63518.15815452]
+ [-64899.16512834]
+ [-66050.27528918]
+ [-66833.77143185]
+ [-67502.30750391]
+ [-68015.66667024]
+ [-68296.80633545]]</t>
         </is>
       </c>
       <c r="D1350" t="inlineStr"/>
@@ -34073,36 +34093,36 @@
       </c>
       <c r="C1351" t="inlineStr">
         <is>
-          <t>[[35066039.0625    ]
- [34384626.97899847]
- [33693173.94919922]
- [32992343.05545956]
- [32282931.76214922]
- [31561046.57060375]
- [30825526.392283  ]
- [30076525.78447074]
- [29310685.5753196 ]
- [28527227.47014071]
- [27725607.02958837]
- [26903158.60237554]
- [26058715.62107281]
- [25191957.89844463]
- [24301957.34168959]
- [23385468.69574355]
- [22445646.54330405]
- [21487321.56065636]
- [20506456.23506572]
- [19508115.45508968]
- [18499141.61966211]
- [17474530.6322226 ]
- [16442670.36522081]
- [15411512.96524283]
- [14374373.73496045]
- [13346324.78135329]
- [12340822.54666254]
- [11349746.28767685]
- [10372786.42304666]
- [ 9411041.015625  ]]</t>
+          <t>[[18754681.640625  ]
+ [18655328.49274134]
+ [18551193.18101433]
+ [18442752.00412094]
+ [18330061.72696473]
+ [18210848.67064843]
+ [18083933.37796061]
+ [17949023.3747579 ]
+ [17804631.55385206]
+ [17649118.23575357]
+ [17481973.44395936]
+ [17303295.44091655]
+ [17110500.25195564]
+ [16904104.47389229]
+ [16686862.33480443]
+ [16456347.09748805]
+ [16213601.60328129]
+ [15961772.09686943]
+ [15698614.39556164]
+ [15425792.56542813]
+ [15146220.63148516]
+ [14858218.49229017]
+ [14563089.08052544]
+ [14262461.936996  ]
+ [13955025.46015093]
+ [13642568.27140701]
+ [13327002.46334244]
+ [13007975.46242978]
+ [12685238.2201768 ]
+ [12358635.7421875 ]]</t>
         </is>
       </c>
       <c r="D1351" t="inlineStr"/>
@@ -34120,36 +34140,36 @@
       </c>
       <c r="C1352" t="inlineStr">
         <is>
-          <t>[[ 1.68164844e+08]
- [ 1.61834848e+08]
- [ 1.55473513e+08]
- [ 1.49074199e+08]
- [ 1.42643937e+08]
- [ 1.36206491e+08]
- [ 1.29765978e+08]
- [ 1.23319998e+08]
- [ 1.16892524e+08]
- [ 1.10484595e+08]
- [ 1.04096377e+08]
- [ 9.77472549e+07]
- [ 9.14335907e+07]
- [ 8.51598787e+07]
- [ 7.89441936e+07]
- [ 7.27811722e+07]
- [ 6.66759431e+07]
- [ 6.06422979e+07]
- [ 5.46748952e+07]
- [ 4.87768798e+07]
- [ 4.29551930e+07]
- [ 3.72046758e+07]
- [ 3.15290064e+07]
- [ 2.59320796e+07]
- [ 2.04079430e+07]
- [ 1.49646127e+07]
- [ 9.60594943e+06]
- [ 4.31612307e+06]
- [-9.01500595e+05]
- [-6.04136670e+06]]</t>
+          <t>[[2.79817188e+08]
+ [2.69817465e+08]
+ [2.59765380e+08]
+ [2.49650991e+08]
+ [2.39485489e+08]
+ [2.29303783e+08]
+ [2.19111902e+08]
+ [2.08906309e+08]
+ [1.98722205e+08]
+ [1.88559814e+08]
+ [1.78421019e+08]
+ [1.68338372e+08]
+ [1.58307116e+08]
+ [1.48333136e+08]
+ [1.38443659e+08]
+ [1.28632545e+08]
+ [1.18904422e+08]
+ [1.09275738e+08]
+ [9.97421573e+07]
+ [9.03028355e+07]
+ [8.09610717e+07]
+ [7.17146552e+07]
+ [6.25611561e+07]
+ [5.34989565e+07]
+ [4.45270686e+07]
+ [3.56430772e+07]
+ [2.68411777e+07]
+ [1.81102160e+07]
+ [9.45407616e+06]
+ [8.77973511e+05]]</t>
         </is>
       </c>
       <c r="D1352" t="inlineStr"/>
@@ -34167,36 +34187,36 @@
       </c>
       <c r="C1353" t="inlineStr">
         <is>
-          <t>[[3762290.28320312]
- [3763866.92639381]
- [3765119.32788962]
- [3766054.44290791]
- [3766841.94995105]
- [3767277.50794225]
- [3767409.13082066]
- [3767495.48599996]
- [3767525.75064097]
- [3767341.82993133]
- [3766930.72860488]
- [3766470.29478075]
- [3765932.86907561]
- [3765299.71735522]
- [3764654.8586598 ]
- [3763978.08476622]
- [3763289.78524093]
- [3762645.43745199]
- [3762008.89101735]
- [3761432.92085064]
- [3760980.31160017]
- [3760553.3062085 ]
- [3760265.55765618]
- [3760234.34047048]
- [3760295.16779251]
- [3760400.040179  ]
- [3760590.3269071 ]
- [3761039.5350974 ]
- [3761695.92508893]
- [3762485.83984375]]</t>
+          <t>[[6859113.28125   ]
+ [6862706.21680024]
+ [6865516.27112634]
+ [6867585.2939122 ]
+ [6869333.11516736]
+ [6870139.4914211 ]
+ [6870139.07193768]
+ [6870122.73905888]
+ [6870094.99109903]
+ [6869509.33439104]
+ [6868255.33117853]
+ [6866890.38562446]
+ [6865387.2064615 ]
+ [6863675.22339271]
+ [6861953.58006862]
+ [6860172.92200734]
+ [6858390.97362191]
+ [6856751.39886598]
+ [6855165.30231362]
+ [6853744.1118755 ]
+ [6852623.09173819]
+ [6851563.06010517]
+ [6850848.83662357]
+ [6850752.06540156]
+ [6850773.66192386]
+ [6850813.74939882]
+ [6850987.78505461]
+ [6851667.18077607]
+ [6852736.40864396]
+ [6854033.69140625]]</t>
         </is>
       </c>
       <c r="D1353" t="inlineStr"/>
@@ -34318,7 +34338,7 @@
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t>[7.82634401]</t>
+          <t>[12.11774731]</t>
         </is>
       </c>
       <c r="D1358" t="inlineStr"/>
@@ -34826,7 +34846,7 @@
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>[22772961.37706846]</t>
+          <t>[42594717.55876767]</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr"/>
@@ -34844,7 +34864,7 @@
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>[87274252.32590647]</t>
+          <t>[1.54889118e+08]</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr"/>
@@ -34970,7 +34990,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>outputs_2_screen_weis.flp_kp_norm</t>
+          <t>outputs_2_screen_weis.dac_kp_norm</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -34984,7 +35004,7 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>outputs_2_screen_weis.flp_tau</t>
+          <t>outputs_2_screen_weis.dac_tau</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
@@ -35044,7 +35064,7 @@
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>[7.82634401]</t>
+          <t>[12.11774731]</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr"/>
@@ -35072,7 +35092,7 @@
       <c r="B1400" t="inlineStr"/>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>[0.13902941]</t>
+          <t>[0.31904361]</t>
         </is>
       </c>
       <c r="D1400" t="inlineStr"/>
@@ -35150,7 +35170,7 @@
       <c r="B1405" t="inlineStr"/>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[0.8]</t>
         </is>
       </c>
       <c r="D1405" t="inlineStr">
@@ -35168,7 +35188,7 @@
       <c r="B1406" t="inlineStr"/>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>[9.]</t>
+          <t>[0.17453293]</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr">
@@ -35186,7 +35206,7 @@
       <c r="B1407" t="inlineStr"/>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[-0.17453293]</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr">
@@ -35278,7 +35298,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>tune_rosco_ivc.flp_kp_norm</t>
+          <t>tune_rosco_ivc.dac_kp_norm</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr"/>
@@ -35296,7 +35316,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>tune_rosco_ivc.flp_tau</t>
+          <t>tune_rosco_ivc.dac_tau</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
@@ -50799,18 +50819,18 @@
   [[ 0.          0.          0.        ]]]
  ...
  [[[ 0.          0.          0.        ]]
-  [[ 0.0646428   0.1001559   0.08453631]]
-  [[ 0.1292856   0.20031179  0.16907263]]
+  [[ 0.09492323  0.11579979  0.1152312 ]]
+  [[ 0.18984647  0.23159959  0.2304624 ]]
   ...
-  [[-0.1292856  -0.20031179 -0.16907263]]
-  [[-0.0646428  -0.1001559  -0.08453631]]
+  [[-0.18984647 -0.23159959 -0.2304624 ]]
+  [[-0.09492323 -0.11579979 -0.1152312 ]]
   [[ 0.          0.          0.        ]]]
  [[[ 0.          0.          0.        ]]
-  [[ 0.1168486   0.10665333  0.09069508]]
-  [[ 0.2336972   0.21330666  0.18139016]]
+  [[ 0.09551385  0.1033368   0.1129884 ]]
+  [[ 0.1910277   0.2066736   0.2259768 ]]
   ...
-  [[-0.2336972  -0.21330666 -0.18139016]]
-  [[-0.1168486  -0.10665333 -0.09069508]]
+  [[-0.1910277  -0.2066736  -0.2259768 ]]
+  [[-0.09551385 -0.1033368  -0.1129884 ]]
   [[ 0.          0.          0.        ]]]
  [[[ 0.          0.          0.        ]]
   [[ 0.20244966  0.20244966  0.20244966]]
@@ -50858,20 +50878,20 @@
   [[0.34328947 0.34328947 0.34328947]]
   [[0.34328947 0.34328947 0.34328947]]]
  ...
- [[[0.11524771 0.15920291 0.19802924]]
-  [[0.1154285  0.1594353  0.19831109]]
-  [[0.11594555 0.16011029 0.1991453 ]]
+ [[[0.16618966 0.18052688 0.24367898]]
+  [[0.16648519 0.18083626 0.24411231]]
+  [[0.16730439 0.18171541 0.24531347]]
   ...
-  [[0.11594555 0.16011029 0.1991453 ]]
-  [[0.1154285  0.1594353  0.19831109]]
-  [[0.11524771 0.15920291 0.19802924]]]
- [[[0.11574139 0.16061717 0.20021618]]
-  [[0.11592295 0.16085163 0.20050114]]
-  [[0.11644222 0.16153261 0.20134456]]
+  [[0.16730439 0.18171541 0.24531347]]
+  [[0.16648519 0.18083626 0.24411231]]
+  [[0.16618966 0.18052688 0.24367898]]]
+ [[[0.16611716 0.20973775 0.25365742]]
+  [[0.16641256 0.21011072 0.2541085 ]]
+  [[0.1672314  0.21114458 0.25535885]]
   ...
-  [[0.11644222 0.16153261 0.20134456]]
-  [[0.11592295 0.16085163 0.20050114]]
-  [[0.11574139 0.16061717 0.20021618]]]
+  [[0.1672314  0.21114458 0.25535885]]
+  [[0.16641256 0.21011072 0.2541085 ]]
+  [[0.16611716 0.20973775 0.25365742]]]
  [[[0.001      0.001      0.001     ]]
   [[0.001      0.001      0.001     ]]
   [[0.001      0.001      0.001     ]]
@@ -50956,36 +50976,36 @@
       <c r="B2047" t="inlineStr"/>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>[[[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  0.  0. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  4.5 9. ]]
- [[0.  0.  0. ]]]</t>
+          <t>[[[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[ 0.          0.          0.        ]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[-0.17453293  0.          0.17453293]]
+ [[ 0.          0.          0.        ]]]</t>
         </is>
       </c>
       <c r="D2047" t="inlineStr">
@@ -51097,406 +51117,406 @@
       <c r="B2050" t="inlineStr"/>
       <c r="C2050" t="inlineStr">
         <is>
-          <t>[[[ 2.69782987e-03]
-  [ 4.09608945e-03]
-  [ 5.51073921e-03]
-  [ 6.94400024e-03]
-  [ 8.40799129e-03]
-  [ 9.92371742e-03]
-  [ 1.15186021e-02]
-  [ 1.32248984e-02]
-  [ 1.50694576e-02]
-  [ 1.70720326e-02]
-  [ 1.92639921e-02]
-  [ 2.16894746e-02]
-  [ 2.44383086e-02]
-  [ 2.79931843e-02]
-  [ 3.29967606e-02]
-  [ 3.72910320e-02]
-  [ 3.92544274e-02]
-  [ 3.92396937e-02]
-  [ 3.72964092e-02]
-  [ 3.36642431e-02]]
- [[ 5.37660355e-03]
-  [ 7.65788032e-03]
-  [ 1.00186283e-02]
-  [ 1.25021372e-02]
-  [ 1.51606809e-02]
-  [ 1.80446674e-02]
-  [ 2.11865056e-02]
-  [ 2.46285836e-02]
-  [ 2.84346091e-02]
-  [ 3.27229110e-02]
-  [ 3.82302133e-02]
-  [ 4.63651726e-02]
-  [ 5.32486787e-02]
-  [ 5.58624813e-02]
-  [ 5.51852120e-02]
-  [ 5.14612434e-02]
-  [ 4.53943405e-02]
-  [ 3.78029397e-02]
-  [ 2.93310811e-02]
-  [ 2.02808315e-02]]
- [[ 9.12711346e-03]
-  [ 1.28107499e-02]
-  [ 1.67681079e-02]
-  [ 2.10801712e-02]
-  [ 2.57966437e-02]
-  [ 3.09759507e-02]
-  [ 3.67109995e-02]
-  [ 4.32210144e-02]
-  [ 5.17407601e-02]
-  [ 6.41045499e-02]
-  [ 7.30992584e-02]
-  [ 7.52731712e-02]
-  [ 7.23731772e-02]
-  [ 6.55353051e-02]
-  [ 5.59844045e-02]
-  [ 4.47488592e-02]
-  [ 3.25702042e-02]
-  [ 1.97244434e-02]
-  [ 6.27489069e-03]
-  [-7.83449439e-03]]
- [[ 1.43046467e-02]
-  [ 2.01735414e-02]
-  [ 2.66040149e-02]
-  [ 3.36594550e-02]
-  [ 4.14464984e-02]
-  [ 5.00776101e-02]
-  [ 6.03890451e-02]
-  [ 7.52337533e-02]
-  [ 9.14301616e-02]
-  [ 9.65792218e-02]
-  [ 9.36671987e-02]
-  [ 8.53112335e-02]
-  [ 7.31567691e-02]
-  [ 5.84965983e-02]
-  [ 4.24246619e-02]
-  [ 2.54736594e-02]
-  [ 7.73478216e-03]
-  [-1.08954198e-02]
-  [-3.04922711e-02]
-  [-4.99768271e-02]]
- [[ 2.13266869e-02]
-  [ 3.02700032e-02]
-  [ 4.00961799e-02]
-  [ 5.08765152e-02]
-  [ 6.23561018e-02]
-  [ 7.68925847e-02]
-  [ 9.84400552e-02]
-  [ 1.16429784e-01]
-  [ 1.18371572e-01]
-  [ 1.11494432e-01]
-  [ 9.87263752e-02]
-  [ 8.17776476e-02]
-  [ 6.21224438e-02]
-  [ 4.10059698e-02]
-  [ 1.88606822e-02]
-  [-4.39036421e-03]
-  [-2.89759675e-02]
-  [-5.48055375e-02]
-  [-7.98480090e-02]
-  [-1.01455721e-01]]
- [[ 3.03979914e-02]
-  [ 4.33001457e-02]
-  [ 5.68777339e-02]
-  [ 7.08171248e-02]
-  [ 8.96554088e-02]
-  [ 1.17260838e-01]
-  [ 1.39084981e-01]
-  [ 1.40282947e-01]
-  [ 1.31047256e-01]
-  [ 1.14828644e-01]
-  [ 9.35447646e-02]
-  [ 6.89677441e-02]
-  [ 4.25957386e-02]
-  [ 1.48707989e-02]
-  [-1.44157689e-02]
-  [-4.55597472e-02]
-  [-7.84046724e-02]
-  [-1.10315672e-01]
-  [-1.37681224e-01]
-  [-1.58950746e-01]]
- [[ 4.12296373e-02]
-  [ 5.72069631e-02]
-  [ 7.33158507e-02]
-  [ 9.58552933e-02]
-  [ 1.28622183e-01]
-  [ 1.58107094e-01]
-  [ 1.62611086e-01]
-  [ 1.53000673e-01]
-  [ 1.34671487e-01]
-  [ 1.09876750e-01]
-  [ 8.07061650e-02]
-  [ 4.90156459e-02]
-  [ 1.54773766e-02]
-  [-2.01714835e-02]
-  [-5.82655412e-02]
-  [-9.87816592e-02]
-  [-1.39115055e-01]
-  [-1.74159583e-01]
-  [-2.05088809e-01]
-  [-1.99867637e-01]]
- [[ 5.00591070e-02]
-  [ 6.80982507e-02]
-  [ 9.28471298e-02]
-  [ 1.30423146e-01]
-  [ 1.69104821e-01]
-  [ 1.83703238e-01]
-  [ 1.76680469e-01]
-  [ 1.58289656e-01]
-  [ 1.31432977e-01]
-  [ 9.85012163e-02]
-  [ 6.17586996e-02]
-  [ 2.24117978e-02]
-  [-1.96825800e-02]
-  [-6.48857476e-02]
-  [-1.13360696e-01]
-  [-1.63263748e-01]
-  [-2.08611141e-01]
-  [-2.48252137e-01]
-  [-2.61826550e-01]
-  [-2.47397889e-01]]
- [[ 5.36487763e-02]
-  [ 7.84503644e-02]
-  [ 1.20651868e-01]
-  [ 1.66841750e-01]
-  [ 1.98581430e-01]
-  [ 1.99902320e-01]
-  [ 1.84461733e-01]
-  [ 1.57845548e-01]
-  [ 1.22769487e-01]
-  [ 8.18487669e-02]
-  [ 3.70433157e-02]
-  [-1.12920344e-02]
-  [-6.35003410e-02]
-  [-1.19836554e-01]
-  [-1.79536232e-01]
-  [-2.37446165e-01]
-  [-2.87190009e-01]
-  [-3.29897987e-01]
-  [-3.15822917e-01]
-  [-3.09288655e-01]]
- [[ 5.19808351e-02]
-  [ 9.55652242e-02]
-  [ 1.50280059e-01]
-  [ 1.97349372e-01]
-  [ 2.18150503e-01]
-  [ 2.10374358e-01]
-  [ 1.87379707e-01]
-  [ 1.52806096e-01]
-  [ 1.09528561e-01]
-  [ 6.02324334e-02]
-  [ 6.21601184e-03]
-  [-5.25789441e-02]
-  [-1.16420405e-01]
-  [-1.85254164e-01]
-  [-2.56095112e-01]
-  [-3.20527388e-01]
-  [-3.78053973e-01]
-  [-4.02039985e-01]
-  [-3.84837682e-01]
-  [-3.81158263e-01]]
- [[ 5.19841147e-02]
-  [ 1.16642019e-01]
-  [ 1.74453161e-01]
-  [ 2.20772231e-01]
-  [ 2.31177897e-01]
-  [ 2.16564925e-01]
-  [ 1.86368898e-01]
-  [ 1.43823603e-01]
-  [ 9.20418625e-02]
-  [ 3.34687588e-02]
-  [-3.11005618e-02]
-  [-1.01803996e-01]
-  [-1.78756963e-01]
-  [-2.61075050e-01]
-  [-3.42523001e-01]
-  [-4.13836422e-01]
-  [-4.79375099e-01]
-  [-4.72295457e-01]
-  [-4.63604520e-01]
-  [-4.68400903e-01]]
- [[ 5.79359120e-02]
-  [ 1.33148653e-01]
-  [ 1.93510949e-01]
-  [ 2.37236725e-01]
-  [ 2.39794670e-01]
-  [ 2.19282161e-01]
-  [ 1.81975673e-01]
-  [ 1.31194911e-01]
-  [ 7.02749879e-02]
-  [ 1.29040552e-03]
-  [-7.51905120e-02]
-  [-1.59244831e-01]
-  [-2.50812327e-01]
-  [-3.47225587e-01]
-  [-4.38772046e-01]
-  [-5.19900972e-01]
-  [-5.80975361e-01]
-  [-5.62661360e-01]
-  [-5.59437874e-01]
-  [-5.68265507e-01]]
- [[ 6.38345288e-02]
-  [ 1.40651155e-01]
-  [ 2.08930557e-01]
-  [ 2.47858679e-01]
-  [ 2.45036888e-01]
-  [ 2.19019063e-01]
-  [ 1.74468325e-01]
-  [ 1.15019317e-01]
-  [ 4.40668598e-02]
-  [-3.65250954e-02]
-  [-1.26298252e-01]
-  [-2.25206662e-01]
-  [-3.32837127e-01]
-  [-4.43816915e-01]
-  [-5.45459223e-01]
-  [-6.39714410e-01]
-  [-6.84514091e-01]
-  [-6.69129471e-01]
-  [-6.71249917e-01]
-  [-6.80910815e-01]]
- [[ 6.35471364e-02]
-  [ 1.41296106e-01]
-  [ 2.19937569e-01]
-  [ 2.53959382e-01]
-  [ 2.47425252e-01]
-  [ 2.16038498e-01]
-  [ 1.63963604e-01]
-  [ 9.52559593e-02]
-  [ 1.32710588e-02]
-  [-8.01827725e-02]
-  [-1.84681890e-01]
-  [-3.00075873e-01]
-  [-4.25084617e-01]
-  [-5.51013588e-01]
-  [-6.63932434e-01]
-  [-7.71570955e-01]
-  [-7.88486843e-01]
-  [-7.84700173e-01]
-  [-7.96482273e-01]
-  [-8.07052795e-01]]
- [[ 5.13753819e-02]
-  [ 1.37935356e-01]
-  [ 2.25841397e-01]
-  [ 2.56497898e-01]
-  [ 2.47224446e-01]
-  [ 2.10470657e-01]
-  [ 1.50507675e-01]
-  [ 7.18120460e-02]
-  [-2.22580970e-02]
-  [-1.29899948e-01]
-  [-2.50648088e-01]
-  [-3.84267895e-01]
-  [-5.27835011e-01]
-  [-6.68916955e-01]
-  [-7.96278154e-01]
-  [-9.11802958e-01]
-  [-9.16490249e-01]
-  [-9.19441391e-01]
-  [-9.35377060e-01]
-  [-9.47587427e-01]]
- [[ 2.77768324e-02]
-  [ 1.31606047e-01]
-  [ 2.26618418e-01]
-  [ 2.55981829e-01]
-  [ 2.44575406e-01]
-  [ 2.02378344e-01]
-  [ 1.34110486e-01]
-  [ 4.45921744e-02]
-  [-6.26893017e-02]
-  [-1.85925568e-01]
-  [-3.24544130e-01]
-  [-4.78145033e-01]
-  [-6.41230527e-01]
-  [-7.98262158e-01]
-  [-9.44085502e-01]
-  [-1.05954502e+00]
-  [-1.05546371e+00]
-  [-1.07162874e+00]
-  [-1.08910420e+00]
-  [-1.10324283e+00]]
- [[-4.48198130e-03]
-  [ 1.21647631e-01]
-  [ 2.22604521e-01]
-  [ 2.52649277e-01]
-  [ 2.39550275e-01]
-  [ 1.91792973e-01]
-  [ 1.14729568e-01]
-  [ 1.34830695e-02]
-  [-1.08215938e-01]
-  [-2.48525633e-01]
-  [-4.06745643e-01]
-  [-5.81925640e-01]
-  [-7.65658706e-01]
-  [-9.40212909e-01]
-  [-1.10790036e+00]
-  [-1.22304098e+00]
-  [-1.21931695e+00]
-  [-1.24028181e+00]
-  [-1.25851412e+00]
-  [-1.27470785e+00]]
- [[-4.20729621e-02]
-  [ 1.07414545e-01]
-  [ 2.14057196e-01]
-  [ 2.46608039e-01]
-  [ 2.32185571e-01]
-  [ 1.78724058e-01]
-  [ 9.22878608e-02]
-  [-2.16469907e-02]
-  [-1.59053433e-01]
-  [-3.17986327e-01]
-  [-4.97591502e-01]
-  [-6.95743416e-01]
-  [-9.01895067e-01]
-  [-1.09616203e+00]
-  [-1.28699323e+00]
-  [-1.39192055e+00]
-  [-1.40692126e+00]
-  [-1.42534119e+00]
-  [-1.44425200e+00]
-  [-1.46284984e+00]]
- [[-8.29860494e-02]
-  [ 8.78213958e-02]
-  [ 2.01383015e-01]
-  [ 2.37878228e-01]
-  [ 2.22494845e-01]
-  [ 1.63152754e-01]
-  [ 6.66962113e-02]
-  [-6.09516043e-02]
-  [-2.15422366e-01]
-  [-3.94604290e-01]
-  [-5.97282700e-01]
-  [-8.20168143e-01]
-  [-1.05060507e+00]
-  [-1.26740942e+00]
-  [-1.47991752e+00]
-  [-1.57663613e+00]
-  [-1.60622625e+00]
-  [-1.62708936e+00]
-  [-1.64709918e+00]
-  [-1.66862468e+00]]
- [[-1.24175170e-01]
-  [ 6.28469597e-02]
-  [ 1.84691133e-01]
-  [ 2.26464786e-01]
-  [ 2.10465764e-01]
-  [ 1.45035378e-01]
-  [ 3.78525416e-02]
-  [-1.04597313e-01]
-  [-2.77547785e-01]
-  [-4.78625416e-01]
-  [-7.05982890e-01]
-  [-9.55875239e-01]
-  [-1.21268885e+00]
-  [-1.45453850e+00]
-  [-1.68615169e+00]
-  [-1.78598620e+00]
-  [-1.81891621e+00]
-  [-1.84620764e+00]
-  [-1.86792399e+00]
-  [-1.89298324e+00]]]</t>
+          <t>[[[ 1.80013322e-02]
+  [ 2.09431125e-02]
+  [ 2.39956197e-02]
+  [ 2.71597796e-02]
+  [ 3.04364859e-02]
+  [ 3.38318697e-02]
+  [ 3.74271255e-02]
+  [ 4.13581943e-02]
+  [ 4.54977940e-02]
+  [ 4.97437673e-02]
+  [ 5.40293897e-02]
+  [ 5.79877928e-02]
+  [ 6.10527316e-02]
+  [ 6.27006425e-02]
+  [ 6.25505908e-02]
+  [ 6.05847279e-02]
+  [ 5.71137597e-02]
+  [ 5.25150666e-02]
+  [ 4.70693020e-02]
+  [ 4.09571429e-02]]
+ [[ 3.58061494e-02]
+  [ 4.07996484e-02]
+  [ 4.59747889e-02]
+  [ 5.14729026e-02]
+  [ 5.76470945e-02]
+  [ 6.42456084e-02]
+  [ 7.11274085e-02]
+  [ 7.80527125e-02]
+  [ 8.41957581e-02]
+  [ 8.86323119e-02]
+  [ 9.06196484e-02]
+  [ 8.96588607e-02]
+  [ 8.59335451e-02]
+  [ 8.01504021e-02]
+  [ 7.29073051e-02]
+  [ 6.45509025e-02]
+  [ 5.53223331e-02]
+  [ 4.54128248e-02]
+  [ 3.49716158e-02]
+  [ 2.40828656e-02]]
+ [[ 6.04315339e-02]
+  [ 6.85173125e-02]
+  [ 7.77958655e-02]
+  [ 8.78343109e-02]
+  [ 9.84210490e-02]
+  [ 1.08650333e-01]
+  [ 1.17047648e-01]
+  [ 1.22339119e-01]
+  [ 1.23606525e-01]
+  [ 1.20488621e-01]
+  [ 1.13866681e-01]
+  [ 1.04828855e-01]
+  [ 9.39998415e-02]
+  [ 8.18058110e-02]
+  [ 6.85564720e-02]
+  [ 5.44781469e-02]
+  [ 3.97297571e-02]
+  [ 2.44020243e-02]
+  [ 8.54716253e-03]
+  [-7.83867475e-03]]
+ [[ 9.35309310e-02]
+  [ 1.07603005e-01]
+  [ 1.22782422e-01]
+  [ 1.37710057e-01]
+  [ 1.50237270e-01]
+  [ 1.58467924e-01]
+  [ 1.61125503e-01]
+  [ 1.57846006e-01]
+  [ 1.49723441e-01]
+  [ 1.38198075e-01]
+  [ 1.24201363e-01]
+  [ 1.08318240e-01]
+  [ 9.09856331e-02]
+  [ 7.24812286e-02]
+  [ 5.30348672e-02]
+  [ 3.28055575e-02]
+  [ 1.18596408e-02]
+  [-9.83512945e-03]
+  [-3.23205809e-02]
+  [-5.49166808e-02]]
+ [[ 1.38569425e-01]
+  [ 1.59639942e-01]
+  [ 1.78863714e-01]
+  [ 1.93341079e-01]
+  [ 2.00875622e-01]
+  [ 2.00845363e-01]
+  [ 1.93900512e-01]
+  [ 1.81614690e-01]
+  [ 1.65606568e-01]
+  [ 1.46792578e-01]
+  [ 1.25789786e-01]
+  [ 1.03033239e-01]
+  [ 7.88315556e-02]
+  [ 5.35048756e-02]
+  [ 2.72140726e-02]
+  [-6.71376234e-05]
+  [-2.84739386e-02]
+  [-5.79508612e-02]
+  [-8.71009599e-02]
+  [-1.13334725e-01]]
+ [[ 1.94994409e-01]
+  [ 2.19149693e-01]
+  [ 2.36070323e-01]
+  [ 2.43752449e-01]
+  [ 2.42577572e-01]
+  [ 2.33283741e-01]
+  [ 2.17731282e-01]
+  [ 1.97807085e-01]
+  [ 1.74470317e-01]
+  [ 1.48382587e-01]
+  [ 1.20045297e-01]
+  [ 8.98801151e-02]
+  [ 5.83074132e-02]
+  [ 2.54617686e-02]
+  [-8.78663561e-03]
+  [-4.46349868e-02]
+  [-8.19737738e-02]
+  [-1.18913346e-01]
+  [-1.51979726e-01]
+  [-1.79080339e-01]]
+ [[ 2.55439296e-01]
+  [ 2.76133930e-01]
+  [ 2.86077375e-01]
+  [ 2.85833331e-01]
+  [ 2.75993185e-01]
+  [ 2.58507689e-01]
+  [ 2.35593665e-01]
+  [ 2.08366975e-01]
+  [ 1.77552138e-01]
+  [ 1.43793747e-01]
+  [ 1.07648022e-01]
+  [ 6.96249041e-02]
+  [ 2.98841359e-02]
+  [-1.17768272e-02]
+  [-5.55932516e-02]
+  [-1.01540194e-01]
+  [-1.47689057e-01]
+  [-1.89742564e-01]
+  [-2.24393801e-01]
+  [-2.51733115e-01]]
+ [[ 3.10088359e-01]
+  [ 3.24972558e-01]
+  [ 3.28363689e-01]
+  [ 3.20528770e-01]
+  [ 3.03148639e-01]
+  [ 2.78756098e-01]
+  [ 2.48818170e-01]
+  [ 2.14142325e-01]
+  [ 1.75541372e-01]
+  [ 1.33728463e-01]
+  [ 8.93068411e-02]
+  [ 4.25634834e-02]
+  [-6.71273580e-03]
+  [-5.87865198e-02]
+  [-1.13763258e-01]
+  [-1.70241742e-01]
+  [-2.23612229e-01]
+  [-2.68627983e-01]
+  [-3.04541349e-01]
+  [-3.32805052e-01]]
+ [[ 3.55220819e-01]
+  [ 3.65799390e-01]
+  [ 3.63473805e-01]
+  [ 3.49293036e-01]
+  [ 3.25820627e-01]
+  [ 2.95092833e-01]
+  [ 2.58104643e-01]
+  [ 2.15811179e-01]
+  [ 1.69117749e-01]
+  [ 1.18755437e-01]
+  [ 6.52108380e-02]
+  [ 8.40487176e-03]
+  [-5.19417972e-02]
+  [-1.16009354e-01]
+  [-1.83209259e-01]
+  [-2.49597613e-01]
+  [-3.08315296e-01]
+  [-3.55996701e-01]
+  [-3.93747911e-01]
+  [-4.25022004e-01]]
+ [[ 3.90557078e-01]
+  [ 3.98733337e-01]
+  [ 3.92339076e-01]
+  [ 3.73548295e-01]
+  [ 3.44978471e-01]
+  [ 3.08138675e-01]
+  [ 2.64104911e-01]
+  [ 2.13983220e-01]
+  [ 1.58722142e-01]
+  [ 9.90261917e-02]
+  [ 3.51253606e-02]
+  [-3.31921871e-02]
+  [-1.06138467e-01]
+  [-1.83650967e-01]
+  [-2.63431968e-01]
+  [-3.38691239e-01]
+  [-4.02052668e-01]
+  [-4.52823072e-01]
+  [-4.94144579e-01]
+  [-5.30681414e-01]]
+ [[ 4.15427838e-01]
+  [ 4.24120419e-01]
+  [ 4.15980581e-01]
+  [ 3.94187770e-01]
+  [ 3.61209627e-01]
+  [ 3.18484630e-01]
+  [ 2.67339979e-01]
+  [ 2.09019205e-01]
+  [ 1.44500254e-01]
+  [ 7.44035896e-02]
+  [-1.19653513e-03]
+  [-8.24823034e-02]
+  [-1.69534282e-01]
+  [-2.61699764e-01]
+  [-3.54100638e-01]
+  [-4.37349452e-01]
+  [-5.05663918e-01]
+  [-5.60502231e-01]
+  [-6.08053268e-01]
+  [-6.51335663e-01]]
+ [[ 4.29293870e-01]
+  [ 4.42339024e-01]
+  [ 4.35123712e-01]
+  [ 4.11772947e-01]
+  [ 3.74993523e-01]
+  [ 3.26572375e-01]
+  [ 2.68133445e-01]
+  [ 2.01061041e-01]
+  [ 1.26405644e-01]
+  [ 4.47165986e-02]
+  [-4.39390605e-02]
+  [-1.39662096e-01]
+  [-2.42399803e-01]
+  [-3.50160680e-01]
+  [-4.55132974e-01]
+  [-5.46059467e-01]
+  [-6.19975321e-01]
+  [-6.81223351e-01]
+  [-7.37147981e-01]
+  [-7.88030977e-01]]
+ [[ 4.33612924e-01]
+  [ 4.53551881e-01]
+  [ 4.50192781e-01]
+  [ 4.26667461e-01]
+  [ 3.86691175e-01]
+  [ 3.32688952e-01]
+  [ 2.66632993e-01]
+  [ 1.90138771e-01]
+  [ 1.04341286e-01]
+  [ 9.83965866e-03]
+  [-9.32670644e-02]
+  [-2.04969188e-01]
+  [-3.24998574e-01]
+  [-4.49206156e-01]
+  [-5.66530532e-01]
+  [-6.65568650e-01]
+  [-7.46514907e-01]
+  [-8.16837428e-01]
+  [-8.82508904e-01]
+  [-9.41525566e-01]]
+ [[ 4.29660642e-01]
+  [ 4.57769740e-01]
+  [ 4.61316734e-01]
+  [ 4.39094526e-01]
+  [ 3.96544746e-01]
+  [ 3.36984448e-01]
+  [ 2.62896281e-01]
+  [ 1.76219305e-01]
+  [ 7.82342011e-02]
+  [-3.03484673e-02]
+  [-1.49369640e-01]
+  [-2.78732774e-01]
+  [-4.17600457e-01]
+  [-5.59021772e-01]
+  [-6.88580344e-01]
+  [-7.97056034e-01]
+  [-8.86905411e-01]
+  [-9.68640612e-01]
+  [-1.04469693e+00]
+  [-1.11287631e+00]]
+ [[ 4.18881882e-01]
+  [ 4.55389146e-01]
+  [ 4.68409897e-01]
+  [ 4.49179458e-01]
+  [ 4.04677101e-01]
+  [ 3.39532335e-01]
+  [ 2.56949823e-01]
+  [ 1.59267179e-01]
+  [ 4.80099463e-02]
+  [-7.59947299e-02]
+  [-2.12492073e-01]
+  [-3.61337299e-01]
+  [-5.20483793e-01]
+  [-6.79658663e-01]
+  [-8.22284806e-01]
+  [-9.41573680e-01]
+  [-1.04268185e+00]
+  [-1.13713531e+00]
+  [-1.22452522e+00]
+  [-1.30342285e+00]]
+ [[ 4.04003472e-01]
+  [ 4.46123274e-01]
+  [ 4.71177769e-01]
+  [ 4.56932302e-01]
+  [ 4.11140244e-01]
+  [ 3.40371951e-01]
+  [ 2.48803114e-01]
+  [ 1.39248976e-01]
+  [ 1.35686342e-02]
+  [-1.27284687e-01]
+  [-2.82925805e-01]
+  [-4.53135689e-01]
+  [-6.33784445e-01]
+  [-8.11663890e-01]
+  [-9.68650359e-01]
+  [-1.10032045e+00]
+  [-1.21461733e+00]
+  [-1.32306526e+00]
+  [-1.42317650e+00]
+  [-1.51426551e+00]]
+ [[ 3.85937742e-01]
+  [ 4.32307227e-01]
+  [ 4.69004618e-01]
+  [ 4.62272576e-01]
+  [ 4.15947959e-01]
+  [ 3.39531830e-01]
+  [ 2.38448076e-01]
+  [ 1.16112192e-01]
+  [-2.52162403e-02]
+  [-1.84425633e-01]
+  [-3.60994604e-01]
+  [-5.54333244e-01]
+  [-7.57879852e-01]
+  [-9.55765570e-01]
+  [-1.12875867e+00]
+  [-1.27398331e+00]
+  [-1.40347583e+00]
+  [-1.52765090e+00]
+  [-1.64156614e+00]
+  [-1.74644025e+00]]
+ [[ 3.65000767e-01]
+  [ 4.16423221e-01]
+  [ 4.61121510e-01]
+  [ 4.65035411e-01]
+  [ 4.19095319e-01]
+  [ 3.37031567e-01]
+  [ 2.25860606e-01]
+  [ 8.97838112e-02]
+  [-6.84987346e-02]
+  [-2.47648518e-01]
+  [-4.46988304e-01]
+  [-6.65036619e-01]
+  [-8.93511242e-01]
+  [-1.11282089e+00]
+  [-1.30321961e+00]
+  [-1.46321425e+00]
+  [-1.61047495e+00]
+  [-1.75178923e+00]
+  [-1.88046101e+00]
+  [-2.00112851e+00]]
+ [[ 3.41341989e-01]
+  [ 3.98682017e-01]
+  [ 4.48799189e-01]
+  [ 4.64958719e-01]
+  [ 4.20561472e-01]
+  [ 3.32865663e-01]
+  [ 2.11004660e-01]
+  [ 6.01671269e-02]
+  [-1.16442360e-01]
+  [-3.17197311e-01]
+  [-5.41063197e-01]
+  [-7.85784998e-01]
+  [-1.04129952e+00]
+  [-1.28366578e+00]
+  [-1.49221734e+00]
+  [-1.66924100e+00]
+  [-1.83654209e+00]
+  [-1.99610030e+00]
+  [-2.14085271e+00]
+  [-2.27953043e+00]]
+ [[ 3.15258647e-01]
+  [ 3.79482192e-01]
+  [ 4.33872391e-01]
+  [ 4.61650293e-01]
+  [ 4.20298462e-01]
+  [ 3.27008717e-01]
+  [ 1.93829929e-01]
+  [ 2.71507954e-02]
+  [-1.69217497e-01]
+  [-3.93267109e-01]
+  [-6.43353877e-01]
+  [-9.17223754e-01]
+  [-1.20210079e+00]
+  [-1.46850718e+00]
+  [-1.69641321e+00]
+  [-1.89325077e+00]
+  [-2.08223891e+00]
+  [-2.26136969e+00]
+  [-2.42388081e+00]
+  [-2.58279986e+00]]]</t>
         </is>
       </c>
       <c r="D2050" t="inlineStr">
@@ -51514,406 +51534,406 @@
       <c r="B2051" t="inlineStr"/>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>[[[ 4.06906650e-02]
-  [ 4.07329754e-02]
-  [ 4.07694167e-02]
-  [ 4.08088718e-02]
-  [ 4.08707508e-02]
-  [ 4.09845223e-02]
-  [ 4.11865027e-02]
-  [ 4.15185231e-02]
-  [ 4.20172933e-02]
-  [ 4.27130433e-02]
-  [ 4.36486988e-02]
-  [ 4.48786786e-02]
-  [ 4.64906665e-02]
-  [ 4.87022003e-02]
-  [ 5.13868853e-02]
-  [ 5.29893007e-02]
-  [ 5.26249125e-02]
-  [ 5.04969637e-02]
-  [ 4.67509556e-02]
-  [ 4.16779727e-02]]
- [[ 5.14413179e-02]
-  [ 5.18648542e-02]
-  [ 5.23747714e-02]
-  [ 5.30273849e-02]
-  [ 5.38891879e-02]
-  [ 5.50258801e-02]
-  [ 5.64848167e-02]
-  [ 5.83245753e-02]
-  [ 6.06281577e-02]
-  [ 6.35038260e-02]
-  [ 6.72173128e-02]
-  [ 7.16769606e-02]
-  [ 7.42224984e-02]
-  [ 7.33383439e-02]
-  [ 6.96435007e-02]
-  [ 6.35133874e-02]
-  [ 5.55076655e-02]
-  [ 4.63622220e-02]
-  [ 3.67208849e-02]
-  [ 2.68979594e-02]]
- [[ 6.61588476e-02]
-  [ 6.74272722e-02]
-  [ 6.90354851e-02]
-  [ 7.10881491e-02]
-  [ 7.36583554e-02]
-  [ 7.68298185e-02]
-  [ 8.07270758e-02]
-  [ 8.54785242e-02]
-  [ 9.11814667e-02]
-  [ 9.73726150e-02]
-  [ 9.97919446e-02]
-  [ 9.70265842e-02]
-  [ 9.02842425e-02]
-  [ 8.03320453e-02]
-  [ 6.82047505e-02]
-  [ 5.49567190e-02]
-  [ 4.13516111e-02]
-  [ 2.76830157e-02]
-  [ 1.40232034e-02]
-  [ 3.22475167e-04]]
- [[ 8.57999218e-02]
-  [ 8.86974116e-02]
-  [ 9.23286447e-02]
-  [ 9.67955635e-02]
-  [ 1.02251978e-01]
-  [ 1.08817852e-01]
-  [ 1.16086733e-01]
-  [ 1.23925661e-01]
-  [ 1.29288300e-01]
-  [ 1.26846302e-01]
-  [ 1.18464674e-01]
-  [ 1.05545789e-01]
-  [ 8.95519133e-02]
-  [ 7.18617244e-02]
-  [ 5.36208341e-02]
-  [ 3.53995674e-02]
-  [ 1.73129259e-02]
-  [-7.39949836e-04]
-  [-1.88380188e-02]
-  [-3.59163079e-02]]
- [[ 1.11546480e-01]
-  [ 1.17061354e-01]
-  [ 1.23816271e-01]
-  [ 1.31970080e-01]
-  [ 1.40961297e-01]
-  [ 1.49977131e-01]
-  [ 1.59025569e-01]
-  [ 1.62415501e-01]
-  [ 1.55617461e-01]
-  [ 1.41787326e-01]
-  [ 1.22984027e-01]
-  [ 1.01057241e-01]
-  [ 7.76255204e-02]
-  [ 5.40251724e-02]
-  [ 3.07290527e-02]
-  [ 7.65955759e-03]
-  [-1.54251110e-02]
-  [-3.84305183e-02]
-  [-5.93606898e-02]
-  [-7.58717341e-02]]
- [[ 1.44611793e-01]
-  [ 1.53927835e-01]
-  [ 1.64596174e-01]
-  [ 1.75520050e-01]
-  [ 1.85951965e-01]
-  [ 1.95690786e-01]
-  [ 1.98544954e-01]
-  [ 1.88463860e-01]
-  [ 1.69805413e-01]
-  [ 1.45367883e-01]
-  [ 1.17359506e-01]
-  [ 8.78024420e-02]
-  [ 5.83221146e-02]
-  [ 2.93560924e-02]
-  [ 6.73522226e-04]
-  [-2.80377894e-02]
-  [-5.65992892e-02]
-  [-8.24337281e-02]
-  [-1.02376720e-01]
-  [-1.12385357e-01]]
- [[ 1.86211375e-01]
-  [ 1.98905849e-01]
-  [ 2.11717220e-01]
-  [ 2.23499368e-01]
-  [ 2.33804452e-01]
-  [ 2.38315962e-01]
-  [ 2.26930655e-01]
-  [ 2.04395698e-01]
-  [ 1.74705082e-01]
-  [ 1.40588627e-01]
-  [ 1.04523359e-01]
-  [ 6.85242133e-02]
-  [ 3.32138381e-02]
-  [-1.71737666e-03]
-  [-3.66115726e-02]
-  [-7.14208976e-02]
-  [-1.03586168e-01]
-  [-1.28498916e-01]
-  [-1.47387298e-01]
-  [-1.05548584e-01]]
- [[ 2.34248655e-01]
-  [ 2.48850334e-01]
-  [ 2.62359753e-01]
-  [ 2.73301742e-01]
-  [ 2.80654106e-01]
-  [ 2.71488463e-01]
-  [ 2.46626668e-01]
-  [ 2.12508049e-01]
-  [ 1.72569749e-01]
-  [ 1.29761774e-01]
-  [ 8.66003345e-02]
-  [ 4.42196391e-02]
-  [ 2.39281234e-03]
-  [-3.92515506e-02]
-  [-8.08627975e-02]
-  [-1.20601611e-01]
-  [-1.52930357e-01]
-  [-1.77730056e-01]
-  [-1.51142769e-01]
-  [-1.08122123e-01]]
- [[ 2.86210826e-01]
-  [ 3.01945597e-01]
-  [ 3.14273777e-01]
-  [ 3.23602713e-01]
-  [ 3.20933124e-01]
-  [ 2.96698132e-01]
-  [ 2.59651264e-01]
-  [ 2.14679745e-01]
-  [ 1.65278538e-01]
-  [ 1.14496399e-01]
-  [ 6.43009565e-02]
-  [ 1.48892760e-02]
-  [-3.41205800e-02]
-  [-8.29865544e-02]
-  [-1.30934723e-01]
-  [-1.73103908e-01]
-  [-2.04270328e-01]
-  [-2.23386785e-01]
-  [-1.46331715e-01]
-  [-1.22380887e-01]]
- [[ 3.41010020e-01]
-  [ 3.56294849e-01]
-  [ 3.66833726e-01]
-  [ 3.71350319e-01]
-  [ 3.53588379e-01]
-  [ 3.16126989e-01]
-  [ 2.67640474e-01]
-  [ 2.12414250e-01]
-  [ 1.54021229e-01]
-  [ 9.54013795e-02]
-  [ 3.76584094e-02]
-  [-1.93972240e-02]
-  [-7.60672829e-02]
-  [-1.32315513e-01]
-  [-1.85270122e-01]
-  [-2.27408485e-01]
-  [-2.59604009e-01]
-  [-2.16171079e-01]
-  [-1.54157962e-01]
-  [-1.40249546e-01]]
- [[ 3.97450338e-01]
-  [ 4.11008756e-01]
-  [ 4.19188132e-01]
-  [ 4.13509999e-01]
-  [ 3.80729706e-01]
-  [ 3.31255118e-01]
-  [ 2.71807689e-01]
-  [ 2.06609801e-01]
-  [ 1.39389769e-01]
-  [ 7.26054876e-02]
-  [ 6.75598172e-03]
-  [-5.84109352e-02]
-  [-1.23067032e-01]
-  [-1.86385057e-01]
-  [-2.42610078e-01]
-  [-2.84160472e-01]
-  [-3.15539106e-01]
-  [-2.07554888e-01]
-  [-1.66798878e-01]
-  [-1.65838000e-01]]
- [[ 4.54269562e-01]
-  [ 4.65578321e-01]
-  [ 4.69408876e-01]
-  [ 4.50174653e-01]
-  [ 4.04060005e-01]
-  [ 3.43093234e-01]
-  [ 2.72876550e-01]
-  [ 1.97777049e-01]
-  [ 1.21621036e-01]
-  [ 4.62076092e-02]
-  [-2.82159840e-02]
-  [-1.01855672e-01]
-  [-1.74746684e-01]
-  [-2.44406383e-01]
-  [-3.02245681e-01]
-  [-3.44837670e-01]
-  [-3.46777081e-01]
-  [-2.20624672e-01]
-  [-1.92669560e-01]
-  [-1.93640328e-01]]
- [[ 5.10679602e-01]
-  [ 5.19377710e-01]
-  [ 5.16171029e-01]
-  [ 4.82788474e-01]
-  [ 4.24535402e-01]
-  [ 3.52265158e-01]
-  [ 2.71280996e-01]
-  [ 1.86264564e-01]
-  [ 1.00839153e-01]
-  [ 1.63625671e-02]
-  [-6.70360776e-02]
-  [-1.49481074e-01]
-  [-2.30706249e-01]
-  [-3.05828470e-01]
-  [-3.64169082e-01]
-  [-4.09418031e-01]
-  [-3.21628310e-01]
-  [-2.29725689e-01]
-  [-2.23288926e-01]
-  [-2.23248563e-01]]
- [[ 5.66556632e-01]
-  [ 5.71674817e-01]
-  [ 5.59384042e-01]
-  [ 5.12531128e-01]
-  [ 4.42717287e-01]
-  [ 3.59162767e-01]
-  [ 2.67336675e-01]
-  [ 1.72272598e-01]
-  [ 7.71871259e-02]
-  [-1.67634751e-02]
-  [-1.09509740e-01]
-  [-2.01129544e-01]
-  [-2.90581514e-01]
-  [-3.70193430e-01]
-  [-4.28960571e-01]
-  [-4.76037877e-01]
-  [-3.10389384e-01]
-  [-2.54145619e-01]
-  [-2.55614117e-01]
-  [-2.54590256e-01]]
- [[ 6.21664431e-01]
-  [ 6.21863051e-01]
-  [ 5.99428087e-01]
-  [ 5.40132582e-01]
-  [ 4.58974439e-01]
-  [ 3.64070920e-01]
-  [ 2.61299301e-01]
-  [ 1.55932405e-01]
-  [ 5.08063297e-02]
-  [-5.30254402e-02]
-  [-1.55500596e-01]
-  [-2.56679398e-01]
-  [-3.54059583e-01]
-  [-4.37031920e-01]
-  [-4.97783066e-01]
-  [-5.37859047e-01]
-  [-3.35892413e-01]
-  [-2.87294215e-01]
-  [-2.89402467e-01]
-  [-2.87702330e-01]]
- [[ 6.75216096e-01]
-  [ 6.70043833e-01]
-  [ 6.36786331e-01]
-  [ 5.66016554e-01]
-  [ 4.73573357e-01]
-  [ 3.67218557e-01]
-  [ 2.53379730e-01]
-  [ 1.37368383e-01]
-  [ 2.18105615e-02]
-  [-9.23174766e-02]
-  [-2.04918369e-01]
-  [-3.15968313e-01]
-  [-4.20733397e-01]
-  [-5.06489366e-01]
-  [-5.71304910e-01]
-  [-5.66358181e-01]
-  [-3.52981395e-01]
-  [-3.23803037e-01]
-  [-3.25002754e-01]
-  [-3.22423241e-01]]
- [[ 7.26463481e-01]
-  [ 7.16024967e-01]
-  [ 6.71911566e-01]
-  [ 5.90444443e-01]
-  [ 4.86725260e-01]
-  [ 3.68800562e-01]
-  [ 2.43715393e-01]
-  [ 1.16682988e-01]
-  [-9.71481320e-03]
-  [-1.34554556e-01]
-  [-2.57707651e-01]
-  [-3.78715047e-01]
-  [-4.90450599e-01]
-  [-5.79051002e-01]
-  [-6.49486426e-01]
-  [-5.37790882e-01]
-  [-3.80394735e-01]
-  [-3.62856279e-01]
-  [-3.62431075e-01]
-  [-3.58556412e-01]]
- [[ 7.76425634e-01]
-  [ 7.59607570e-01]
-  [ 7.05151886e-01]
-  [ 6.13599540e-01]
-  [ 4.98606800e-01]
-  [ 3.68984477e-01]
-  [ 2.32396975e-01]
-  [ 9.39569802e-02]
-  [-4.37097203e-02]
-  [-1.79677435e-01]
-  [-3.13783809e-01]
-  [-4.44586597e-01]
-  [-5.63406094e-01]
-  [-6.55359240e-01]
-  [-7.31481963e-01]
-  [-5.20022523e-01]
-  [-4.12122542e-01]
-  [-4.03955884e-01]
-  [-4.01530631e-01]
-  [-3.96057770e-01]]
- [[ 8.25937374e-01]
-  [ 8.00432803e-01]
-  [ 7.36800253e-01]
-  [ 6.35630782e-01]
-  [ 5.09368622e-01]
-  [ 3.67903658e-01]
-  [ 2.19499063e-01]
-  [ 6.92473233e-02]
-  [-8.01217436e-02]
-  [-2.27643721e-01]
-  [-3.72945994e-01]
-  [-5.13654408e-01]
-  [-6.39713302e-01]
-  [-7.35912898e-01]
-  [-8.15798532e-01]
-  [-5.42870216e-01]
-  [-4.48187388e-01]
-  [-4.46698286e-01]
-  [-4.42267863e-01]
-  [-4.34979770e-01]]
- [[ 8.76139373e-01]
-  [ 8.38942655e-01]
-  [ 7.66988426e-01]
-  [ 6.56667107e-01]
-  [ 5.19133132e-01]
-  [ 3.65658526e-01]
-  [ 2.05081092e-01]
-  [ 4.25965526e-02]
-  [-1.18907977e-01]
-  [-2.78367946e-01]
-  [-4.34972919e-01]
-  [-5.86081250e-01]
-  [-7.19677972e-01]
-  [-8.20554006e-01]
-  [-9.00526887e-01]
-  [-5.75322900e-01]
-  [-4.90038392e-01]
-  [-4.91007921e-01]
-  [-4.84666949e-01]
-  [-4.75373304e-01]]]</t>
+          <t>[[[ 5.70502699e-02]
+  [ 5.87053082e-02]
+  [ 6.04700199e-02]
+  [ 6.23519515e-02]
+  [ 6.43502876e-02]
+  [ 6.64574653e-02]
+  [ 6.86308281e-02]
+  [ 7.07472341e-02]
+  [ 7.26924048e-02]
+  [ 7.44580184e-02]
+  [ 7.60869691e-02]
+  [ 7.73947221e-02]
+  [ 7.80355411e-02]
+  [ 7.75974091e-02]
+  [ 7.56590381e-02]
+  [ 7.21198367e-02]
+  [ 6.72348499e-02]
+  [ 6.13654500e-02]
+  [ 5.47864421e-02]
+  [ 4.76882126e-02]]
+ [[ 8.43000149e-02]
+  [ 8.76672363e-02]
+  [ 9.12004940e-02]
+  [ 9.48420242e-02]
+  [ 9.83787082e-02]
+  [ 1.01625394e-01]
+  [ 1.04645531e-01]
+  [ 1.07462313e-01]
+  [ 1.09660595e-01]
+  [ 1.10704379e-01]
+  [ 1.09902168e-01]
+  [ 1.06552541e-01]
+  [ 1.00699848e-01]
+  [ 9.29992071e-02]
+  [ 8.40255585e-02]
+  [ 7.41335061e-02]
+  [ 6.35750410e-02]
+  [ 5.25409843e-02]
+  [ 4.11616277e-02]
+  [ 2.95356458e-02]]
+ [[ 1.22479578e-01]
+  [ 1.27960039e-01]
+  [ 1.33172397e-01]
+  [ 1.37944757e-01]
+  [ 1.42505680e-01]
+  [ 1.46627630e-01]
+  [ 1.49599214e-01]
+  [ 1.50496858e-01]
+  [ 1.48124978e-01]
+  [ 1.41792392e-01]
+  [ 1.32273789e-01]
+  [ 1.20614796e-01]
+  [ 1.07442124e-01]
+  [ 9.32077990e-02]
+  [ 7.82307302e-02]
+  [ 6.27066327e-02]
+  [ 4.67757647e-02]
+  [ 3.05704154e-02]
+  [ 1.42001303e-02]
+  [-2.26921740e-03]]
+ [[ 1.71519625e-01]
+  [ 1.78336369e-01]
+  [ 1.84848211e-01]
+  [ 1.90960703e-01]
+  [ 1.95727147e-01]
+  [ 1.97655768e-01]
+  [ 1.95081560e-01]
+  [ 1.87154585e-01]
+  [ 1.74811781e-01]
+  [ 1.59467425e-01]
+  [ 1.42060816e-01]
+  [ 1.23225557e-01]
+  [ 1.03399614e-01]
+  [ 8.28172221e-02]
+  [ 6.16693637e-02]
+  [ 4.01763527e-02]
+  [ 1.85035769e-02]
+  [-3.28096539e-03]
+  [-2.51266897e-02]
+  [-4.63194623e-02]]
+ [[ 2.29978139e-01]
+  [ 2.38649031e-01]
+  [ 2.46483621e-01]
+  [ 2.51407020e-01]
+  [ 2.50992141e-01]
+  [ 2.44013456e-01]
+  [ 2.30730885e-01]
+  [ 2.12676323e-01]
+  [ 1.91488255e-01]
+  [ 1.68135426e-01]
+  [ 1.43258748e-01]
+  [ 1.17253177e-01]
+  [ 9.03763725e-02]
+  [ 6.29679827e-02]
+  [ 3.53110297e-02]
+  [ 7.51136523e-03]
+  [-2.04308202e-02]
+  [-4.83401443e-02]
+  [-7.48034318e-02]
+  [-9.73343807e-02]]
+ [[ 2.98864133e-01]
+  [ 3.08671515e-01]
+  [ 3.13301212e-01]
+  [ 3.10277567e-01]
+  [ 2.99519305e-01]
+  [ 2.81415462e-01]
+  [ 2.57861242e-01]
+  [ 2.30808981e-01]
+  [ 2.01253470e-01]
+  [ 1.69854521e-01]
+  [ 1.37081673e-01]
+  [ 1.03347654e-01]
+  [ 6.91224068e-02]
+  [ 3.46701856e-02]
+  [ 3.60390806e-05]
+  [-3.47903476e-02]
+  [-6.95243934e-02]
+  [-1.02271516e-01]
+  [-1.29760056e-01]
+  [-1.50159226e-01]]
+ [[ 3.77030309e-01]
+  [ 3.81418969e-01]
+  [ 3.76575720e-01]
+  [ 3.62966928e-01]
+  [ 3.40828994e-01]
+  [ 3.12179162e-01]
+  [ 2.79326385e-01]
+  [ 2.43389932e-01]
+  [ 2.05102796e-01]
+  [ 1.65144557e-01]
+  [ 1.24099556e-01]
+  [ 8.24939767e-02]
+  [ 4.06063895e-02]
+  [-1.54462961e-03]
+  [-4.39330864e-02]
+  [-8.62843162e-02]
+  [-1.26635420e-01]
+  [-1.60989818e-01]
+  [-1.86497917e-01]
+  [-2.03580540e-01]]
+ [[ 4.55769416e-01]
+  [ 4.50097991e-01]
+  [ 4.34779363e-01]
+  [ 4.09794656e-01]
+  [ 3.76800886e-01]
+  [ 3.38444856e-01]
+  [ 2.96193954e-01]
+  [ 2.50908324e-01]
+  [ 2.03517005e-01]
+  [ 1.54788618e-01]
+  [ 1.05287636e-01]
+  [ 5.53669578e-02]
+  [ 5.07573335e-03]
+  [-4.55136491e-02]
+  [-9.61682945e-02]
+  [-1.45347205e-01]
+  [-1.88765763e-01]
+  [-2.21889860e-01]
+  [-2.44509949e-01]
+  [-2.58234009e-01]]
+ [[ 5.30126822e-01]
+  [ 5.14393220e-01]
+  [ 4.88157946e-01]
+  [ 4.52151352e-01]
+  [ 4.09032959e-01]
+  [ 3.60897161e-01]
+  [ 3.08827697e-01]
+  [ 2.53975672e-01]
+  [ 1.97330532e-01]
+  [ 1.39546655e-01]
+  [ 8.10831680e-02]
+  [ 2.20981056e-02]
+  [-3.72854721e-02]
+  [-9.68243193e-02]
+  [-1.55617820e-01]
+  [-2.09922235e-01]
+  [-2.53770924e-01]
+  [-2.84735450e-01]
+  [-3.04364021e-01]
+  [-3.15523627e-01]]
+ [[ 5.99892615e-01]
+  [ 5.74457419e-01]
+  [ 5.37579439e-01]
+  [ 4.91207297e-01]
+  [ 4.38095873e-01]
+  [ 3.79896016e-01]
+  [ 3.17901796e-01]
+  [ 2.53343493e-01]
+  [ 1.87094376e-01]
+  [ 1.19727859e-01]
+  [ 5.15917143e-02]
+  [-1.71134034e-02]
+  [-8.61031052e-02]
+  [-1.54841465e-01]
+  [-2.20936856e-01]
+  [-2.78390173e-01]
+  [-3.21282935e-01]
+  [-3.49828512e-01]
+  [-3.67126178e-01]
+  [-3.76385477e-01]]
+ [[ 6.64925902e-01]
+  [ 6.30625074e-01]
+  [ 5.83792365e-01]
+  [ 5.27489423e-01]
+  [ 4.64395088e-01]
+  [ 3.96095497e-01]
+  [ 3.24038740e-01]
+  [ 2.49428816e-01]
+  [ 1.73047290e-01]
+  [ 9.54522420e-02]
+  [ 1.70018422e-02]
+  [-6.19504172e-02]
+  [-1.40911242e-01]
+  [-2.18790456e-01]
+  [-2.91078539e-01]
+  [-3.49991602e-01]
+  [-3.91498466e-01]
+  [-4.17774386e-01]
+  [-4.33904210e-01]
+  [-4.41129837e-01]]
+ [[ 7.24930784e-01]
+  [ 6.83047257e-01]
+  [ 6.27212370e-01]
+  [ 5.61465078e-01]
+  [ 4.88491722e-01]
+  [ 4.10006095e-01]
+  [ 3.27586498e-01]
+  [ 2.42427128e-01]
+  [ 1.55329333e-01]
+  [ 6.68812193e-02]
+  [-2.24214466e-02]
+  [-1.12049433e-01]
+  [-2.01314485e-01]
+  [-2.87987736e-01]
+  [-3.65350885e-01]
+  [-4.24625504e-01]
+  [-4.64607004e-01]
+  [-4.89723738e-01]
+  [-5.05225035e-01]
+  [-5.09660226e-01]]
+ [[ 7.80684495e-01]
+  [ 7.31696519e-01]
+  [ 6.68279900e-01]
+  [ 5.93626311e-01]
+  [ 5.10805909e-01]
+  [ 4.21921452e-01]
+  [ 3.28724616e-01]
+  [ 2.32489217e-01]
+  [ 1.34082368e-01]
+  [ 3.42331495e-02]
+  [-6.64029213e-02]
+  [-1.67108784e-01]
+  [-2.66953330e-01]
+  [-3.61979452e-01]
+  [-4.43207753e-01]
+  [-5.02435506e-01]
+  [-5.41369673e-01]
+  [-5.66443665e-01]
+  [-5.81057595e-01]
+  [-5.81583074e-01]]
+ [[ 8.33117702e-01]
+  [ 7.76782485e-01]
+  [ 7.07375934e-01]
+  [ 6.24282083e-01]
+  [ 5.31590948e-01]
+  [ 4.32011133e-01]
+  [ 3.27591515e-01]
+  [ 2.19745470e-01]
+  [ 1.09482105e-01]
+  [-2.27603151e-03]
+  [-1.14706101e-01]
+  [-2.26933087e-01]
+  [-3.37511823e-01]
+  [-4.40371612e-01]
+  [-5.24412180e-01]
+  [-5.83943231e-01]
+  [-6.22535715e-01]
+  [-6.48194106e-01]
+  [-6.60939336e-01]
+  [-6.56767175e-01]]
+ [[ 8.83553487e-01]
+  [ 8.19056499e-01]
+  [ 7.44639106e-01]
+  [ 6.53610906e-01]
+  [ 5.50993407e-01]
+  [ 4.40406266e-01]
+  [ 3.24318579e-01]
+  [ 2.04335961e-01]
+  [ 8.17023284e-02]
+  [-4.24654482e-02]
+  [-1.67162113e-01]
+  [-2.91394204e-01]
+  [-4.12714854e-01]
+  [-5.22702700e-01]
+  [-6.09367954e-01]
+  [-6.69538133e-01]
+  [-7.08658984e-01]
+  [-7.34547275e-01]
+  [-7.44746602e-01]
+  [-7.35313549e-01]]
+ [[ 9.33762470e-01]
+  [ 8.58896286e-01]
+  [ 7.80012248e-01]
+  [ 6.81696970e-01]
+  [ 5.69118639e-01]
+  [ 4.47224973e-01]
+  [ 3.19029087e-01]
+  [ 1.86403211e-01]
+  [ 5.08870049e-02]
+  [-8.62013261e-02]
+  [-2.23655651e-01]
+  [-3.60351164e-01]
+  [-4.92188625e-01]
+  [-6.08994866e-01]
+  [-6.98460021e-01]
+  [-7.59664751e-01]
+  [-7.99575937e-01]
+  [-8.25360482e-01]
+  [-8.32651711e-01]
+  [-8.17125792e-01]]
+ [[ 9.84396752e-01]
+  [ 8.97784491e-01]
+  [ 8.13229240e-01]
+  [ 7.08568689e-01]
+  [ 5.86057419e-01]
+  [ 4.52579583e-01]
+  [ 3.11835265e-01]
+  [ 1.66067389e-01]
+  [ 1.71487544e-02]
+  [-1.33376511e-01]
+  [-2.84112129e-01]
+  [-4.33545572e-01]
+  [-5.75810039e-01]
+  [-6.99427548e-01]
+  [-7.92115987e-01]
+  [-8.54228450e-01]
+  [-8.95216313e-01]
+  [-9.20907432e-01]
+  [-9.24524618e-01]
+  [-9.02082808e-01]]
+ [[ 1.03576183e+00]
+  [ 9.37011716e-01]
+  [ 8.43985822e-01]
+  [ 7.34216768e-01]
+  [ 6.01892751e-01]
+  [ 4.56575016e-01]
+  [ 3.02834153e-01]
+  [ 1.43425269e-01]
+  [-1.94312834e-02]
+  [-1.83914281e-01]
+  [-3.48432278e-01]
+  [-5.10658943e-01]
+  [-6.63784485e-01]
+  [-7.94303111e-01]
+  [-8.90288923e-01]
+  [-9.53147901e-01]
+  [-9.95940042e-01]
+  [-1.02113575e+00]
+  [-1.02010761e+00]
+  [-9.90225931e-01]]
+ [[ 1.08799640e+00]
+  [ 9.76749059e-01]
+  [ 8.72967620e-01]
+  [ 7.58585173e-01]
+  [ 6.16698676e-01]
+  [ 4.59292665e-01]
+  [ 2.92109673e-01]
+  [ 1.18548158e-01]
+  [-5.87845531e-02]
+  [-2.37758466e-01]
+  [-4.16406377e-01]
+  [-5.91774207e-01]
+  [-7.56229485e-01]
+  [-8.93840600e-01]
+  [-9.92570375e-01]
+  [-1.05685758e+00]
+  [-1.10181267e+00]
+  [-1.12576842e+00]
+  [-1.11933860e+00]
+  [-1.08166912e+00]]
+ [[ 1.14122381e+00]
+  [ 1.01712419e+00]
+  [ 9.01163062e-01]
+  [ 7.81544874e-01]
+  [ 6.30530288e-01]
+  [ 4.60794256e-01]
+  [ 2.79730293e-01]
+  [ 9.14914332e-02]
+  [-1.00855109e-01]
+  [-2.94812749e-01]
+  [-4.87820106e-01]
+  [-6.77065458e-01]
+  [-8.53456072e-01]
+  [-9.97680025e-01]
+  [-1.09901862e+00]
+  [-1.16570927e+00]
+  [-1.21258292e+00]
+  [-1.23470042e+00]
+  [-1.22226680e+00]
+  [-1.17651205e+00]]]</t>
         </is>
       </c>
       <c r="D2051" t="inlineStr">
@@ -51931,406 +51951,406 @@
       <c r="B2052" t="inlineStr"/>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>[[[ 0.00135157]
-  [ 0.00205208]
-  [ 0.0027608 ]
-  [ 0.00347884]
-  [ 0.00421228]
-  [ 0.00497164]
-  [ 0.00577065]
-  [ 0.00662548]
-  [ 0.00754958]
-  [ 0.00855284]
-  [ 0.00965098]
-  [ 0.01086611]
-  [ 0.01224323]
-  [ 0.01402417]
-  [ 0.01653089]
-  [ 0.01868226]
-  [ 0.01966589]
-  [ 0.01965851]
-  [ 0.01868495]
-  [ 0.01686529]]
- [[ 0.00213243]
-  [ 0.00303722]
-  [ 0.00397352]
-  [ 0.00495851]
-  [ 0.00601293]
-  [ 0.00715676]
-  [ 0.00840285]
-  [ 0.00976803]
-  [ 0.01127755]
-  [ 0.01297834]
-  [ 0.01516261]
-  [ 0.01838905]
-  [ 0.02111914]
-  [ 0.02215581]
-  [ 0.02188719]
-  [ 0.02041022]
-  [ 0.018004  ]
-  [ 0.01499315]
-  [ 0.0116331 ]
-  [ 0.00804365]]
- [[ 0.00299581]
-  [ 0.0042049 ]
-  [ 0.00550383]
-  [ 0.00691918]
-  [ 0.00846728]
-  [ 0.01016729]
-  [ 0.01204972]
-  [ 0.01418651]
-  [ 0.01698296]
-  [ 0.02104115]
-  [ 0.0239935 ]
-  [ 0.02470705]
-  [ 0.02375518]
-  [ 0.02151077]
-  [ 0.01837586]
-  [ 0.014688  ]
-  [ 0.01069058]
-  [ 0.00647419]
-  [ 0.00205962]
-  [-0.00257153]]
- [[ 0.00400476]
-  [ 0.00564783]
-  [ 0.00744812]
-  [ 0.00942338]
-  [ 0.01160346]
-  [ 0.01401985]
-  [ 0.01690666]
-  [ 0.02106262]
-  [ 0.02559701]
-  [ 0.02703855]
-  [ 0.02622329]
-  [ 0.02388394]
-  [ 0.02048114]
-  [ 0.01637685]
-  [ 0.01187731]
-  [ 0.00713167]
-  [ 0.00216545]
-  [-0.00305031]
-  [-0.00853669]
-  [-0.01399163]]
- [[ 0.0052052 ]
-  [ 0.00738799]
-  [ 0.00978627]
-  [ 0.01241742]
-  [ 0.01521924]
-  [ 0.01876716]
-  [ 0.02402624]
-  [ 0.02841699]
-  [ 0.02889092]
-  [ 0.02721242]
-  [ 0.02409612]
-  [ 0.01995945]
-  [ 0.01516221]
-  [ 0.01000832]
-  [ 0.00460332]
-  [-0.00107156]
-  [-0.00707216]
-  [-0.01337638]
-  [-0.01948849]
-  [-0.02476228]]
- [[ 0.00657614]
-  [ 0.00936732]
-  [ 0.01230462]
-  [ 0.01532019]
-  [ 0.01939556]
-  [ 0.02536757]
-  [ 0.03008889]
-  [ 0.03034805]
-  [ 0.02835005]
-  [ 0.02484141]
-  [ 0.02023697]
-  [ 0.01492011]
-  [ 0.00921493]
-  [ 0.00321707]
-  [-0.00311863]
-  [-0.00985615]
-  [-0.01696164]
-  [-0.02386509]
-  [-0.02978521]
-  [-0.03438654]]
- [[ 0.00800925]
-  [ 0.011113  ]
-  [ 0.01424231]
-  [ 0.01862081]
-  [ 0.0249861 ]
-  [ 0.03071382]
-  [ 0.03158877]
-  [ 0.02972185]
-  [ 0.02616123]
-  [ 0.02134462]
-  [ 0.01567795]
-  [ 0.00952176]
-  [ 0.00300663]
-  [-0.0039185 ]
-  [-0.01131864]
-  [-0.01918929]
-  [-0.02702444]
-  [-0.03383217]
-  [-0.03984047]
-  [-0.03882621]]
- [[ 0.00882405]
-  [ 0.01200386]
-  [ 0.01636641]
-  [ 0.02299003]
-  [ 0.02980855]
-  [ 0.03238185]
-  [ 0.03114393]
-  [ 0.02790213]
-  [ 0.02316803]
-  [ 0.01736307]
-  [ 0.01088637]
-  [ 0.00395059]
-  [-0.0034695 ]
-  [-0.01143758]
-  [-0.01998239]
-  [-0.02877893]
-  [-0.03677243]
-  [-0.04376005]
-  [-0.04615285]
-  [-0.04360947]]
- [[ 0.00865539]
-  [ 0.01265673]
-  [ 0.01946528]
-  [ 0.02691729]
-  [ 0.03203799]
-  [ 0.03225109]
-  [ 0.02976   ]
-  [ 0.02546589]
-  [ 0.01980692]
-  [ 0.01320501]
-  [ 0.00597636]
-  [-0.00182179]
-  [-0.01024478]
-  [-0.01933374]
-  [-0.02896534]
-  [-0.0383082 ]
-  [-0.04633359]
-  [-0.05322385]
-  [-0.05095306]
-  [-0.04989886]]
- [[ 0.00773111]
-  [ 0.01421342]
-  [ 0.02235116]
-  [ 0.02935178]
-  [ 0.03244553]
-  [ 0.03128898]
-  [ 0.02786899]
-  [ 0.02272685]
-  [ 0.01629019]
-  [ 0.00895837]
-  [ 0.00092451]
-  [-0.00782007]
-  [-0.01731521]
-  [-0.02755286]
-  [-0.03808903]
-  [-0.04767204]
-  [-0.05622797]
-  [-0.05979541]
-  [-0.05723692]
-  [-0.05668968]]
- [[ 0.00717134]
-  [ 0.01609106]
-  [ 0.02406625]
-  [ 0.03045608]
-  [ 0.03189156]
-  [ 0.02987567]
-  [ 0.02571005]
-  [ 0.01984082]
-  [ 0.0126974 ]
-  [ 0.0046171 ]
-  [-0.0042904 ]
-  [-0.01404411]
-  [-0.02465997]
-  [-0.03601595]
-  [-0.0472519 ]
-  [-0.05708976]
-  [-0.06613098]
-  [-0.06515433]
-  [-0.06395539]
-  [-0.06461707]]
- [[ 0.00745238]
-  [ 0.01712709]
-  [ 0.02489158]
-  [ 0.03051608]
-  [ 0.03084512]
-  [ 0.02820656]
-  [ 0.02340778]
-  [ 0.01687578]
-  [ 0.00903957]
-  [ 0.00016599]
-  [-0.00967186]
-  [-0.02048388]
-  [-0.03226233]
-  [-0.0446641 ]
-  [-0.05643985]
-  [-0.06687557]
-  [-0.07473166]
-  [-0.0723759 ]
-  [-0.07196126]
-  [-0.07309677]]
- [[ 0.00769143]
-  [ 0.01694708]
-  [ 0.02517407]
-  [ 0.02986453]
-  [ 0.02952453]
-  [ 0.02638964]
-  [ 0.02102171]
-  [ 0.01385869]
-  [ 0.00530962]
-  [-0.00440091]
-  [-0.01521769]
-  [-0.02713518]
-  [-0.04010359]
-  [-0.05347556]
-  [-0.06572246]
-  [-0.07707928]
-  [-0.0824772 ]
-  [-0.08062351]
-  [-0.080879  ]
-  [-0.08204304]]
- [[ 0.00720104]
-  [ 0.01601141]
-  [ 0.02492291]
-  [ 0.0287782 ]
-  [ 0.02803776]
-  [ 0.02448107]
-  [ 0.01858005]
-  [ 0.01079423]
-  [ 0.00150385]
-  [-0.00908616]
-  [-0.0209278 ]
-  [-0.03400403]
-  [-0.04816979]
-  [-0.06243982]
-  [-0.07523557]
-  [-0.08743296]
-  [-0.08934984]
-  [-0.08892074]
-  [-0.09025587]
-  [-0.0914537 ]]
- [[ 0.0054947 ]
-  [ 0.01475245]
-  [ 0.02415417]
-  [ 0.02743294]
-  [ 0.02644113]
-  [ 0.02251024]
-  [ 0.01609709]
-  [ 0.00768044]
-  [-0.00238055]
-  [-0.01389305]
-  [-0.0268073 ]
-  [-0.04109819]
-  [-0.05645297]
-  [-0.07154196]
-  [-0.08516348]
-  [-0.09751908]
-  [-0.0980204 ]
-  [-0.09833603]
-  [-0.10004038]
-  [-0.1013463 ]]
- [[ 0.00281277]
-  [ 0.01332682]
-  [ 0.02294806]
-  [ 0.02592149]
-  [ 0.02476644]
-  [ 0.02049344]
-  [ 0.01358043]
-  [ 0.00451554]
-  [-0.00634811]
-  [-0.01882738]
-  [-0.03286431]
-  [-0.0484184 ]
-  [-0.06493292]
-  [-0.08083441]
-  [-0.09560092]
-  [-0.1072927 ]
-  [-0.10687941]
-  [-0.10851633]
-  [-0.11028595]
-  [-0.11171767]]
- [[-0.00043094]
-  [ 0.01169626]
-  [ 0.02140314]
-  [ 0.0242919 ]
-  [ 0.02303245]
-  [ 0.01844064]
-  [ 0.0110311 ]
-  [ 0.00129638]
-  [-0.01040482]
-  [-0.02389542]
-  [-0.03910806]
-  [-0.05595139]
-  [-0.07361709]
-  [-0.09040025]
-  [-0.10652318]
-  [-0.1175938 ]
-  [-0.11723574]
-  [-0.11925148]
-  [-0.1210045 ]
-  [-0.1225615 ]]
- [[-0.00385078]
-  [ 0.00983124]
-  [ 0.01959183]
-  [ 0.02257109]
-  [ 0.02125106]
-  [ 0.01635793]
-  [ 0.00844675]
-  [-0.00198127]
-  [-0.01455755]
-  [-0.02910407]
-  [-0.04554264]
-  [-0.06367873]
-  [-0.082547  ]
-  [-0.10032751]
-  [-0.11779356]
-  [-0.12739715]
-  [-0.12877011]
-  [-0.13045601]
-  [-0.13218685]
-  [-0.13388904]]
- [[-0.00724698]
-  [ 0.00766924]
-  [ 0.01758632]
-  [ 0.02077336]
-  [ 0.01942997]
-  [ 0.01424776]
-  [ 0.00582443]
-  [-0.00532276]
-  [-0.01881234]
-  [-0.03445989]
-  [-0.05215934]
-  [-0.07162341]
-  [-0.09174694]
-  [-0.11067997]
-  [-0.12923782]
-  [-0.13768404]
-  [-0.14026807]
-  [-0.14209   ]
-  [-0.14383741]
-  [-0.14571719]]
- [[-0.01036832]
-  [ 0.00524757]
-  [ 0.01542126]
-  [ 0.01890926]
-  [ 0.01757338]
-  [ 0.0121101 ]
-  [ 0.00316059]
-  [-0.00873362]
-  [-0.02317456]
-  [-0.03996405]
-  [-0.05894785]
-  [-0.07981325]
-  [-0.10125655]
-  [-0.12145041]
-  [-0.14078954]
-  [-0.14912548]
-  [-0.15187506]
-  [-0.15415382]
-  [-0.15596709]
-  [-0.15805947]]]</t>
+          <t>[[[ 9.01840336e-03]
+  [ 1.04921921e-02]
+  [ 1.20214534e-02]
+  [ 1.36066511e-02]
+  [ 1.52482329e-02]
+  [ 1.69492704e-02]
+  [ 1.87504408e-02]
+  [ 2.07198486e-02]
+  [ 2.27937273e-02]
+  [ 2.49208977e-02]
+  [ 2.70679316e-02]
+  [ 2.90510335e-02]
+  [ 3.05865228e-02]
+  [ 3.14121021e-02]
+  [ 3.13369284e-02]
+  [ 3.03520599e-02]
+  [ 2.86131557e-02]
+  [ 2.63092780e-02]
+  [ 2.35810298e-02]
+  [ 2.05189278e-02]]
+ [[ 1.42011982e-02]
+  [ 1.61816867e-02]
+  [ 1.82342167e-02]
+  [ 2.04148422e-02]
+  [ 2.28636094e-02]
+  [ 2.54806683e-02]
+  [ 2.82100823e-02]
+  [ 3.09567506e-02]
+  [ 3.33931647e-02]
+  [ 3.51527613e-02]
+  [ 3.59409656e-02]
+  [ 3.55599043e-02]
+  [ 3.40823943e-02]
+  [ 3.17887224e-02]
+  [ 2.89160131e-02]
+  [ 2.56017520e-02]
+  [ 2.19415778e-02]
+  [ 1.80113342e-02]
+  [ 1.38702110e-02]
+  [ 9.55158687e-03]]
+ [[ 1.98355492e-02]
+  [ 2.24895586e-02]
+  [ 2.55350745e-02]
+  [ 2.88300111e-02]
+  [ 3.23049149e-02]
+  [ 3.56624907e-02]
+  [ 3.84187565e-02]
+  [ 4.01555853e-02]
+  [ 4.05715882e-02]
+  [ 3.95481930e-02]
+  [ 3.73746620e-02]
+  [ 3.44081603e-02]
+  [ 3.08537342e-02]
+  [ 2.68512660e-02]
+  [ 2.25024120e-02]
+  [ 1.78814584e-02]
+  [ 1.30405684e-02]
+  [ 8.00951957e-03]
+  [ 2.80545027e-03]
+  [-2.57290207e-03]]
+ [[ 2.61851430e-02]
+  [ 3.01247943e-02]
+  [ 3.43744605e-02]
+  [ 3.85536368e-02]
+  [ 4.20607851e-02]
+  [ 4.43650588e-02]
+  [ 4.51090811e-02]
+  [ 4.41909452e-02]
+  [ 4.19169324e-02]
+  [ 3.86902634e-02]
+  [ 3.47717106e-02]
+  [ 3.03250334e-02]
+  [ 2.54725553e-02]
+  [ 2.02920180e-02]
+  [ 1.48477682e-02]
+  [ 9.18432229e-03]
+  [ 3.32025339e-03]
+  [-2.75346635e-03]
+  [-9.04854709e-03]
+  [-1.53746052e-02]]
+ [[ 3.38206084e-02]
+  [ 3.89632848e-02]
+  [ 4.36552267e-02]
+  [ 4.71887139e-02]
+  [ 4.90276680e-02]
+  [ 4.90202828e-02]
+  [ 4.73252546e-02]
+  [ 4.43266568e-02]
+  [ 4.04195581e-02]
+  [ 3.58276317e-02]
+  [ 3.07014850e-02]
+  [ 2.51472996e-02]
+  [ 1.92404001e-02]
+  [ 1.30589230e-02]
+  [ 6.64213260e-03]
+  [-1.63862647e-05]
+  [-6.94962782e-03]
+  [-1.41440537e-02]
+  [-2.12587118e-02]
+  [-2.76615810e-02]]
+ [[ 4.21840325e-02]
+  [ 4.74096556e-02]
+  [ 5.10701728e-02]
+  [ 5.27320822e-02]
+  [ 5.24779158e-02]
+  [ 5.04673387e-02]
+  [ 4.71028041e-02]
+  [ 4.27925115e-02]
+  [ 3.77439618e-02]
+  [ 3.21002838e-02]
+  [ 2.59699483e-02]
+  [ 1.94441764e-02]
+  [ 1.26139094e-02]
+  [ 5.50826087e-03]
+  [-1.90085307e-03]
+  [-9.65609085e-03]
+  [-1.77337615e-02]
+  [-2.57250681e-02]
+  [-3.28784693e-02]
+  [-3.87412689e-02]]
+ [[ 4.96215399e-02]
+  [ 5.36416716e-02]
+  [ 5.55732814e-02]
+  [ 5.55258737e-02]
+  [ 5.36143306e-02]
+  [ 5.02176049e-02]
+  [ 4.57663352e-02]
+  [ 4.04772889e-02]
+  [ 3.44912105e-02]
+  [ 2.79333182e-02]
+  [ 2.09116637e-02]
+  [ 1.35253072e-02]
+  [ 5.80528081e-03]
+  [-2.28776195e-03]
+  [-1.07995238e-02]
+  [-1.97251592e-02]
+  [-2.86900198e-02]
+  [-3.68593180e-02]
+  [-4.35906539e-02]
+  [-4.89015786e-02]]
+ [[ 5.46600862e-02]
+  [ 5.72837629e-02]
+  [ 5.78815265e-02]
+  [ 5.65004449e-02]
+  [ 5.34368036e-02]
+  [ 4.91370667e-02]
+  [ 4.38598298e-02]
+  [ 3.77474278e-02]
+  [ 3.09431368e-02]
+  [ 2.35726660e-02]
+  [ 1.57423505e-02]
+  [ 7.50277657e-03]
+  [-1.18327150e-03]
+  [-1.03624536e-02]
+  [-2.00533471e-02]
+  [-3.00089573e-02]
+  [-3.94167126e-02]
+  [-4.73517573e-02]
+  [-5.36823003e-02]
+  [-5.86644171e-02]]
+ [[ 5.73092874e-02]
+  [ 5.90159735e-02]
+  [ 5.86407770e-02]
+  [ 5.63529330e-02]
+  [ 5.25660294e-02]
+  [ 4.76085834e-02]
+  [ 4.16411212e-02]
+  [ 3.48177366e-02]
+  [ 2.72844867e-02]
+  [ 1.91593203e-02]
+  [ 1.05207422e-02]
+  [ 1.35599376e-03]
+  [-8.37999135e-03]
+  [-1.87162831e-02]
+  [-2.95579301e-02]
+  [-4.02686459e-02]
+  [-4.97418198e-02]
+  [-5.74344639e-02]
+  [-6.35250274e-02]
+  [-6.85706099e-02]]
+ [[ 5.80875619e-02]
+  [ 5.93036171e-02]
+  [ 5.83525985e-02]
+  [ 5.55578453e-02]
+  [ 5.13086548e-02]
+  [ 4.58294712e-02]
+  [ 3.92803287e-02]
+  [ 3.18257286e-02]
+  [ 2.36067473e-02]
+  [ 1.47281674e-02]
+  [ 5.22419558e-03]
+  [-4.93667464e-03]
+  [-1.57859762e-02]
+  [-2.73144119e-02]
+  [-3.91802418e-02]
+  [-5.03735546e-02]
+  [-5.97973013e-02]
+  [-6.73483844e-02]
+  [-7.34941329e-02]
+  [-7.89282572e-02]]
+ [[ 5.73093014e-02]
+  [ 5.85084645e-02]
+  [ 5.73855536e-02]
+  [ 5.43791813e-02]
+  [ 4.98297645e-02]
+  [ 4.39357453e-02]
+  [ 3.68802137e-02]
+  [ 2.88347181e-02]
+  [ 1.99341687e-02]
+  [ 1.02641599e-02]
+  [-1.65064991e-04]
+  [-1.13786385e-02]
+  [-2.33876750e-02]
+  [-3.61021320e-02]
+  [-4.88490619e-02]
+  [-6.03334425e-02]
+  [-6.97575925e-02]
+  [-7.73226740e-02]
+  [-8.38824576e-02]
+  [-8.98533713e-02]]
+ [[ 5.52206580e-02]
+  [ 5.68986739e-02]
+  [ 5.59705586e-02]
+  [ 5.29669177e-02]
+  [ 4.82359300e-02]
+  [ 4.20074515e-02]
+  [ 3.44903720e-02]
+  [ 2.58627568e-02]
+  [ 1.62597310e-02]
+  [ 5.75195727e-03]
+  [-5.65194149e-03]
+  [-1.79649266e-02]
+  [-3.11802184e-02]
+  [-4.50416474e-02]
+  [-5.85443773e-02]
+  [-7.02403765e-02]
+  [-7.97482739e-02]
+  [-8.76266918e-02]
+  [-9.48203536e-02]
+  [-1.01365503e-01]]
+ [[ 5.22460831e-02]
+  [ 5.46485308e-02]
+  [ 5.42437924e-02]
+  [ 5.14092232e-02]
+  [ 4.65924748e-02]
+  [ 4.00857393e-02]
+  [ 3.21266473e-02]
+  [ 2.29098476e-02]
+  [ 1.25720964e-02]
+  [ 1.18558188e-03]
+  [-1.12377619e-02]
+  [-2.46967667e-02]
+  [-3.91591245e-02]
+  [-5.41249138e-02]
+  [-6.82613445e-02]
+  [-8.01944615e-02]
+  [-8.99476876e-02]
+  [-9.84208582e-02]
+  [-1.06333624e-01]
+  [-1.13444550e-01]]
+ [[ 4.86883320e-02]
+  [ 5.18736019e-02]
+  [ 5.22755406e-02]
+  [ 4.97573619e-02]
+  [ 4.49357012e-02]
+  [ 3.81864408e-02]
+  [ 2.97909097e-02]
+  [ 1.99688387e-02]
+  [ 8.86535182e-03]
+  [-3.43903096e-03]
+  [-1.69262854e-02]
+  [-3.15854712e-02]
+  [-4.73216947e-02]
+  [-6.33472908e-02]
+  [-7.80286234e-02]
+  [-9.03208836e-02]
+  [-1.00502445e-01]
+  [-1.09764524e-01]
+  [-1.18383082e-01]
+  [-1.26109040e-01]]
+ [[ 4.48002233e-02]
+  [ 4.87047455e-02]
+  [ 5.00973399e-02]
+  [ 4.80406074e-02]
+  [ 4.32809946e-02]
+  [ 3.63136366e-02]
+  [ 2.74812781e-02]
+  [ 1.70339312e-02]
+  [ 5.13475614e-03]
+  [-8.12778260e-03]
+  [-2.27264361e-02]
+  [-3.86457194e-02]
+  [-5.56667432e-02]
+  [-7.26908019e-02]
+  [-8.79449424e-02]
+  [-1.00703117e-01]
+  [-1.11516830e-01]
+  [-1.21618809e-01]
+  [-1.30965329e-01]
+  [-1.39403582e-01]]
+ [[ 4.09106004e-02]
+  [ 4.51757776e-02]
+  [ 4.77128708e-02]
+  [ 4.62703321e-02]
+  [ 4.16332913e-02]
+  [ 3.44670822e-02]
+  [ 2.51945477e-02]
+  [ 1.41007680e-02]
+  [ 1.37400050e-03]
+  [-1.28892283e-02]
+  [-2.86499136e-02]
+  [-4.58858758e-02]
+  [-6.41789093e-02]
+  [-8.21915141e-02]
+  [-9.80884337e-02]
+  [-1.11421741e-01]
+  [-1.22995786e-01]
+  [-1.33977547e-01]
+  [-1.44115110e-01]
+  [-1.53339056e-01]]
+ [[ 3.71074120e-02]
+  [ 4.15657777e-02]
+  [ 4.50941841e-02]
+  [ 4.44469070e-02]
+  [ 3.99928554e-02]
+  [ 3.26455440e-02]
+  [ 2.29264725e-02]
+  [ 1.11640362e-02]
+  [-2.42450872e-03]
+  [-1.77322848e-02]
+  [-3.47091618e-02]
+  [-5.32984206e-02]
+  [-7.28691623e-02]
+  [-9.18956167e-02]
+  [-1.08528679e-01]
+  [-1.22491839e-01]
+  [-1.34942376e-01]
+  [-1.46881648e-01]
+  [-1.57834450e-01]
+  [-1.67917959e-01]]
+ [[ 3.34071208e-02]
+  [ 3.81136208e-02]
+  [ 4.22046839e-02]
+  [ 4.25629083e-02]
+  [ 3.83581877e-02]
+  [ 3.08472071e-02]
+  [ 2.06721553e-02]
+  [ 8.21756800e-03]
+  [-6.26942655e-03]
+  [-2.26663193e-02]
+  [-4.09111257e-02]
+  [-6.08682520e-02]
+  [-8.17796583e-02]
+  [-1.01852230e-01]
+  [-1.19278695e-01]
+  [-1.33922390e-01]
+  [-1.47400597e-01]
+  [-1.60334551e-01]
+  [-1.72111387e-01]
+  [-1.83155620e-01]]
+ [[ 2.98086170e-02]
+  [ 3.48159907e-02]
+  [ 3.91926091e-02]
+  [ 4.06037839e-02]
+  [ 3.67266736e-02]
+  [ 2.90683988e-02]
+  [ 1.84265554e-02]
+  [ 5.25425790e-03]
+  [-1.01686455e-02]
+  [-2.77001173e-02]
+  [-4.72498143e-02]
+  [-6.86208107e-02]
+  [-9.09343110e-02]
+  [-1.12099603e-01]
+  [-1.30311935e-01]
+  [-1.45771007e-01]
+  [-1.60381030e-01]
+  [-1.74314884e-01]
+  [-1.86955782e-01]
+  [-1.99066191e-01]]
+ [[ 2.63233262e-02]
+  [ 3.16858352e-02]
+  [ 3.62272838e-02]
+  [ 3.85466707e-02]
+  [ 3.50938940e-02]
+  [ 2.73044284e-02]
+  [ 1.61843251e-02]
+  [ 2.26702503e-03]
+  [-1.41292473e-02]
+  [-3.28368421e-02]
+  [-5.37184757e-02]
+  [-7.65859408e-02]
+  [-1.00372477e-01]
+  [-1.22616759e-01]
+  [-1.41646355e-01]
+  [-1.58081810e-01]
+  [-1.73861858e-01]
+  [-1.88818840e-01]
+  [-2.02388121e-01]
+  [-2.15657473e-01]]]</t>
         </is>
       </c>
       <c r="D2052" t="inlineStr">
@@ -52420,7 +52440,7 @@
       </c>
       <c r="C2056" t="inlineStr">
         <is>
-          <t>[-1904.86446354]</t>
+          <t>[-1721.72033525]</t>
         </is>
       </c>
       <c r="D2056" t="inlineStr">
@@ -52450,7 +52470,7 @@
     <row r="2058">
       <c r="A2058" t="inlineStr">
         <is>
-          <t>sse_tune.tune_rosco.flptune_coeff1</t>
+          <t>sse_tune.tune_rosco.dactune_coeff1</t>
         </is>
       </c>
       <c r="B2058" t="inlineStr">
@@ -52472,7 +52492,7 @@
     <row r="2059">
       <c r="A2059" t="inlineStr">
         <is>
-          <t>sse_tune.tune_rosco.flptune_coeff2</t>
+          <t>sse_tune.tune_rosco.dactune_coeff2</t>
         </is>
       </c>
       <c r="B2059" t="inlineStr">
@@ -52504,7 +52524,7 @@
       </c>
       <c r="C2060" t="inlineStr">
         <is>
-          <t>[-0.01374236]</t>
+          <t>[-0.01206625]</t>
         </is>
       </c>
       <c r="D2060" t="inlineStr">
@@ -52526,7 +52546,7 @@
       </c>
       <c r="C2061" t="inlineStr">
         <is>
-          <t>[-0.00058893]</t>
+          <t>[-0.00048692]</t>
         </is>
       </c>
       <c r="D2061" t="inlineStr">
@@ -52538,7 +52558,7 @@
     <row r="2062">
       <c r="A2062" t="inlineStr">
         <is>
-          <t>sse_tune.tune_rosco.Flp_Kp</t>
+          <t>sse_tune.tune_rosco.DAC_Kp</t>
         </is>
       </c>
       <c r="B2062" t="inlineStr">
@@ -52548,7 +52568,7 @@
       </c>
       <c r="C2062" t="inlineStr">
         <is>
-          <t>[0.0002873]</t>
+          <t>[3.69128037e-08]</t>
         </is>
       </c>
       <c r="D2062" t="inlineStr">
@@ -52560,7 +52580,7 @@
     <row r="2063">
       <c r="A2063" t="inlineStr">
         <is>
-          <t>sse_tune.tune_rosco.Flp_Ki</t>
+          <t>sse_tune.tune_rosco.DAC_Ki</t>
         </is>
       </c>
       <c r="B2063" t="inlineStr">
@@ -52570,7 +52590,7 @@
       </c>
       <c r="C2063" t="inlineStr">
         <is>
-          <t>[2.3437316e-05]</t>
+          <t>[3.01128072e-09]</t>
         </is>
       </c>
       <c r="D2063" t="inlineStr">
@@ -52592,11 +52612,11 @@
       </c>
       <c r="C2064" t="inlineStr">
         <is>
-          <t>[0.07352835 0.09790218 0.11847235 0.13733366 0.15334615 0.1693876
- 0.18373373 0.19808846 0.21160652 0.22484809 0.23784966 0.25026552
- 0.26272607 0.27468452 0.28648976 0.29832072 0.30955833 0.3208443
- 0.33208516 0.34286105 0.35367318 0.36442398 0.37477021 0.38516046
- 0.39554865 0.40549355 0.41547031 0.42545972 0.43507617 0.44464787]</t>
+          <t>[0.05373505 0.08220497 0.10504878 0.12400215 0.14191821 0.15812912
+ 0.17377123 0.1883394  0.20272322 0.21615608 0.2295075  0.24233062
+ 0.25486865 0.26729866 0.27917011 0.29101258 0.30263186 0.31392456
+ 0.32519584 0.33621378 0.3470043  0.35777466 0.36832238 0.37867702
+ 0.3890092  0.39916289 0.40909028 0.41900055 0.42883586 0.43838901]</t>
         </is>
       </c>
       <c r="D2064" t="inlineStr">
@@ -52618,14 +52638,14 @@
       </c>
       <c r="C2065" t="inlineStr">
         <is>
-          <t>[-1.37423599e-02 -1.11442915e-02 -9.16344310e-03 -7.60321881e-03
- -6.34250158e-03 -5.30260224e-03 -4.43017719e-03 -3.68778420e-03
- -3.04836823e-03 -2.49189304e-03 -2.00320374e-03 -1.57062559e-03
- -1.18501929e-03 -8.39128109e-04 -5.27116912e-04 -2.44240298e-04
-  1.34004477e-05  2.49038120e-04  4.65375953e-04  6.64691785e-04
-  8.48918573e-04  1.01970728e-03  1.17847649e-03  1.32645191e-03
-  1.46469806e-03  1.59414394e-03  1.71560392e-03  1.82979490e-03
-  1.93735046e-03  2.03883263e-03]</t>
+          <t>[-1.20662519e-02 -9.80124999e-03 -8.05505618e-03 -6.66773470e-03
+ -5.53896304e-03 -4.60262473e-03 -3.81337575e-03 -3.13908078e-03
+ -2.55633009e-03 -2.04766622e-03 -1.59980528e-03 -1.20246002e-03
+ -8.47539981e-04 -5.28594799e-04 -2.40418666e-04  2.12360281e-05
+  2.59869451e-04  4.78391814e-04  6.79242637e-04  8.64482217e-04
+  1.03586255e-03  1.19488294e-03  1.34283394e-03  1.48083249e-03
+  1.60985014e-03  1.73073596e-03  1.84423529e-03  1.95100505e-03
+  2.05162653e-03  2.14661593e-03]</t>
         </is>
       </c>
       <c r="D2065" t="inlineStr">
@@ -52643,11 +52663,14 @@
       <c r="B2066" t="inlineStr"/>
       <c r="C2066" t="inlineStr">
         <is>
-          <t>[-0.00058893 -0.00050955 -0.00044902 -0.00040135 -0.00036283 -0.00033105
- -0.00030439 -0.00028171 -0.00026217 -0.00024517 -0.00023023 -0.00021702
- -0.00020523 -0.00019467 -0.00018513 -0.00017649 -0.00016862 -0.00016142
- -0.00015481 -0.00014872 -0.00014309 -0.00013787 -0.00013302 -0.00012849
- -0.00012427 -0.00012032 -0.0001166  -0.00011311 -0.00010983 -0.00010673]</t>
+          <t>[-4.86917530e-04 -4.23939614e-04 -3.75387051e-04 -3.36812860e-04
+ -3.05427594e-04 -2.79392899e-04 -2.57447992e-04 -2.38699358e-04
+ -2.22496094e-04 -2.08352798e-04 -1.95900116e-04 -1.84852012e-04
+ -1.74983533e-04 -1.66115327e-04 -1.58102649e-04 -1.50827393e-04
+ -1.44192240e-04 -1.38116270e-04 -1.32531654e-04 -1.27381105e-04
+ -1.22615910e-04 -1.18194380e-04 -1.14080633e-04 -1.10243611e-04
+ -1.06656302e-04 -1.03295096e-04 -1.00139271e-04 -9.71705591e-05
+ -9.43727994e-05 -9.17316385e-05]</t>
         </is>
       </c>
       <c r="D2066" t="inlineStr">
@@ -52793,7 +52816,7 @@
       </c>
       <c r="C2073" t="inlineStr">
         <is>
-          <t>[5392.04278458]</t>
+          <t>[5737.89609082]</t>
         </is>
       </c>
       <c r="D2073" t="inlineStr">
@@ -53123,7 +53146,7 @@
       <c r="B2088" t="inlineStr"/>
       <c r="C2088" t="inlineStr">
         <is>
-          <t>[0.13902941]</t>
+          <t>[0.31904361]</t>
         </is>
       </c>
       <c r="D2088" t="inlineStr">
@@ -53167,7 +53190,7 @@
       </c>
       <c r="C2090" t="inlineStr">
         <is>
-          <t>[0.28574754]</t>
+          <t>[0.41509446]</t>
         </is>
       </c>
       <c r="D2090" t="inlineStr">
@@ -53189,7 +53212,7 @@
       </c>
       <c r="C2091" t="inlineStr">
         <is>
-          <t>[0.27777778]</t>
+          <t>[0.18888889]</t>
         </is>
       </c>
       <c r="D2091" t="inlineStr">
@@ -53211,7 +53234,7 @@
       </c>
       <c r="C2092" t="inlineStr">
         <is>
-          <t>[7.82634401]</t>
+          <t>[12.11774731]</t>
         </is>
       </c>
       <c r="D2092" t="inlineStr">
@@ -53233,7 +53256,7 @@
       </c>
       <c r="C2093" t="inlineStr">
         <is>
-          <t>[29818.00585938]</t>
+          <t>[43198.3984375]</t>
         </is>
       </c>
       <c r="D2093" t="inlineStr">
@@ -53255,7 +53278,7 @@
       </c>
       <c r="C2094" t="inlineStr">
         <is>
-          <t>[27058.63085938]</t>
+          <t>[41487.1796875]</t>
         </is>
       </c>
       <c r="D2094" t="inlineStr">
@@ -53277,7 +53300,7 @@
       </c>
       <c r="C2095" t="inlineStr">
         <is>
-          <t>[199.23052979]</t>
+          <t>[343.54394531]</t>
         </is>
       </c>
       <c r="D2095" t="inlineStr">
@@ -53299,7 +53322,7 @@
       </c>
       <c r="C2096" t="inlineStr">
         <is>
-          <t>[22772.96137707]</t>
+          <t>[42594.71755877]</t>
         </is>
       </c>
       <c r="D2096" t="inlineStr">
@@ -53321,11 +53344,11 @@
       </c>
       <c r="C2097" t="inlineStr">
         <is>
-          <t>[52.2678878  45.32068549 38.54033588 32.29276828 26.94391203 22.85969643
- 20.12402391 18.05505207 15.99903562 13.36570204 10.53580656  8.45624897
-  7.338172    6.55447053  6.28921618  6.26282047  6.23772637  6.27956631
-  6.37829963  6.44291374  6.43456846  6.41245054  6.3979759   6.45216515
-  6.62009368  6.85372537  7.10395325  7.32167035  7.40976496  7.46314431]</t>
+          <t>[44.9025997  39.73045652 34.79991722 30.24818223 26.21245199 22.82992692
+ 20.17773966 17.97488873 15.80820604 13.31779963 10.74053324  8.62777166
+  7.12825102  5.94744328  5.01194633  4.80693976  4.52663618  4.39627378
+  4.31668547  4.21786541  3.98657455  3.6588583   3.4653058   3.59555297
+  4.03709034  4.72067529  5.57716454  6.53741479  7.08472907  8.49262511]</t>
         </is>
       </c>
       <c r="D2097" t="inlineStr">
@@ -53347,11 +53370,11 @@
       </c>
       <c r="C2098" t="inlineStr">
         <is>
-          <t>[20.03763502 17.74640772 15.55979472 13.54270644 11.76005331 10.27674575
-  9.13408584  8.19645987  7.250697    6.04089283  4.72510305  3.84052888
-  3.53739282  3.34868699  3.04461496  2.93599305  2.80807445  2.82584253
-  2.88419073  2.95865971  3.04461382  3.1591998   3.29811093  3.46972503
-  3.68700481  3.93980186  4.21766859  4.51015741  4.67347364  5.09721098]</t>
+          <t>[16.01157452 14.48748435 13.02352316 11.62677954 10.3043421   9.06329943
+  7.84698554  6.67454917  5.74780329  5.14134893  4.67307598  4.24026468
+  3.72851877  3.25208516  3.04295052  3.01634238  2.99033026  3.02609297
+  3.11065426  3.16599375  3.14367985  3.08923885  3.05361099  3.10763714
+  3.27940887  3.52587328  3.80327868  4.0678734   4.19208815  4.38362402]</t>
         </is>
       </c>
       <c r="D2098" t="inlineStr">
@@ -53373,14 +53396,11 @@
       </c>
       <c r="C2099" t="inlineStr">
         <is>
-          <t>[ 2.96232255e+01  2.57335223e+01  2.20326766e+01  1.86087431e+01
-  1.55497766e+01  1.29438318e+01  1.08203196e+01  9.01004753e+00
-  7.32177440e+00  5.58277254e+00  3.89441094e+00  2.51578360e+00
-  1.51252211e+00  7.14896135e-01 -2.97836412e-02 -2.03334617e-01
- -5.17540588e-01 -8.75887839e-01 -1.23279126e+00 -1.41950545e+00
- -1.36781626e+00 -1.20622021e+00 -9.97341144e-01 -7.46096617e-01
- -4.02310901e-01  9.66240601e-03  4.64347475e-01  9.36268478e-01
-  1.19394163e+00  1.82991497e+00]</t>
+          <t>[28.04456353 24.0176105  20.17266882 16.62677639 13.49697107 10.90029075
+  8.86731294  7.1778816   5.60913475  4.01194666  2.47798203  1.12222194
+ -0.08791092 -1.13250455 -1.86270435 -1.99736015 -2.23268006 -2.5077264
+ -2.77805642 -2.91860244 -2.85750346 -2.67378915 -2.44493285 -2.19347942
+ -1.87333447 -1.49966449 -1.08864965 -0.6564701  -0.41561217  0.20666245]</t>
         </is>
       </c>
       <c r="D2099" t="inlineStr">
@@ -53402,14 +53422,14 @@
       </c>
       <c r="C2100" t="inlineStr">
         <is>
-          <t>[ 1.24861807e+04  8.42115853e+03  5.24725920e+03  3.71195701e+03
-  3.71857045e+03  3.85130101e+03  3.93623821e+03  3.80492230e+03
-  3.44779844e+03  3.01650618e+03  2.47098837e+03  1.79486536e+03
-  1.16149973e+03  4.79572486e+02 -2.87475712e+02 -3.15106046e+02
- -2.98244031e+02 -2.67347186e+02 -2.33079477e+02 -1.86075562e+02
- -1.34941198e+02 -9.38227554e+01 -5.58650437e+01 -2.65894503e+01
- -1.30350175e+01 -4.23796194e+00  6.25377281e-01  1.07395288e+00
-  9.92337517e-01  2.22044605e-16]</t>
+          <t>[ 6.03041846e+03  7.76818453e+02 -2.95953554e+03 -4.65331548e+03
+ -4.06727311e+03 -2.31724700e+03 -8.36044130e+02 -1.32744102e+02
+  4.15254830e+02  6.34684362e+02  5.76451231e+02  4.33294819e+02
+  2.45430042e+02 -1.85385543e+02 -8.46846886e+02 -8.68329085e+02
+ -7.27450720e+02 -5.12314602e+02 -3.70182931e+02 -2.81634372e+02
+ -2.09404271e+02 -1.45313107e+02 -8.25222076e+01 -3.49065801e+01
+ -1.42462477e+01 -1.45442329e+00  5.51828234e+00  6.09699486e+00
+  5.63365194e+00  8.88178420e-16]</t>
         </is>
       </c>
       <c r="D2100" t="inlineStr">
@@ -53431,14 +53451,14 @@
       </c>
       <c r="C2101" t="inlineStr">
         <is>
-          <t>[ 2.98180059e+04  2.85604344e+04  2.70804698e+04  2.54207732e+04
-  2.34787243e+04  2.12119553e+04  1.90275197e+04  1.71038044e+04
-  1.52914513e+04  1.36261860e+04  1.21004348e+04  1.06916129e+04
-  9.41218372e+03  8.25125261e+03  6.68715104e+03  6.20614788e+03
-  5.29064149e+03  4.44695031e+03  3.68711907e+03  2.98823995e+03
-  2.35977596e+03  1.81753176e+03  1.32441641e+03  9.10095110e+02
-  6.02713710e+02  3.41181300e+02  1.57740473e+02  7.52442894e+01
-  4.23375055e+01 -1.42108547e-14]</t>
+          <t>[ 4.31983984e+04  4.04512224e+04  3.77714410e+04  3.51595481e+04
+  3.26227243e+04  3.01571670e+04  2.77316511e+04  2.53076651e+04
+  2.29138117e+04  2.06329412e+04  1.84764951e+04  1.64210225e+04
+  1.44930312e+04  1.26660843e+04  1.01554889e+04  9.40498697e+03
+  7.99325920e+03  6.70902260e+03  5.57423272e+03  4.55792036e+03
+  3.64779109e+03  2.83809344e+03  2.08365346e+03  1.44104044e+03
+  9.58451356e+02  5.43638257e+02  2.51155955e+02  1.19776540e+02
+  6.74042083e+01 -2.84217094e-14]</t>
         </is>
       </c>
       <c r="D2101" t="inlineStr">
@@ -53460,14 +53480,14 @@
       </c>
       <c r="C2102" t="inlineStr">
         <is>
-          <t>[7.40495056e+02 7.39934502e+02 7.38334701e+02 7.35818447e+02
- 7.26621697e+02 7.04547892e+02 6.79253232e+02 6.54983545e+02
- 6.28061631e+02 5.99314927e+02 5.68303218e+02 5.35167807e+02
- 5.01559899e+02 4.67890988e+02 4.16041177e+02 3.98336855e+02
- 3.63697842e+02 3.27010295e+02 2.83103293e+02 2.22895227e+02
- 1.62572134e+02 1.21959193e+02 9.25523779e+01 6.91983072e+01
- 5.06093403e+01 3.50664882e+01 2.26249669e+01 1.31317297e+01
- 8.61154867e+00 8.88178420e-16]</t>
+          <t>[8.25556152e+02 8.51519241e+02 8.66082229e+02 8.71352859e+02
+ 8.64377970e+02 8.42226336e+02 8.15918384e+02 7.89818769e+02
+ 7.59542467e+02 7.26658617e+02 6.91922346e+02 6.53806472e+02
+ 6.10318910e+02 5.48908095e+02 4.60694165e+02 4.46899361e+02
+ 4.32295059e+02 4.20454989e+02 3.94701143e+02 3.16545704e+02
+ 2.22627977e+02 1.64229167e+02 1.25441498e+02 9.45205172e+01
+ 6.85912355e+01 4.58109885e+01 2.78561464e+01 1.54984223e+01
+ 9.76157319e+00 2.66453526e-15]</t>
         </is>
       </c>
       <c r="D2102" t="inlineStr">
@@ -53489,7 +53509,7 @@
       </c>
       <c r="C2103" t="inlineStr">
         <is>
-          <t>[ 1117917.72460938  -126873.81744385 -2057670.41015625]</t>
+          <t>[ 1793390.99121094    18454.48493958 -2026918.33496094]</t>
         </is>
       </c>
       <c r="D2103" t="inlineStr">
@@ -53511,7 +53531,7 @@
       </c>
       <c r="C2104" t="inlineStr">
         <is>
-          <t>[12878346.6796875  10607906.25        5378834.47265625]</t>
+          <t>[14362743.1640625  6326107.421875  13244141.6015625]</t>
         </is>
       </c>
       <c r="D2104" t="inlineStr">
@@ -53533,7 +53553,7 @@
       </c>
       <c r="C2105" t="inlineStr">
         <is>
-          <t>[168164.84375]</t>
+          <t>[279817.1875]</t>
         </is>
       </c>
       <c r="D2105" t="inlineStr">
@@ -53551,7 +53571,7 @@
       <c r="B2106" t="inlineStr"/>
       <c r="C2106" t="inlineStr">
         <is>
-          <t>[1.68164844]</t>
+          <t>[2.79817187]</t>
         </is>
       </c>
       <c r="D2106" t="inlineStr">
@@ -53573,7 +53593,7 @@
       </c>
       <c r="C2107" t="inlineStr">
         <is>
-          <t>[87274.25232591]</t>
+          <t>[154889.11827766]</t>
         </is>
       </c>
       <c r="D2107" t="inlineStr">
@@ -53591,7 +53611,7 @@
       <c r="B2108" t="inlineStr"/>
       <c r="C2108" t="inlineStr">
         <is>
-          <t>[0.87274252]</t>
+          <t>[1.54889118]</t>
         </is>
       </c>
       <c r="D2108" t="inlineStr">
@@ -53613,12 +53633,12 @@
       </c>
       <c r="C2109" t="inlineStr">
         <is>
-          <t>[1334.14929199 1343.88344553 1351.43508378 1356.87636732 1361.43012056
- 1363.52118424 1362.92490139 1361.20406952 1358.85808785 1354.79068363
- 1348.56251404 1341.38947816 1332.74645109 1322.45932833 1311.30851991
- 1298.86811609 1285.30052812 1271.23025333 1256.37992351 1240.97453173
- 1225.45499517 1209.70304517 1193.73297065 1177.74520695 1161.93304127
- 1145.34706066 1127.13216337 1107.5332672  1086.63942318 1064.48608398]</t>
+          <t>[2107.22900391 2123.09230745 2135.67025652 2145.26305717 2153.4939375
+ 2157.32084428 2156.97419124 2155.86267039 2154.19030672 2149.39885073
+ 2140.75360611 2130.69299963 2118.19966479 2102.99221889 2086.70553549
+ 2068.71887766 2049.30874196 2029.5724865  2009.09320949 1988.32699618
+ 1968.08484752 1948.13902535 1928.5721391  1909.66162998 1891.45371605
+ 1873.3508299  1854.85437884 1836.1780944  1817.35575123 1798.38049316]</t>
         </is>
       </c>
       <c r="D2109" t="inlineStr">
@@ -53640,12 +53660,12 @@
       </c>
       <c r="C2110" t="inlineStr">
         <is>
-          <t>[-142.78239441 -144.58933431 -146.564274   -148.68226015 -150.95608867
- -153.48889412 -156.40577231 -159.70638103 -163.2818782  -167.17890811
- -171.41805384 -175.87649637 -180.65148924 -185.65025171 -190.62242167
- -195.76048337 -200.75250264 -205.0777549  -209.04873423 -212.44258321
- -214.91528247 -217.10046878 -218.52995091 -218.58456922 -217.63107517
- -216.01085756 -213.27966289 -207.29518157 -198.6844424  -188.34674072]</t>
+          <t>[-18.71855164 -19.5621063  -20.5375318  -21.63100756 -22.86099751
+ -24.27309234 -25.97227311 -27.96613865 -30.11193007 -32.40772157
+ -34.88793825 -37.48455224 -40.29659518 -43.20222084 -45.92629594
+ -48.48148348 -50.90804883 -53.17269541 -55.3209988  -57.31270704
+ -59.08362442 -60.67169953 -62.12812324 -63.51815815 -64.89916513
+ -66.05027529 -66.83377143 -67.5023075  -68.01566667 -68.29680634]</t>
         </is>
       </c>
       <c r="D2110" t="inlineStr">
@@ -53667,14 +53687,14 @@
       </c>
       <c r="C2111" t="inlineStr">
         <is>
-          <t>[-11857.09960938 -11418.26610201 -10994.04138782 -10584.52462399
- -10186.89240764  -9803.54506696  -9434.99854113  -9079.54499728
-  -8737.18201311  -8407.03993539  -8088.69189572  -7782.65181617
-  -7487.79346908  -7204.11098375  -6932.71918506  -6672.21104001
-  -6422.821831    -6185.78077367  -5959.43540387  -5744.10998024
-  -5540.75022664  -5347.68938276  -5165.02810139  -4994.97602658
-  -4839.65254332  -4683.86982343  -4514.45711014  -4336.6437994
-  -4151.42865943  -3958.79223633]</t>
+          <t>[-11879.56445312 -11439.01826831 -11013.09046863 -10601.87792628
+ -10202.55920377  -9817.54326897  -9447.34742014  -9090.26516284
+  -8746.3066867   -8414.60109679  -8094.72290057  -7787.20035173
+  -7490.90146694  -7205.82406921  -6933.09910121  -6671.30949572
+  -6420.69595076  -6182.50281237  -5955.06227483  -5738.70842649
+  -5534.40228263  -5340.4550082   -5156.98512257  -4986.21961082
+  -4830.24857451  -4673.90934524  -4504.06244059  -4325.94182068
+  -4140.53953667  -3947.82958984]</t>
         </is>
       </c>
       <c r="D2111" t="inlineStr">
@@ -53696,14 +53716,14 @@
       </c>
       <c r="C2112" t="inlineStr">
         <is>
-          <t>[35066.0390625  34384.626979   33693.1739492  32992.34305546
- 32282.93176215 31561.0465706  30825.52639228 30076.52578447
- 29310.68557532 28527.22747014 27725.60702959 26903.15860238
- 26058.71562107 25191.95789844 24301.95734169 23385.46869574
- 22445.6465433  21487.32156066 20506.45623507 19508.11545509
- 18499.14161966 17474.53063222 16442.67036522 15411.51296524
- 14374.37373496 13346.32478135 12340.82254666 11349.74628768
- 10372.78642305  9411.04101562]</t>
+          <t>[18754.68164062 18655.32849274 18551.19318101 18442.75200412
+ 18330.06172696 18210.84867065 18083.93337796 17949.02337476
+ 17804.63155385 17649.11823575 17481.97344396 17303.29544092
+ 17110.50025196 16904.10447389 16686.8623348  16456.34709749
+ 16213.60160328 15961.77209687 15698.61439556 15425.79256543
+ 15146.22063149 14858.21849229 14563.08908053 14262.461937
+ 13955.02546015 13642.56827141 13327.00246334 13007.97546243
+ 12685.23822018 12358.63574219]</t>
         </is>
       </c>
       <c r="D2112" t="inlineStr">
@@ -53725,14 +53745,14 @@
       </c>
       <c r="C2113" t="inlineStr">
         <is>
-          <t>[168164.84375    161834.84838564 155473.51301652 149074.1987675
- 142643.93721442 136206.49108663 129765.9778126  123319.99767499
- 116892.52410623 110484.59497478 104096.37749466  97747.25485549
-  91433.59067985  85159.8786565   78944.19357623  72781.17215996
-  66675.94312046  60642.29786102  54674.8952396   48776.87978549
-  42955.19302214  37204.67579613  31529.00644588  25932.07959991
-  20407.94301     14964.61265289   9605.94942642   4316.12307487
-   -901.50059495  -6041.36669922]</t>
+          <t>[279817.1875     269817.46480868 259765.37955233 249650.99143253
+ 239485.48902634 229303.7827013  219111.90194261 208906.30879752
+ 198722.2047409  188559.81364309 178421.01898843 168338.37190738
+ 158307.11554285 148333.13604154 138443.65927306 128632.54490086
+ 118904.4224593  109275.73752449  99742.15727819  90302.83553184
+  80961.07166232  71714.65522493  62561.15612271  53498.95647879
+  44527.06856604  35643.07719796  26841.17770431  18110.21595429
+   9454.07616262    877.97351074]</t>
         </is>
       </c>
       <c r="D2113" t="inlineStr">
@@ -53754,12 +53774,12 @@
       </c>
       <c r="C2114" t="inlineStr">
         <is>
-          <t>[3762.2902832  3763.86692639 3765.11932789 3766.05444291 3766.84194995
- 3767.27750794 3767.40913082 3767.495486   3767.52575064 3767.34182993
- 3766.9307286  3766.47029478 3765.93286908 3765.29971736 3764.65485866
- 3763.97808477 3763.28978524 3762.64543745 3762.00889102 3761.43292085
- 3760.9803116  3760.55330621 3760.26555766 3760.23434047 3760.29516779
- 3760.40004018 3760.59032691 3761.0395351  3761.69592509 3762.48583984]</t>
+          <t>[6859.11328125 6862.7062168  6865.51627113 6867.58529391 6869.33311517
+ 6870.13949142 6870.13907194 6870.12273906 6870.0949911  6869.50933439
+ 6868.25533118 6866.89038562 6865.38720646 6863.67522339 6861.95358007
+ 6860.17292201 6858.39097362 6856.75139887 6855.16530231 6853.74411188
+ 6852.62309174 6851.56306011 6850.84883662 6850.7520654  6850.77366192
+ 6850.8137494  6850.98778505 6851.66718078 6852.73640864 6854.03369141]</t>
         </is>
       </c>
       <c r="D2114" t="inlineStr">
@@ -53993,7 +54013,7 @@
       <c r="B2125" t="inlineStr"/>
       <c r="C2125" t="inlineStr">
         <is>
-          <t>[6.10745629e-41]</t>
+          <t>[7.73887327e-41]</t>
         </is>
       </c>
       <c r="D2125" t="inlineStr">
@@ -54011,7 +54031,7 @@
       <c r="B2126" t="inlineStr"/>
       <c r="C2126" t="inlineStr">
         <is>
-          <t>[6.10745629e-41]</t>
+          <t>[7.73887327e-41]</t>
         </is>
       </c>
       <c r="D2126" t="inlineStr">
@@ -54029,7 +54049,7 @@
       <c r="B2127" t="inlineStr"/>
       <c r="C2127" t="inlineStr">
         <is>
-          <t>[5.57702197e-22]</t>
+          <t>[9.65150732e-22]</t>
         </is>
       </c>
       <c r="D2127" t="inlineStr">
@@ -54047,7 +54067,7 @@
       <c r="B2128" t="inlineStr"/>
       <c r="C2128" t="inlineStr">
         <is>
-          <t>[9.79350052e-22]</t>
+          <t>[1.70209818e-21]</t>
         </is>
       </c>
       <c r="D2128" t="inlineStr">
@@ -54065,7 +54085,7 @@
       <c r="B2129" t="inlineStr"/>
       <c r="C2129" t="inlineStr">
         <is>
-          <t>[6.92618012e+08]</t>
+          <t>[4.82851568e+08]</t>
         </is>
       </c>
       <c r="D2129" t="inlineStr">
@@ -54083,7 +54103,7 @@
       <c r="B2130" t="inlineStr"/>
       <c r="C2130" t="inlineStr">
         <is>
-          <t>[776475.54929631]</t>
+          <t>[4078031.06688814]</t>
         </is>
       </c>
       <c r="D2130" t="inlineStr">
@@ -54174,10 +54194,10 @@
       <c r="C2135" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.         0.
- 0.         1.30955055 1.27716429 1.10932707 0.89540742 0.71706746
- 0.62760386 0.56181954 0.54760551 0.546357   0.55070321 0.55386754
- 0.55882917 0.5638387  0.5649196  0.56627276 0.56972718 0.58682515
- 0.61719218 0.63362376 0.64965666 0.66101129 0.66947618 0.68780779]</t>
+ 0.         1.30456427 1.26433508 1.10607973 0.90895201 0.72780498
+ 0.61485799 0.52611888 0.43069418 0.42275698 0.41411888 0.4123749
+ 0.41523799 0.4166646  0.41053306 0.39860675 0.39625366 0.41784057
+ 0.46253121 0.51527596 0.58621345 0.66424631 0.71627319 0.75549306]</t>
         </is>
       </c>
       <c r="D2135" t="inlineStr">
@@ -54202,11 +54222,11 @@
           <t>[1.00000000e-06 1.00000000e-06 1.00000000e-06 1.51455912e+00
  1.00000000e-06 1.00000000e-06 1.00000000e-06 1.60767679e+01
  1.48746124e+01 1.47512764e+01 1.51150128e+01 1.59741416e+01
- 1.64697204e+01 1.70032511e+01 1.69602098e+01 1.69506542e+01
- 1.67713105e+01 1.67510347e+01 1.67789877e+01 1.67445086e+01
- 1.66976975e+01 1.66187382e+01 1.64925677e+01 1.61043768e+01
- 1.55840954e+01 1.55486807e+01 1.55501237e+01 1.56123786e+01
- 1.55465622e+01 1.52098198e+01]</t>
+ 1.64697204e+01 1.70032511e+01 1.85984274e+01 1.84626826e+01
+ 1.81709281e+01 1.79316490e+01 1.76163398e+01 1.73188544e+01
+ 1.70141295e+01 1.67010381e+01 1.63117584e+01 1.57807583e+01
+ 1.52106028e+01 1.49802513e+01 1.46285498e+01 1.43556731e+01
+ 1.40770552e+01 1.52098198e+01]</t>
         </is>
       </c>
       <c r="D2136" t="inlineStr">
@@ -54224,14 +54244,14 @@
       <c r="B2137" t="inlineStr"/>
       <c r="C2137" t="inlineStr">
         <is>
-          <t>[-3.81474296e-04 -5.46160798e-04 -7.35273707e-04 -1.14339090e-03
- -1.41285499e-03 -1.58546589e-03 -1.60152805e-03 -1.60905785e-03
- -1.60178232e-03 -1.56775273e-03 -1.51917657e-03 -1.47219038e-03
- -1.42178143e-03 -1.38890176e-03 -1.30722019e-03 -1.34615477e-03
- -1.34005090e-03 -1.32474613e-03 -1.30507802e-03 -1.20626197e-03
- -8.35471087e-04 -1.13803745e-03 -1.12603840e-03 -1.04314137e-03
- -1.01807903e-03 -8.99832624e-04 -6.96916442e-04 -6.22976050e-04
- -6.11520614e-04  1.05238544e-18]</t>
+          <t>[-2.05202711e-04 -9.55962090e-04 -1.13846742e-03 -1.51906019e-03
+ -1.81345137e-03 -2.06501979e-03 -2.15386501e-03 -2.21539598e-03
+ -2.25691221e-03 -2.24388019e-03 -2.20382747e-03 -2.16675771e-03
+ -2.11766030e-03 -2.07923796e-03 -1.95151201e-03 -2.00611210e-03
+ -1.99776897e-03 -1.98424808e-03 -1.96796782e-03 -1.83688812e-03
+ -1.28893991e-03 -1.77274405e-03 -1.76828323e-03 -1.64905200e-03
+ -1.61622389e-03 -1.43053624e-03 -1.10574596e-03 -9.86892032e-04
+ -9.66092087e-04  2.10680254e-18]</t>
         </is>
       </c>
       <c r="D2137" t="inlineStr">
@@ -54249,14 +54269,14 @@
       <c r="B2138" t="inlineStr"/>
       <c r="C2138" t="inlineStr">
         <is>
-          <t>[-3.81474296e-04  4.88927186e-04  6.83999735e-04  6.88744251e-04
-  1.06009571e-03  1.32900067e-03  1.40617068e-03  1.45821410e-03
-  1.45918993e-03  1.40802997e-03  1.34870687e-03  1.30324564e-03
-  1.26394157e-03  1.25948752e-03  1.24364025e-03  1.30169205e-03
-  1.32815437e-03  1.34720719e-03  1.36679602e-03  1.33976164e-03
-  8.95850349e-04  1.31551777e-03  1.33153871e-03  1.27691873e-03
-  1.26956842e-03  1.14218369e-03  9.04052086e-04  8.39921119e-04
-  9.10052135e-04 -1.70658503e-18]</t>
+          <t>[-2.05202711e-04  8.84547928e-04  1.11514411e-03  1.18657274e-03
+  1.64422645e-03  1.99773244e-03  2.13102231e-03  2.22805697e-03
+  2.24839299e-03  2.18378839e-03  2.10228542e-03  2.03587026e-03
+  1.97305410e-03  1.95632169e-03  1.90825902e-03  1.99245351e-03
+  2.02321436e-03  2.04273898e-03  2.07070647e-03  2.04660806e-03
+  1.38735076e-03  2.05854455e-03  2.09822821e-03  2.02437713e-03
+  2.02104778e-03  1.82199658e-03  1.44105240e-03  1.33664340e-03
+  1.44551253e-03 -3.41928754e-18]</t>
         </is>
       </c>
       <c r="D2138" t="inlineStr">
@@ -54274,14 +54294,14 @@
       <c r="B2139" t="inlineStr"/>
       <c r="C2139" t="inlineStr">
         <is>
-          <t>[-3.81474296e-04 -3.91991106e-04 -6.08362335e-05  2.37470968e-05
-  2.38670339e-04  4.05161801e-04  4.65724608e-04  4.55588464e-04
-  4.11203940e-04  3.77282636e-04  3.12864276e-04  2.27116702e-04
-  1.44138751e-04  5.47286783e-05 -7.43115473e-05 -4.03134751e-05
- -5.12091324e-05 -5.84167923e-05 -6.30346938e-05 -6.06328741e-05
- -4.60101152e-05 -4.81650906e-05 -4.16458521e-05 -2.15675165e-05
-  3.62200943e-06  5.16374294e-05  1.12500261e-04  1.56863774e-04
-  2.07257586e-04 -1.13235253e-18]</t>
+          <t>[-2.05202711e-04 -1.89317392e-04 -4.13127040e-04 -4.04300390e-04
+ -2.31871513e-04 -1.83340997e-05  9.85776239e-05  1.07482005e-04
+  1.14939910e-04  1.37897893e-04  1.17468700e-04  8.21447304e-05
+  4.19209265e-05 -2.59584157e-05 -1.61337435e-04 -1.19906785e-04
+ -1.27770791e-04 -1.11306714e-04 -9.79821073e-05 -8.84218844e-05
+ -6.89971804e-05 -6.99332976e-05 -5.57238183e-05 -2.00012713e-05
+  2.31699266e-05  1.02324908e-04  2.03567352e-04  2.82393711e-04
+  3.77013077e-04 -2.28802149e-18]</t>
         </is>
       </c>
       <c r="D2139" t="inlineStr">
@@ -54299,14 +54319,14 @@
       <c r="B2140" t="inlineStr"/>
       <c r="C2140" t="inlineStr">
         <is>
-          <t>[-3.81474296e-04 -3.91991106e-04  4.69922635e-04  3.93516037e-04
-  6.28686484e-04  8.26062606e-04  8.74830877e-04  8.21181241e-04
-  7.34581432e-04  6.74557865e-04  5.87767277e-04  4.83787506e-04
-  3.84559768e-04  2.85539403e-04  1.40930981e-04  1.49659499e-04
-  1.31871506e-04  1.16621813e-04  1.03187462e-04  9.45096623e-05
-  4.85579871e-05  7.92641891e-05  6.86068375e-05  7.22750334e-05
-  7.87597917e-05  1.07417352e-04  1.42154272e-04  2.02220836e-04
-  2.61257614e-04 -1.13235253e-18]</t>
+          <t>[-2.05202711e-04 -1.89317392e-04  3.16390391e-04  9.16050948e-05
+  2.76994409e-04  5.42744112e-04  6.64040812e-04  6.26385052e-04
+  5.84387936e-04  5.75277953e-04  5.26399530e-04  4.68118645e-04
+  4.06387800e-04  3.24726557e-04  1.63916003e-04  1.66593401e-04
+  1.47851907e-04  1.52375904e-04  1.53247727e-04  1.48223315e-04
+  7.71859117e-05  1.29053184e-04  1.17748533e-04  1.28598311e-04
+  1.42651603e-04  1.91188019e-04  2.50383723e-04  3.54475729e-04
+  4.62674811e-04 -2.28802149e-18]</t>
         </is>
       </c>
       <c r="D2140" t="inlineStr">
@@ -54412,14 +54432,14 @@
       <c r="B2145" t="inlineStr"/>
       <c r="C2145" t="inlineStr">
         <is>
-          <t>[9.53685740e-02 1.36540199e-01 1.83818427e-01 2.85847725e-01
- 3.53213747e-01 3.96366473e-01 4.00382011e-01 4.02264462e-01
- 4.00445581e-01 3.91938183e-01 3.79794142e-01 3.68047595e-01
- 3.55445357e-01 3.47225439e-01 3.33611844e-01 3.36538692e-01
- 3.35012726e-01 3.31186533e-01 3.26269505e-01 3.01565493e-01
- 2.08867772e-01 2.84509362e-01 2.81509600e-01 2.60785344e-01
- 2.54519757e-01 2.24958156e-01 1.74229111e-01 1.55744013e-01
- 1.05434589e-01 2.63096360e-16]</t>
+          <t>[5.13006778e-02 2.38990523e-01 2.84616855e-01 3.79765046e-01
+ 4.53362843e-01 5.16254947e-01 5.38466252e-01 5.53848996e-01
+ 5.64228053e-01 5.60970048e-01 5.50956869e-01 5.41689427e-01
+ 5.29415075e-01 5.19809489e-01 4.98521831e-01 5.01528025e-01
+ 4.99442243e-01 4.96062021e-01 4.91991956e-01 4.59222030e-01
+ 3.22234978e-01 4.43186012e-01 4.42070808e-01 4.12263000e-01
+ 4.04055973e-01 3.57634060e-01 2.76436489e-01 2.46723008e-01
+ 1.66567601e-01 5.26700636e-16]</t>
         </is>
       </c>
       <c r="D2145" t="inlineStr">
@@ -54437,14 +54457,14 @@
       <c r="B2146" t="inlineStr"/>
       <c r="C2146" t="inlineStr">
         <is>
-          <t>[9.53685740e-02 1.22231796e-01 1.70999934e-01 1.72186063e-01
- 2.65023927e-01 3.32250168e-01 3.51542670e-01 3.64553526e-01
- 3.64797481e-01 3.52007492e-01 3.37176718e-01 3.25811409e-01
- 3.15985393e-01 3.14871881e-01 3.12230669e-01 3.25423014e-01
- 3.32038593e-01 3.36801798e-01 3.41699006e-01 3.34940410e-01
- 2.23962587e-01 3.28879442e-01 3.32884677e-01 3.19229682e-01
- 3.17392104e-01 2.85545922e-01 2.26013022e-01 2.09980280e-01
- 1.56905541e-01 4.26646259e-16]</t>
+          <t>[5.13006778e-02 2.21136982e-01 2.78786028e-01 2.96643184e-01
+ 4.11056613e-01 4.99433110e-01 5.32755578e-01 5.57014242e-01
+ 5.62098248e-01 5.45947098e-01 5.25571356e-01 5.08967565e-01
+ 4.93263526e-01 4.89080422e-01 4.81069978e-01 4.98113378e-01
+ 5.05803591e-01 5.10684745e-01 5.17676618e-01 5.11652015e-01
+ 3.46837689e-01 5.14636136e-01 5.24557054e-01 5.06094283e-01
+ 5.05261944e-01 4.55499145e-01 3.60263100e-01 3.34160850e-01
+ 2.49226298e-01 8.54821884e-16]</t>
         </is>
       </c>
       <c r="D2146" t="inlineStr">
@@ -55293,7 +55313,7 @@
       </c>
       <c r="C2194" t="inlineStr">
         <is>
-          <t>[185900.55455506]</t>
+          <t>[187958.85452779]</t>
         </is>
       </c>
       <c r="D2194" t="inlineStr"/>
@@ -55311,7 +55331,7 @@
       </c>
       <c r="C2195" t="inlineStr">
         <is>
-          <t>[411997.17207862]</t>
+          <t>[414055.47205135]</t>
         </is>
       </c>
       <c r="D2195" t="inlineStr"/>
@@ -55329,7 +55349,7 @@
       </c>
       <c r="C2196" t="inlineStr">
         <is>
-          <t>[-5.27310297 -0.07625118  2.120346  ]</t>
+          <t>[-5.30505877 -0.07587213  2.12460024]</t>
         </is>
       </c>
       <c r="D2196" t="inlineStr"/>
@@ -55347,8 +55367,8 @@
       </c>
       <c r="C2197" t="inlineStr">
         <is>
-          <t>[ 2.09652819e+08  1.33119199e+08  1.32060162e+08 -2.28175369e+01
- -7.44103981e+05  4.82414271e+04]</t>
+          <t>[ 2.09689530e+08  1.33428496e+08  1.32351273e+08 -2.28175369e+01
+ -6.73069660e+05  4.82414271e+04]</t>
         </is>
       </c>
       <c r="D2197" t="inlineStr"/>
@@ -55366,7 +55386,7 @@
       </c>
       <c r="C2198" t="inlineStr">
         <is>
-          <t>[3.94967006]</t>
+          <t>[6.15768901]</t>
         </is>
       </c>
       <c r="D2198" t="inlineStr"/>
@@ -55403,9 +55423,9 @@
       <c r="C2200" t="inlineStr">
         <is>
           <t>[[3.79387873e+06]
- [4.55782390e+11]
- [4.55766533e+11]
- [4.46079932e+11]]</t>
+ [7.10594708e+11]
+ [7.10591142e+11]
+ [3.81722555e+11]]</t>
         </is>
       </c>
       <c r="D2200" t="inlineStr"/>
@@ -55423,10 +55443,10 @@
       </c>
       <c r="C2201" t="inlineStr">
         <is>
-          <t>[[3.41436734e+11]
- [3.41436962e+11]
- [3.41435937e+11]
- [5.14222812e+11]]</t>
+          <t>[[3.80791070e+11]
+ [3.80791878e+11]
+ [3.80792691e+11]
+ [7.67976374e+11]]</t>
         </is>
       </c>
       <c r="D2201" t="inlineStr"/>
@@ -55440,10 +55460,10 @@
       <c r="B2202" t="inlineStr"/>
       <c r="C2202" t="inlineStr">
         <is>
-          <t>[[3008.3537047 ]
- [3798.13848659]
- [3798.08209313]
- [5067.23841296]]</t>
+          <t>[[3355.09952972]
+ [4931.86193719]
+ [4931.85351384]
+ [7039.64804274]]</t>
         </is>
       </c>
       <c r="D2202" t="inlineStr"/>
@@ -55493,7 +55513,7 @@
       <c r="B2205" t="inlineStr"/>
       <c r="C2205" t="inlineStr">
         <is>
-          <t>[6.93167095]</t>
+          <t>[10.80674421]</t>
         </is>
       </c>
       <c r="D2205" t="inlineStr"/>
@@ -55544,8 +55564,8 @@
       </c>
       <c r="C2208" t="inlineStr">
         <is>
-          <t>[[2.83792970e+10]
- [2.83763754e+10]]</t>
+          <t>[[3.16500460e+10]
+ [3.16471207e+10]]</t>
         </is>
       </c>
       <c r="D2208" t="inlineStr"/>
@@ -55578,8 +55598,8 @@
       <c r="B2210" t="inlineStr"/>
       <c r="C2210" t="inlineStr">
         <is>
-          <t>[[250.04621554]
- [250.02047387]]</t>
+          <t>[[278.86435051]
+ [278.83857619]]</t>
         </is>
       </c>
       <c r="D2210" t="inlineStr"/>
@@ -55597,7 +55617,7 @@
       </c>
       <c r="C2211" t="inlineStr">
         <is>
-          <t>[6.63256018]</t>
+          <t>[11.29230936]</t>
         </is>
       </c>
       <c r="D2211" t="inlineStr"/>
@@ -55615,7 +55635,7 @@
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t>[3.86227436]</t>
+          <t>[6.95337987]</t>
         </is>
       </c>
       <c r="D2212" t="inlineStr"/>
@@ -55633,7 +55653,7 @@
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t>[7.54502694]</t>
+          <t>[12.78012427]</t>
         </is>
       </c>
       <c r="D2213" t="inlineStr"/>
@@ -55651,7 +55671,7 @@
       </c>
       <c r="C2214" t="inlineStr">
         <is>
-          <t>[-2.18394551]</t>
+          <t>[-1.17365244]</t>
         </is>
       </c>
       <c r="D2214" t="inlineStr"/>
@@ -55669,7 +55689,7 @@
       </c>
       <c r="C2215" t="inlineStr">
         <is>
-          <t>[-1.67406831]</t>
+          <t>[-0.93535199]</t>
         </is>
       </c>
       <c r="D2215" t="inlineStr"/>
@@ -55687,7 +55707,7 @@
       </c>
       <c r="C2216" t="inlineStr">
         <is>
-          <t>[0.01606207]</t>
+          <t>[0.01791682]</t>
         </is>
       </c>
       <c r="D2216" t="inlineStr"/>
@@ -55705,9 +55725,9 @@
       </c>
       <c r="C2217" t="inlineStr">
         <is>
-          <t>[[ 2.27056142e+09]
- [ 1.13737776e+10]
- [-1.64470886e+10]]</t>
+          <t>[[ 2.58137243e+09]
+ [ 2.97489349e+10]
+ [-7.13268622e+09]]</t>
         </is>
       </c>
       <c r="D2217" t="inlineStr"/>
@@ -55725,9 +55745,9 @@
       </c>
       <c r="C2218" t="inlineStr">
         <is>
-          <t>[[ 5.30856390e+09]
- [-5.62381463e+10]
- [-9.55487476e+09]]</t>
+          <t>[[ 5.96151586e+09]
+ [-2.37425438e+10]
+ [-2.74516864e+10]]</t>
         </is>
       </c>
       <c r="D2218" t="inlineStr"/>
@@ -55745,28 +55765,28 @@
       </c>
       <c r="C2219" t="inlineStr">
         <is>
-          <t>[[5.76807393e+04]
- [2.03036303e+08]
- [1.57086447e+08]
- [1.56145153e+08]
- [2.42075119e+08]
- [3.53166494e+11]
- [1.00061561e+11]
- [1.56313160e+11]
- [1.19607327e+11]
- [1.85609259e+05]
- [5.96210141e+04]
- [5.76142672e+04]
- [2.02237338e+08]
- [1.58039528e+08]
- [1.58980612e+08]
- [2.48288961e+08]
- [4.09991067e+11]
- [9.16765345e+10]
- [1.62927520e+11]
- [1.09177947e+11]
- [1.37597293e+05]
- [5.09849785e+04]]</t>
+          <t>[[5.78445828e+04]
+ [2.26247578e+08]
+ [1.74994733e+08]
+ [1.73945652e+08]
+ [2.69792963e+08]
+ [8.84991505e+11]
+ [1.41670730e+11]
+ [3.91663822e+11]
+ [3.43999760e+11]
+ [8.47572039e+05]
+ [7.05733254e+05]
+ [5.74745951e+04]
+ [2.25739562e+08]
+ [1.76453968e+08]
+ [1.77502783e+08]
+ [2.77092452e+08]
+ [9.33359525e+11]
+ [1.28827999e+11]
+ [3.74754093e+11]
+ [3.30899658e+11]
+ [8.59588522e+05]
+ [7.10346589e+05]]</t>
         </is>
       </c>
       <c r="D2219" t="inlineStr"/>
@@ -55784,28 +55804,28 @@
       </c>
       <c r="C2220" t="inlineStr">
         <is>
-          <t>[[2.90478224e+05]
- [9.27157375e+08]
- [9.26731749e+08]
- [9.26509923e+08]
- [9.26593225e+08]
- [1.33480559e+11]
- [1.54458071e+11]
- [1.21067814e+11]
- [2.35198052e+11]
- [2.82794197e+05]
- [6.63081010e+04]
- [2.90152327e+05]
- [9.33553750e+08]
- [9.33563805e+08]
- [9.33777064e+08]
- [9.34577841e+08]
- [7.02408402e+11]
- [4.38470645e+11]
- [4.72636021e+11]
- [3.55486690e+11]
- [4.30391315e+05]
- [1.68544487e+05]]</t>
+          <t>[[2.91270767e+05]
+ [1.03394137e+09]
+ [1.03349634e+09]
+ [1.03327321e+09]
+ [1.03339600e+09]
+ [2.77031337e+12]
+ [8.22759264e+11]
+ [9.38861638e+11]
+ [7.15350672e+09]
+ [6.52627157e+05]
+ [4.98607618e+05]
+ [2.89420642e+05]
+ [1.04124832e+09]
+ [1.04122892e+09]
+ [1.04144119e+09]
+ [1.04230272e+09]
+ [3.63122391e+12]
+ [1.78637907e+12]
+ [1.89686711e+12]
+ [9.58354222e+11]
+ [1.08197633e+06]
+ [8.21381357e+05]]</t>
         </is>
       </c>
       <c r="D2220" t="inlineStr"/>
@@ -55858,28 +55878,28 @@
       <c r="B2222" t="inlineStr"/>
       <c r="C2222" t="inlineStr">
         <is>
-          <t>[[2.57612972e-03]
- [8.23409380e+00]
- [8.20431842e+00]
- [8.20190812e+00]
- [8.25643818e+00]
- [2.14726064e+03]
- [1.45298477e+03]
- [1.33047061e+03]
- [2.15977272e+03]
- [2.66455768e-03]
- [6.58263930e-04]
- [2.57323847e-03]
- [8.28950393e+00]
- [8.26470083e+00]
- [8.26703786e+00]
- [8.33074304e+00]
- [6.53079907e+03]
- [3.89135253e+03]
- [4.24600860e+03]
- [3.18100446e+03]
- [3.85617834e-03]
- [1.50750135e-03]]</t>
+          <t>[[2.58316221e-03]
+ [9.18233308e+00]
+ [9.14940747e+00]
+ [9.14693302e+00]
+ [9.20796757e+00]
+ [2.48205524e+04]
+ [7.28495692e+03]
+ [8.50873744e+03]
+ [1.75104654e+03]
+ [7.18710627e-03]
+ [5.67346894e-03]
+ [2.56675271e-03]
+ [9.24588815e+00]
+ [9.21793716e+00]
+ [9.22031954e+00]
+ [9.29113514e+00]
+ [3.23446126e+04]
+ [1.57531859e+04]
+ [1.68214162e+04]
+ [8.61007481e+03]
+ [1.04881531e-02]
+ [8.08905151e-03]]</t>
         </is>
       </c>
       <c r="D2222" t="inlineStr"/>
@@ -55893,7 +55913,7 @@
       <c r="B2223" t="inlineStr"/>
       <c r="C2223" t="inlineStr">
         <is>
-          <t>[-250.2617206]</t>
+          <t>[-134.49066259]</t>
         </is>
       </c>
       <c r="D2223" t="inlineStr"/>
@@ -55907,7 +55927,7 @@
       <c r="B2224" t="inlineStr"/>
       <c r="C2224" t="inlineStr">
         <is>
-          <t>[-21.46241424]</t>
+          <t>[-11.99169212]</t>
         </is>
       </c>
       <c r="D2224" t="inlineStr"/>
@@ -55921,7 +55941,7 @@
       <c r="B2225" t="inlineStr"/>
       <c r="C2225" t="inlineStr">
         <is>
-          <t>[13.24152227]</t>
+          <t>[22.4291181]</t>
         </is>
       </c>
       <c r="D2225" t="inlineStr"/>
@@ -55935,7 +55955,7 @@
       <c r="B2226" t="inlineStr"/>
       <c r="C2226" t="inlineStr">
         <is>
-          <t>[0.02818894]</t>
+          <t>[0.03144402]</t>
         </is>
       </c>
       <c r="D2226" t="inlineStr"/>
@@ -55989,36 +56009,36 @@
       </c>
       <c r="C2229" t="inlineStr">
         <is>
-          <t>[[90959263.97978365]
- [87606431.81963687]
- [84223151.1825479 ]
- [90110768.28599606]
- [86269294.81909062]
- [82409926.28329112]
- [88315641.84108438]
- [83940482.02360609]
- [79565016.50279899]
- [84468633.6567621 ]
- [79557317.3295231 ]
- [74663453.85337412]
- [78887523.15346682]
- [73395922.04570907]
- [67942447.00336836]
- [71908143.61115964]
- [65723788.50329784]
- [59603149.02768721]
- [62913885.67927073]
- [55877203.78059521]
- [48940666.78550693]
- [50426696.79279302]
- [42403984.34406662]
- [34584244.98151862]
- [32475369.43813619]
- [24299261.89293673]
- [16881970.60899574]
- [12281098.34310961]
- [ 9882468.94067129]
- [12967642.33633085]]</t>
+          <t>[[1.54971544e+08]
+ [1.49470097e+08]
+ [1.43925775e+08]
+ [1.54278120e+08]
+ [1.47996216e+08]
+ [1.41690718e+08]
+ [1.52239210e+08]
+ [1.45101749e+08]
+ [1.37967098e+08]
+ [1.46993899e+08]
+ [1.38989201e+08]
+ [1.31017892e+08]
+ [1.39143541e+08]
+ [1.30207329e+08]
+ [1.21336915e+08]
+ [1.29432417e+08]
+ [1.19378599e+08]
+ [1.09420219e+08]
+ [1.16993556e+08]
+ [1.05515797e+08]
+ [9.41599329e+07]
+ [9.93306907e+07]
+ [8.60477306e+07]
+ [7.29452524e+07]
+ [7.21548389e+07]
+ [5.78337949e+07]
+ [4.37465060e+07]
+ [3.35948800e+07]
+ [2.17355541e+07]
+ [1.57539075e+07]]</t>
         </is>
       </c>
       <c r="D2229" t="inlineStr"/>
@@ -56036,36 +56056,36 @@
       </c>
       <c r="C2230" t="inlineStr">
         <is>
-          <t>[[3012835.45536605]
- [3027310.17455321]
- [3038636.05504902]
- [3404505.41792119]
- [3412344.86334413]
- [3416233.28237429]
- [3848568.58988671]
- [3846221.53351166]
- [3842817.04154937]
- [4316920.68359327]
- [4305352.95024651]
- [4291970.2937453 ]
- [4840963.90900286]
- [4818948.25621226]
- [4795035.56017224]
- [5492591.20493453]
- [5458898.15997278]
- [5423741.95580497]
- [6339049.52254072]
- [6293322.7766204 ]
- [6246918.2521931 ]
- [7435764.45103521]
- [7377998.26245036]
- [7319481.96316174]
- [8713287.16994706]
- [8713603.65470605]
- [8706111.94439789]
- [9566984.35438947]
- [9741941.697516  ]
- [9920466.4819047 ]]</t>
+          <t>[[ 5011782.45359753]
+ [ 5035365.33093244]
+ [ 5054057.06012429]
+ [ 5662580.09876493]
+ [ 5676239.80801457]
+ [ 5682603.8375819 ]
+ [ 6401293.61719595]
+ [ 6399342.55109439]
+ [ 6396390.49338109]
+ [ 7187234.22912722]
+ [ 7169364.41691581]
+ [ 7148606.06633055]
+ [ 8063902.3158425 ]
+ [ 8028497.27311899]
+ [ 7990625.040528  ]
+ [ 9155540.92471147]
+ [ 9103633.38353907]
+ [ 9050943.94737292]
+ [10586496.995694  ]
+ [10521388.57809387]
+ [10458085.26170691]
+ [12467518.49815026]
+ [12394344.4733743 ]
+ [12324082.3628396 ]
+ [14708641.34217843]
+ [14756686.8060284 ]
+ [14804107.16686576]
+ [16353793.04809385]
+ [16759299.4756885 ]
+ [17188621.65434301]]</t>
         </is>
       </c>
       <c r="D2230" t="inlineStr"/>
@@ -56173,36 +56193,36 @@
       <c r="B2233" t="inlineStr"/>
       <c r="C2233" t="inlineStr">
         <is>
-          <t>[[0.4634698 ]
- [0.44645489]
- [0.42928421]
- [0.45938155]
- [0.43988965]
- [0.42030879]
- [0.45055246]
- [0.42836197]
- [0.40617615]
- [0.4313904 ]
- [0.4065014 ]
- [0.38171138]
- [0.40358556]
- [0.37579697]
- [0.34822233]
- [0.36901584]
- [0.33781168]
- [0.30697794]
- [0.32492108]
- [0.28964747]
- [0.25501602]
- [0.26480769]
- [0.22534508]
- [0.18743172]
- [0.18223276]
- [0.14557267]
- [0.11520285]
- [0.1049679 ]
- [0.09951302]
- [0.1095536 ]]</t>
+          <t>[[0.78957242]
+ [0.76164842]
+ [0.73350614]
+ [0.78640195]
+ [0.75452248]
+ [0.72252531]
+ [0.77650208]
+ [0.7402944 ]
+ [0.70411042]
+ [0.75045023]
+ [0.7098711 ]
+ [0.6694756 ]
+ [0.71140196]
+ [0.66615426]
+ [0.62126738]
+ [0.66337522]
+ [0.61258383]
+ [0.56233606]
+ [0.6024503 ]
+ [0.54474551]
+ [0.48781561]
+ [0.51714912]
+ [0.45119403]
+ [0.3866872 ]
+ [0.38932264]
+ [0.32171397]
+ [0.25800918]
+ [0.22359507]
+ [0.18451927]
+ [0.17137969]]</t>
         </is>
       </c>
       <c r="D2233" t="inlineStr"/>
@@ -56216,36 +56236,36 @@
       <c r="B2234" t="inlineStr"/>
       <c r="C2234" t="inlineStr">
         <is>
-          <t>[[0.03557413]
- [0.03425725]
- [0.03298436]
- [0.03601843]
- [0.03466555]
- [0.03336125]
- [0.03690183]
- [0.03551229]
- [0.03417391]
- [0.03792348]
- [0.03648886]
- [0.03510969]
- [0.04073129]
- [0.03919584]
- [0.03772692]
- [0.04612985]
- [0.04441834]
- [0.04279164]
- [0.05568059]
- [0.05369115]
- [0.05181249]
- [0.07211169]
- [0.06966976]
- [0.06739672]
- [0.08864124]
- [0.08594095]
- [0.08298702]
- [0.09338751]
- [0.08978078]
- [0.08602094]]</t>
+          <t>[[0.03564153]
+ [0.03431952]
+ [0.03304151]
+ [0.03607748]
+ [0.03471886]
+ [0.03340889]
+ [0.03695012]
+ [0.03555421]
+ [0.03420959]
+ [0.03795757]
+ [0.03651605]
+ [0.0351302 ]
+ [0.04074815]
+ [0.03920513]
+ [0.03772898]
+ [0.04612365]
+ [0.04440371]
+ [0.04276908]
+ [0.05564001]
+ [0.05364103]
+ [0.05175359]
+ [0.07201469]
+ [0.06956191]
+ [0.0672793 ]
+ [0.08847048]
+ [0.08575982]
+ [0.08279771]
+ [0.0931595 ]
+ [0.08954782]
+ [0.08578534]]</t>
         </is>
       </c>
       <c r="D2234" t="inlineStr"/>
@@ -56259,36 +56279,36 @@
       <c r="B2235" t="inlineStr"/>
       <c r="C2235" t="inlineStr">
         <is>
-          <t>[[0.82554123]
- [0.79278684]
- [0.76034641]
- [0.82169076]
- [0.78541479]
- [0.74959365]
- [0.8130934 ]
- [0.773023  ]
- [0.73356516]
- [0.78960444]
- [0.74576356]
- [0.70270282]
- [0.75543734]
- [0.70751715]
- [0.66059539]
- [0.71620842]
- [0.66331763]
- [0.61170291]
- [0.66937105]
- [0.61023126]
- [0.55273412]
- [0.60475261]
- [0.53824321]
- [0.47429326]
- [0.50474635]
- [0.44091603]
- [0.38165108]
- [0.37211675]
- [0.35672891]
- [0.38009492]]</t>
+          <t>[[1.26069087]
+ [1.21184169]
+ [1.16338146]
+ [1.25921437]
+ [1.20478344]
+ [1.15094823]
+ [1.25046953]
+ [1.18997363]
+ [1.13031012]
+ [1.21863662]
+ [1.15206359]
+ [1.08659792]
+ [1.17019887]
+ [1.09710154]
+ [1.02543488]
+ [1.11407024]
+ [1.03299347]
+ [0.95368494]
+ [1.04610728]
+ [0.95466128]
+ [0.86532251]
+ [0.94878803]
+ [0.84400324]
+ [0.74199472]
+ [0.78708001]
+ [0.67895604]
+ [0.57175258]
+ [0.52446781]
+ [0.44126722]
+ [0.39933322]]</t>
         </is>
       </c>
       <c r="D2235" t="inlineStr"/>
@@ -56338,7 +56358,7 @@
       <c r="B2238" t="inlineStr"/>
       <c r="C2238" t="inlineStr">
         <is>
-          <t>[0.59241867]</t>
+          <t>[0.91725839]</t>
         </is>
       </c>
       <c r="D2238" t="inlineStr"/>
